--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E2518-EC12-4FE3-B799-9D1ABD5AE2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD31054-89A0-44A7-B64A-E88A0FD568EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$101</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="117">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -721,6 +721,321 @@
     <rPh sb="6" eb="8">
       <t>キョウツウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>小エネミー(近距離)</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小エネミー(遠距離)</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大エネミー(遠距離)</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大エネミー(近距離)</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー共通</t>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃前に目が光る</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体のサイズは小さく攻撃は近距離</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体のサイズは小さく攻撃は遠距離</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体のサイズは大きく攻撃は近距離</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体のサイズは大きく攻撃は遠距離</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全方位に回転しながらビーム</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンホウイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全方位に刀を出して突進</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンホウイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドーナツ型の攻撃を手前からアーチを描くように出す</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回りながら弾を上下にばらまく</t>
+    <rPh sb="0" eb="1">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追尾ミサイル</t>
+    <rPh sb="0" eb="2">
+      <t>ツイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喰らい状態</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルステージ(ゲームを開始した際のステージ)</t>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃墟っぽいステージ</t>
+    <rPh sb="0" eb="2">
+      <t>ハイキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス部屋</t>
+    <rPh sb="2" eb="4">
+      <t>ベヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡した際セーブポイントから</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブデータ3つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量調整</t>
+    <rPh sb="0" eb="2">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーン切り替え</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -802,7 +1117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,6 +1238,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1152,7 +1479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1218,7 +1545,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1228,8 +1558,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFAFFF"/>
+      <color rgb="FFFF6600"/>
       <color rgb="FFFFD4B7"/>
-      <color rgb="FFFF6600"/>
       <color rgb="FF9933FF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFFF3300"/>
@@ -1237,7 +1568,6 @@
       <color rgb="FF00FFFF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FF66FFCC"/>
-      <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1517,7 +1847,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1533,8 +1863,8 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F3:F126)</f>
-        <v>30.25</v>
+        <f>SUM(作業工数見積もり!F3:F131)</f>
+        <v>48.25</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1542,7 +1872,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!H3:H53,"完了",作業工数見積もり!F3:F53)</f>
+        <f>SUMIF(作業工数見積もり!H3:H58,"完了",作業工数見積もり!F3:F58)</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
@@ -1577,7 +1907,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45921</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1602,7 +1932,7 @@
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>-0.17285714285714285</v>
+        <v>-0.27571428571428569</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1619,7 +1949,7 @@
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>-0.18113772455089822</v>
+        <v>-0.28892215568862273</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1636,7 +1966,7 @@
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>-0.18333333333333332</v>
+        <v>-0.29242424242424242</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1719,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M97"/>
+  <dimension ref="B2:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -1794,7 +2124,7 @@
       </c>
       <c r="K3" s="24">
         <f>SUM(K4,K5,K6)</f>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="26"/>
@@ -1826,8 +2156,8 @@
         <v>28</v>
       </c>
       <c r="K4" s="28">
-        <f>COUNTIF(E3:E94,J4)</f>
-        <v>33</v>
+        <f>COUNTIF(E3:E99,J4)</f>
+        <v>56</v>
       </c>
       <c r="L4" s="29"/>
       <c r="M4" s="26"/>
@@ -1859,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="28">
-        <f>COUNTIF(E3:E94,J5)</f>
+        <f>COUNTIF(E3:E99,J5)</f>
         <v>4</v>
       </c>
       <c r="L5" s="29"/>
@@ -1892,7 +2222,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="28">
-        <f>COUNTIF(E3:E94,J6)</f>
+        <f>COUNTIF(E3:E99,J6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="29"/>
@@ -1925,7 +2255,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="28">
-        <f>COUNTIF(H3:H94,J7)</f>
+        <f>COUNTIF(H3:H99,J7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="33">
@@ -1961,8 +2291,8 @@
         <v>42</v>
       </c>
       <c r="K8" s="28">
-        <f>COUNTIF(H3:H94,J8)</f>
-        <v>37</v>
+        <f>COUNTIF(H3:H99,J8)</f>
+        <v>60</v>
       </c>
       <c r="L8" s="35">
         <f>(K8+K9)/K3</f>
@@ -1997,7 +2327,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="19">
-        <f>COUNTIF(H3:H94,J9)</f>
+        <f>COUNTIF(H3:H99,J9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
@@ -2058,8 +2388,8 @@
         <v>45</v>
       </c>
       <c r="K11" s="19">
-        <f>SUM(F3:F94)</f>
-        <v>30.25</v>
+        <f>SUM(F3:F99)</f>
+        <v>48.25</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="26"/>
@@ -2092,7 +2422,7 @@
       </c>
       <c r="K12" s="42">
         <f>8*K11</f>
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="L12" s="43"/>
       <c r="M12" s="26"/>
@@ -2128,7 +2458,7 @@
       <c r="M13" s="26"/>
     </row>
     <row r="14" spans="2:13" ht="36" thickBot="1">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="51" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2156,7 +2486,7 @@
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="35.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="51" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -2182,7 +2512,7 @@
       <c r="K15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="35.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="51" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -2208,7 +2538,7 @@
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="2:11" ht="35.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="51" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -2234,7 +2564,7 @@
       <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="35.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -2260,7 +2590,7 @@
       <c r="K18" s="26"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2284,7 +2614,7 @@
       <c r="J19" s="46"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -2307,7 +2637,7 @@
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -2330,7 +2660,7 @@
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -2353,7 +2683,7 @@
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -2376,7 +2706,7 @@
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2399,7 +2729,7 @@
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -2422,57 +2752,57 @@
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="D27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="15">
         <v>2</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="14" t="s">
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C28" s="44" t="s">
         <v>57</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>74</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>5</v>
@@ -2491,34 +2821,34 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>58</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="15">
-        <v>1</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>59</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>5</v>
@@ -2537,11 +2867,11 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>5</v>
@@ -2560,11 +2890,11 @@
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>5</v>
@@ -2583,11 +2913,11 @@
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>5</v>
@@ -2606,11 +2936,11 @@
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>5</v>
@@ -2629,11 +2959,11 @@
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>63</v>
+      <c r="B35" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>5</v>
@@ -2652,114 +2982,640 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="50" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="15">
+      <c r="D37" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="15">
         <v>1</v>
       </c>
-      <c r="G36" s="15">
-        <v>0</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="15">
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="15">
         <v>1</v>
       </c>
-      <c r="G37" s="15">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="15">
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="15">
         <v>1</v>
       </c>
-      <c r="G38" s="15">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="15">
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="15">
         <v>1</v>
       </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="18"/>
-    </row>
-    <row r="97" spans="8:8">
-      <c r="H97" s="40"/>
+      <c r="G46" s="15">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="15">
+        <v>1</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="15">
+        <v>1</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="15">
+        <v>1</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="15">
+        <v>1</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="15">
+        <v>1</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="15">
+        <v>1</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="15">
+        <v>1</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="15">
+        <v>1</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="15">
+        <v>1</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="15">
+        <v>1</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="15">
+        <v>1</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="15">
+        <v>1</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="15">
+        <v>1</v>
+      </c>
+      <c r="G59" s="15">
+        <v>0</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="15">
+        <v>1</v>
+      </c>
+      <c r="G60" s="15">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="15">
+        <v>1</v>
+      </c>
+      <c r="G61" s="15">
+        <v>0</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="15">
+        <v>1</v>
+      </c>
+      <c r="G62" s="15">
+        <v>0</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="18"/>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D96" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D101" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E96" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H96" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2769,27 +3625,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -3032,26 +3867,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3068,4 +3905,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD31054-89A0-44A7-B64A-E88A0FD568EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0AAE9C-4FA5-46A2-9A68-D23E3D752AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$113</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="157">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -710,13 +710,6 @@
     <t>防御力</t>
   </si>
   <si>
-    <t>レベル(最大99)</t>
-    <rPh sb="4" eb="6">
-      <t>サイダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラクター共通</t>
     <rPh sb="6" eb="8">
       <t>キョウツウ</t>
@@ -774,13 +767,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エネミー共通</t>
-    <rPh sb="4" eb="6">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃前に目が光る</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -971,13 +957,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>廃墟っぽいステージ</t>
-    <rPh sb="0" eb="2">
-      <t>ハイキョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボス部屋</t>
     <rPh sb="2" eb="4">
       <t>ベヤ</t>
@@ -1035,7 +1014,314 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シーン</t>
+    <t>タイトルシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モードセレクトシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリアシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズメニューシーン(設定もここ)</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃墟っぽいステージ(広い)</t>
+    <rPh sb="0" eb="2">
+      <t>ハイキョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーンポイント(敵の生成とどの敵が生きているかを記録するもの)</t>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃アップ</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力アップ</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復ショートカット</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置調整</t>
+    <rPh sb="0" eb="4">
+      <t>イチチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス設計</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM実装</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE実装</t>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VC実装</t>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャスト回避エフェクト</t>
+    <rPh sb="4" eb="6">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃時の眼の光</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゲキジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>ドーナツと球の当たり判定</t>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドーナツとカプセルの当たり判定</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ベータ</t>
+  </si>
+  <si>
+    <t>ヒットエフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スローモーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットストップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンティニューシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッジ(ダメージを喰らった時)</t>
+    <rPh sb="10" eb="11">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッジ + 白黒(体力が残り2~3割になったら)</t>
+    <rPh sb="7" eb="9">
+      <t>シロクロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白黒(死亡時)</t>
+    <rPh sb="0" eb="2">
+      <t>シロクロ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シボウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル(最大100)</t>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値(敵の場合このステータスは倒されたときにプレイヤーに渡す値にする)</t>
+    <rPh sb="0" eb="3">
+      <t>ケイケンチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードシーン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1117,7 +1403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,8 +1536,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9933FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1472,6 +1788,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1479,7 +1815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1549,6 +1885,16 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1558,15 +1904,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FFFFD4B7"/>
+      <color rgb="FF9933FF"/>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFFFAFFF"/>
       <color rgb="FFFF6600"/>
-      <color rgb="FFFFD4B7"/>
-      <color rgb="FF9933FF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FFCCFF99"/>
       <color rgb="FF66FFCC"/>
     </mruColors>
   </colors>
@@ -1863,8 +2209,8 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F3:F131)</f>
-        <v>48.25</v>
+        <f>SUM(作業工数見積もり!F5:F143)</f>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1872,8 +2218,8 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!H3:H58,"完了",作業工数見積もり!F3:F58)</f>
-        <v>0</v>
+        <f>SUMIF(作業工数見積もり!H5:H67,"完了",作業工数見積もり!F5:F67)</f>
+        <v>4.75</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1889,7 +2235,7 @@
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>0</v>
+        <v>2.092511013215859E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1932,7 +2278,7 @@
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>-0.27571428571428569</v>
+        <v>-0.32714285714285712</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1949,7 +2295,7 @@
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>-0.28892215568862273</v>
+        <v>-0.34281437125748504</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1966,7 +2312,7 @@
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>-0.29242424242424242</v>
+        <v>-0.34696969696969698</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2044,15 +2390,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M102"/>
+  <dimension ref="B2:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2072,7 +2419,7 @@
     <col min="13" max="16384" width="9.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="33.75" thickBot="1">
+    <row r="2" spans="2:13">
       <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
@@ -2097,20 +2444,20 @@
       <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="21" t="s">
-        <v>48</v>
+      <c r="B3" s="59" t="s">
+        <v>129</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="15">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G3" s="15">
         <v>0</v>
@@ -2119,31 +2466,26 @@
         <v>36</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="24">
-        <f>SUM(K4,K5,K6)</f>
-        <v>60</v>
-      </c>
-      <c r="L3" s="25"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="21" t="s">
-        <v>48</v>
+    <row r="4" spans="2:13" ht="33.75" thickBot="1">
+      <c r="B4" s="59" t="s">
+        <v>129</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4" s="15">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
@@ -2152,14 +2494,9 @@
         <v>36</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="28">
-        <f>COUNTIF(E3:E99,J4)</f>
-        <v>56</v>
-      </c>
-      <c r="L4" s="29"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="26"/>
     </row>
     <row r="5" spans="2:13">
@@ -2167,7 +2504,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>5</v>
@@ -2185,14 +2522,14 @@
         <v>36</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="28">
-        <f>COUNTIF(E3:E99,J5)</f>
-        <v>4</v>
-      </c>
-      <c r="L5" s="29"/>
+      <c r="J5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="24">
+        <f>SUM(K6,K7,K8)</f>
+        <v>89</v>
+      </c>
+      <c r="L5" s="25"/>
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="2:13">
@@ -2200,7 +2537,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>5</v>
@@ -2209,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G6" s="15">
         <v>0</v>
@@ -2218,12 +2555,12 @@
         <v>36</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="31" t="s">
-        <v>29</v>
+      <c r="J6" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="K6" s="28">
-        <f>COUNTIF(E3:E99,J6)</f>
-        <v>0</v>
+        <f>COUNTIF(E5:E111,J6)</f>
+        <v>56</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="26"/>
@@ -2233,16 +2570,16 @@
         <v>48</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F7" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
@@ -2251,17 +2588,14 @@
         <v>36</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="32" t="s">
-        <v>18</v>
+      <c r="J7" s="30" t="s">
+        <v>0</v>
       </c>
       <c r="K7" s="28">
-        <f>COUNTIF(H3:H99,J7)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="33">
-        <f>K7/K3</f>
-        <v>0</v>
-      </c>
+        <f>COUNTIF(E5:E111,J7)</f>
+        <v>23</v>
+      </c>
+      <c r="L7" s="29"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="2:13">
@@ -2269,96 +2603,104 @@
         <v>48</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="28">
+        <f>COUNTIF(E5:E111,J8)</f>
+        <v>10</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="28">
+        <f>COUNTIF(H5:H111,J9)</f>
+        <v>7</v>
+      </c>
+      <c r="L9" s="33">
+        <f>K9/K5</f>
+        <v>7.8651685393258425E-2</v>
+      </c>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="D10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="34" t="s">
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="28">
-        <f>COUNTIF(H3:H99,J8)</f>
-        <v>60</v>
-      </c>
-      <c r="L8" s="35">
-        <f>(K8+K9)/K3</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="19">
-        <f>COUNTIF(H3:H99,J9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="29"/>
+      <c r="K10" s="28">
+        <f>COUNTIF(H5:H111,J10)</f>
+        <v>82</v>
+      </c>
+      <c r="L10" s="35">
+        <f>(K10+K11)/K5</f>
+        <v>0.9213483146067416</v>
+      </c>
       <c r="M10" s="26"/>
     </row>
     <row r="11" spans="2:13">
@@ -2366,7 +2708,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>5</v>
@@ -2381,25 +2723,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="39" t="s">
-        <v>45</v>
+      <c r="J11" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="K11" s="19">
-        <f>SUM(F3:F99)</f>
-        <v>48.25</v>
+        <f>COUNTIF(H5:H111,J11)</f>
+        <v>0</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" thickBot="1">
+    <row r="12" spans="2:13">
       <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>5</v>
@@ -2408,31 +2750,26 @@
         <v>17</v>
       </c>
       <c r="F12" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="42">
-        <f>8*K11</f>
-        <v>386</v>
-      </c>
-      <c r="L12" s="43"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="2:13" ht="35.25">
+    <row r="13" spans="2:13">
       <c r="B13" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>5</v>
@@ -2441,28 +2778,31 @@
         <v>17</v>
       </c>
       <c r="F13" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G13" s="15">
         <v>0</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="I13" s="22"/>
-      <c r="J13" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="19"/>
+      <c r="J13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="19">
+        <f>SUM(F5:F111)</f>
+        <v>62</v>
+      </c>
+      <c r="L13" s="29"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="2:13" ht="36" thickBot="1">
-      <c r="B14" s="51" t="s">
-        <v>82</v>
+    <row r="14" spans="2:13" ht="33.75" thickBot="1">
+      <c r="B14" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>5</v>
@@ -2477,72 +2817,83 @@
         <v>0</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="42">
+        <f>8*K13</f>
+        <v>496</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="2:13" ht="35.25">
+      <c r="B15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="45"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="2:13" ht="36" thickBot="1">
+      <c r="B16" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:13" ht="35.25">
-      <c r="B15" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="2:13" ht="35.25">
-      <c r="B16" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="49"/>
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="2:11" ht="35.25">
-      <c r="B17" s="51" t="s">
-        <v>82</v>
+      <c r="B17" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>5</v>
@@ -2551,24 +2902,24 @@
         <v>17</v>
       </c>
       <c r="F17" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="15">
         <v>0</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="49"/>
       <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="35.25">
-      <c r="B18" s="50" t="s">
-        <v>54</v>
+      <c r="B18" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>5</v>
@@ -2589,12 +2940,12 @@
       <c r="J18" s="49"/>
       <c r="K18" s="26"/>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="50" t="s">
-        <v>54</v>
+    <row r="19" spans="2:11" ht="35.25">
+      <c r="B19" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>5</v>
@@ -2603,7 +2954,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G19" s="15">
         <v>0</v>
@@ -2611,14 +2962,16 @@
       <c r="H19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="50" t="s">
-        <v>54</v>
+      <c r="I19" s="22"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="2:11" ht="35.25">
+      <c r="B20" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>5</v>
@@ -2627,7 +2980,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="15">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
@@ -2635,13 +2988,16 @@
       <c r="H20" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="50" t="s">
-        <v>54</v>
+      <c r="I20" s="22"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="35.25">
+      <c r="B21" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>5</v>
@@ -2650,7 +3006,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G21" s="15">
         <v>0</v>
@@ -2658,13 +3014,16 @@
       <c r="H21" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="50" t="s">
-        <v>54</v>
+      <c r="B22" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>5</v>
@@ -2673,7 +3032,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -2681,13 +3040,14 @@
       <c r="H22" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="50" t="s">
-        <v>54</v>
+      <c r="B23" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>5</v>
@@ -2696,7 +3056,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="15">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -2704,13 +3064,14 @@
       <c r="H23" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>5</v>
@@ -2733,7 +3094,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>5</v>
@@ -2742,7 +3103,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -2756,16 +3117,16 @@
         <v>54</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="15">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="G26" s="15">
         <v>0</v>
@@ -2778,8 +3139,8 @@
       <c r="B27" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="44" t="s">
-        <v>56</v>
+      <c r="C27" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>5</v>
@@ -2788,7 +3149,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="15">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="15">
         <v>0</v>
@@ -2801,8 +3162,8 @@
       <c r="B28" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="44" t="s">
-        <v>57</v>
+      <c r="C28" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>5</v>
@@ -2811,7 +3172,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="15">
         <v>0</v>
@@ -2824,8 +3185,8 @@
       <c r="B29" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="44" t="s">
-        <v>74</v>
+      <c r="C29" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>5</v>
@@ -2834,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G29" s="15">
         <v>0</v>
@@ -2847,8 +3208,8 @@
       <c r="B30" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="44" t="s">
-        <v>58</v>
+      <c r="C30" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>5</v>
@@ -2857,7 +3218,7 @@
         <v>17</v>
       </c>
       <c r="F30" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G30" s="15">
         <v>0</v>
@@ -2870,8 +3231,8 @@
       <c r="B31" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="44" t="s">
-        <v>59</v>
+      <c r="C31" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>5</v>
@@ -2880,7 +3241,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G31" s="15">
         <v>0</v>
@@ -2893,17 +3254,17 @@
       <c r="B32" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="44" t="s">
-        <v>60</v>
+      <c r="C32" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G32" s="15">
         <v>0</v>
@@ -2917,7 +3278,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>5</v>
@@ -2926,7 +3287,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="15">
         <v>0</v>
@@ -2940,7 +3301,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>5</v>
@@ -2963,7 +3324,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>5</v>
@@ -2972,7 +3333,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
@@ -2983,10 +3344,10 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>58</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>5</v>
@@ -2995,7 +3356,7 @@
         <v>17</v>
       </c>
       <c r="F36" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="15">
         <v>0</v>
@@ -3006,10 +3367,10 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>59</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>5</v>
@@ -3018,7 +3379,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G37" s="15">
         <v>0</v>
@@ -3029,10 +3390,10 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>60</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>5</v>
@@ -3041,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G38" s="15">
         <v>0</v>
@@ -3052,10 +3413,10 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>5</v>
@@ -3064,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F39" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G39" s="15">
         <v>0</v>
@@ -3075,10 +3436,10 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>5</v>
@@ -3097,11 +3458,11 @@
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>101</v>
+      <c r="B41" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>5</v>
@@ -3110,7 +3471,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G41" s="15">
         <v>0</v>
@@ -3120,11 +3481,11 @@
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="52" t="s">
-        <v>89</v>
+      <c r="B42" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>5</v>
@@ -3143,11 +3504,11 @@
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="52" t="s">
-        <v>89</v>
+      <c r="B43" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>5</v>
@@ -3166,20 +3527,20 @@
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="52" t="s">
-        <v>85</v>
+      <c r="B44" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G44" s="15">
         <v>0</v>
@@ -3189,20 +3550,20 @@
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="52" t="s">
-        <v>86</v>
+      <c r="B45" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G45" s="15">
         <v>0</v>
@@ -3212,20 +3573,20 @@
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="52" t="s">
-        <v>88</v>
+      <c r="B46" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G46" s="15">
         <v>0</v>
@@ -3235,20 +3596,20 @@
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="52" t="s">
-        <v>87</v>
+      <c r="B47" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F47" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -3259,10 +3620,10 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="52" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>5</v>
@@ -3271,7 +3632,7 @@
         <v>17</v>
       </c>
       <c r="F48" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G48" s="15">
         <v>0</v>
@@ -3282,10 +3643,10 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="52" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>5</v>
@@ -3294,7 +3655,7 @@
         <v>17</v>
       </c>
       <c r="F49" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
@@ -3305,10 +3666,10 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="52" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>5</v>
@@ -3317,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="F50" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G50" s="15">
         <v>0</v>
@@ -3328,10 +3689,10 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="52" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>5</v>
@@ -3340,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="F51" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
@@ -3351,10 +3712,10 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="52" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>5</v>
@@ -3373,11 +3734,11 @@
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="14" t="s">
-        <v>103</v>
+      <c r="B53" s="52" t="s">
+        <v>85</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>5</v>
@@ -3396,17 +3757,17 @@
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="14" t="s">
-        <v>103</v>
+      <c r="B54" s="52" t="s">
+        <v>87</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F54" s="15">
         <v>1</v>
@@ -3419,17 +3780,17 @@
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="14" t="s">
-        <v>103</v>
+      <c r="B55" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F55" s="15">
         <v>1</v>
@@ -3442,11 +3803,11 @@
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="14" t="s">
-        <v>103</v>
+      <c r="B56" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>5</v>
@@ -3465,20 +3826,20 @@
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="14" t="s">
-        <v>103</v>
+      <c r="B57" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G57" s="15">
         <v>0</v>
@@ -3488,20 +3849,20 @@
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="14" t="s">
-        <v>108</v>
+      <c r="B58" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F58" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G58" s="15">
         <v>0</v>
@@ -3511,20 +3872,20 @@
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="14" t="s">
-        <v>108</v>
+      <c r="B59" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F59" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G59" s="15">
         <v>0</v>
@@ -3534,20 +3895,20 @@
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="14" t="s">
-        <v>113</v>
+      <c r="B60" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F60" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G60" s="15">
         <v>0</v>
@@ -3557,11 +3918,11 @@
       </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="14" t="s">
-        <v>113</v>
+      <c r="B61" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>5</v>
@@ -3570,7 +3931,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -3580,8 +3941,11 @@
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="14" t="s">
-        <v>116</v>
+      <c r="B62" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>5</v>
@@ -3599,23 +3963,736 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="18"/>
-    </row>
-    <row r="102" spans="8:8">
-      <c r="H102" s="40"/>
+    <row r="63" spans="2:8">
+      <c r="B63" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="15">
+        <v>1</v>
+      </c>
+      <c r="G63" s="15">
+        <v>0</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="15">
+        <v>1</v>
+      </c>
+      <c r="G64" s="15">
+        <v>0</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="15">
+        <v>0</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G67" s="15">
+        <v>0</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="15">
+        <v>1</v>
+      </c>
+      <c r="G68" s="15">
+        <v>0</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="15">
+        <v>1</v>
+      </c>
+      <c r="G69" s="15">
+        <v>0</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="15">
+        <v>1</v>
+      </c>
+      <c r="G70" s="15">
+        <v>0</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="15">
+        <v>0</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G72" s="15">
+        <v>0</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G74" s="15">
+        <v>0</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G76" s="15">
+        <v>0</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" s="15">
+        <v>1</v>
+      </c>
+      <c r="G77" s="15">
+        <v>0</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" s="15">
+        <v>1</v>
+      </c>
+      <c r="G78" s="15">
+        <v>0</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" s="15">
+        <v>1</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="15">
+        <v>1</v>
+      </c>
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="15">
+        <v>1</v>
+      </c>
+      <c r="G81" s="15">
+        <v>0</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" s="15">
+        <v>1</v>
+      </c>
+      <c r="G82" s="15">
+        <v>0</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" s="15">
+        <v>1</v>
+      </c>
+      <c r="G83" s="15">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F84" s="15">
+        <v>1</v>
+      </c>
+      <c r="G84" s="15">
+        <v>0</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" s="15">
+        <v>1</v>
+      </c>
+      <c r="G85" s="15">
+        <v>0</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F86" s="15">
+        <v>1</v>
+      </c>
+      <c r="G86" s="15">
+        <v>0</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="15">
+        <v>1</v>
+      </c>
+      <c r="G87" s="15">
+        <v>0</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G88" s="15">
+        <v>0</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="15">
+        <v>0</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G90" s="15">
+        <v>0</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G91" s="15">
+        <v>0</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G92" s="15">
+        <v>0</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G93" s="15">
+        <v>0</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="18"/>
+    </row>
+    <row r="114" spans="8:8">
+      <c r="H114" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D101" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D113" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E113" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H113" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3625,6 +4702,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -3867,28 +4965,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3905,23 +5001,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0AAE9C-4FA5-46A2-9A68-D23E3D752AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A665BB2C-FE52-45FE-B8EE-1581C0D1DB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$116</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="161">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -1322,6 +1322,40 @@
   </si>
   <si>
     <t>ロードシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットを追跡</t>
+    <rPh sb="6" eb="8">
+      <t>ツイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁と床当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵ロックオン</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1815,7 +1849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1895,6 +1929,7 @@
     <xf numFmtId="0" fontId="4" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1904,6 +1939,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFFD4B7"/>
       <color rgb="FF9933FF"/>
@@ -1911,7 +1947,6 @@
       <color rgb="FFFFAFFF"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF33CCFF"/>
-      <color rgb="FFFF3300"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF66FFCC"/>
     </mruColors>
@@ -2209,8 +2244,8 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F143)</f>
-        <v>62</v>
+        <f>SUM(作業工数見積もり!F5:F146)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2231,11 +2266,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>2.092511013215859E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2253,7 +2288,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45921</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2274,11 +2309,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>-175</v>
+        <v>-176</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>-0.32714285714285712</v>
+        <v>-0.34232954545454547</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2291,11 +2326,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>-167</v>
+        <v>-168</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>-0.34281437125748504</v>
+        <v>-0.35863095238095238</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2308,11 +2343,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>-165</v>
+        <v>-166</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>-0.34696969696969698</v>
+        <v>-0.36295180722891568</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2396,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M114"/>
+  <dimension ref="B2:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2527,7 +2562,7 @@
       </c>
       <c r="K5" s="24">
         <f>SUM(K6,K7,K8)</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="26"/>
@@ -2559,8 +2594,8 @@
         <v>28</v>
       </c>
       <c r="K6" s="28">
-        <f>COUNTIF(E5:E111,J6)</f>
-        <v>56</v>
+        <f>COUNTIF(E5:E114,J6)</f>
+        <v>59</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="26"/>
@@ -2592,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="28">
-        <f>COUNTIF(E5:E111,J7)</f>
+        <f>COUNTIF(E5:E114,J7)</f>
         <v>23</v>
       </c>
       <c r="L7" s="29"/>
@@ -2625,7 +2660,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="28">
-        <f>COUNTIF(E5:E111,J8)</f>
+        <f>COUNTIF(E5:E114,J8)</f>
         <v>10</v>
       </c>
       <c r="L8" s="29"/>
@@ -2658,12 +2693,12 @@
         <v>18</v>
       </c>
       <c r="K9" s="28">
-        <f>COUNTIF(H5:H111,J9)</f>
+        <f>COUNTIF(H5:H114,J9)</f>
         <v>7</v>
       </c>
       <c r="L9" s="33">
         <f>K9/K5</f>
-        <v>7.8651685393258425E-2</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="M9" s="26"/>
     </row>
@@ -2694,12 +2729,12 @@
         <v>42</v>
       </c>
       <c r="K10" s="28">
-        <f>COUNTIF(H5:H111,J10)</f>
-        <v>82</v>
+        <f>COUNTIF(H5:H114,J10)</f>
+        <v>85</v>
       </c>
       <c r="L10" s="35">
         <f>(K10+K11)/K5</f>
-        <v>0.9213483146067416</v>
+        <v>0.92391304347826086</v>
       </c>
       <c r="M10" s="26"/>
     </row>
@@ -2730,7 +2765,7 @@
         <v>43</v>
       </c>
       <c r="K11" s="19">
-        <f>COUNTIF(H5:H111,J11)</f>
+        <f>COUNTIF(H5:H114,J11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
@@ -2791,8 +2826,8 @@
         <v>45</v>
       </c>
       <c r="K13" s="19">
-        <f>SUM(F5:F111)</f>
-        <v>62</v>
+        <f>SUM(F5:F114)</f>
+        <v>65</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="26"/>
@@ -2825,7 +2860,7 @@
       </c>
       <c r="K14" s="42">
         <f>8*K13</f>
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="26"/>
@@ -4148,11 +4183,11 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="44" t="s">
-        <v>122</v>
+      <c r="B71" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>5</v>
@@ -4161,7 +4196,7 @@
         <v>17</v>
       </c>
       <c r="F71" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G71" s="15">
         <v>0</v>
@@ -4171,11 +4206,11 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="44" t="s">
-        <v>122</v>
+      <c r="B72" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>5</v>
@@ -4184,7 +4219,7 @@
         <v>17</v>
       </c>
       <c r="F72" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G72" s="15">
         <v>0</v>
@@ -4194,11 +4229,11 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="44" t="s">
-        <v>122</v>
+      <c r="B73" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>5</v>
@@ -4207,7 +4242,7 @@
         <v>17</v>
       </c>
       <c r="F73" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G73" s="15">
         <v>0</v>
@@ -4221,7 +4256,7 @@
         <v>122</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>5</v>
@@ -4230,31 +4265,31 @@
         <v>17</v>
       </c>
       <c r="F74" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="15">
+        <v>0</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="15">
         <v>0.25</v>
       </c>
-      <c r="G74" s="15">
-        <v>0</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="15">
-        <v>0.5</v>
-      </c>
       <c r="G75" s="15">
         <v>0</v>
       </c>
@@ -4263,17 +4298,17 @@
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="55" t="s">
-        <v>110</v>
+      <c r="B76" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F76" s="15">
         <v>0.25</v>
@@ -4286,20 +4321,20 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="56" t="s">
-        <v>128</v>
+      <c r="B77" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F77" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G77" s="15">
         <v>0</v>
@@ -4309,20 +4344,20 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="56" t="s">
-        <v>128</v>
+      <c r="B78" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F78" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G78" s="15">
         <v>0</v>
@@ -4332,11 +4367,11 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="56" t="s">
-        <v>128</v>
+      <c r="B79" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>5</v>
@@ -4345,7 +4380,7 @@
         <v>144</v>
       </c>
       <c r="F79" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G79" s="15">
         <v>0</v>
@@ -4359,7 +4394,7 @@
         <v>128</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>5</v>
@@ -4382,13 +4417,13 @@
         <v>128</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
@@ -4405,7 +4440,7 @@
         <v>128</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>5</v>
@@ -4428,7 +4463,7 @@
         <v>128</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>5</v>
@@ -4447,17 +4482,17 @@
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="60" t="s">
-        <v>132</v>
+      <c r="B84" s="56" t="s">
+        <v>128</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -4470,11 +4505,11 @@
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="60" t="s">
-        <v>132</v>
+      <c r="B85" s="56" t="s">
+        <v>128</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>5</v>
@@ -4493,11 +4528,11 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="60" t="s">
-        <v>132</v>
+      <c r="B86" s="56" t="s">
+        <v>128</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>5</v>
@@ -4516,17 +4551,17 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="61" t="s">
-        <v>136</v>
+      <c r="B87" s="60" t="s">
+        <v>132</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
@@ -4539,20 +4574,20 @@
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="61" t="s">
-        <v>136</v>
+      <c r="B88" s="60" t="s">
+        <v>132</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="F88" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G88" s="15">
         <v>0</v>
@@ -4562,20 +4597,20 @@
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="61" t="s">
-        <v>136</v>
+      <c r="B89" s="60" t="s">
+        <v>132</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="F89" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G89" s="15">
         <v>0</v>
@@ -4589,16 +4624,16 @@
         <v>136</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F90" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G90" s="15">
         <v>0</v>
@@ -4608,17 +4643,17 @@
       </c>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="62" t="s">
-        <v>146</v>
+      <c r="B91" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F91" s="15">
         <v>0.5</v>
@@ -4631,17 +4666,17 @@
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="62" t="s">
-        <v>146</v>
+      <c r="B92" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F92" s="15">
         <v>0.5</v>
@@ -4654,11 +4689,11 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="62" t="s">
-        <v>146</v>
+      <c r="B93" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>5</v>
@@ -4667,32 +4702,101 @@
         <v>10</v>
       </c>
       <c r="F93" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G93" s="15">
+        <v>0</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="15">
         <v>0.5</v>
       </c>
-      <c r="G93" s="15">
-        <v>0</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3">
-      <c r="C105" s="18"/>
-    </row>
-    <row r="114" spans="8:8">
-      <c r="H114" s="40"/>
+      <c r="G94" s="15">
+        <v>0</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G95" s="15">
+        <v>0</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="15">
+        <v>0</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="18"/>
+    </row>
+    <row r="117" spans="8:8">
+      <c r="H117" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D113" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D116" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E113" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E116" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H113" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H116" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4702,27 +4806,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4965,26 +5048,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5001,4 +5086,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A665BB2C-FE52-45FE-B8EE-1581C0D1DB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8728A5BE-16EB-43EF-B652-65587493FB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$117</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="162">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -947,16 +947,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チュートリアルステージ(ゲームを開始した際のステージ)</t>
-    <rPh sb="16" eb="18">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボス部屋</t>
     <rPh sb="2" eb="4">
       <t>ベヤ</t>
@@ -1037,16 +1027,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>廃墟っぽいステージ(広い)</t>
-    <rPh sb="0" eb="2">
-      <t>ハイキョ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エネミー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1356,6 +1336,18 @@
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア1(チュートリアルステージ)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2244,8 +2236,8 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F146)</f>
-        <v>65</v>
+        <f>SUM(作業工数見積もり!F5:F147)</f>
+        <v>78.5</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2253,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!H5:H67,"完了",作業工数見積もり!F5:F67)</f>
+        <f>SUMIF(作業工数見積もり!H5:H68,"完了",作業工数見積もり!F5:F68)</f>
         <v>4.75</v>
       </c>
       <c r="D4" t="s">
@@ -2266,11 +2258,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>2.0833333333333332E-2</v>
+        <v>2.0474137931034482E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2288,7 +2280,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45922</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2309,11 +2301,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>-176</v>
+        <v>-180</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>-0.34232954545454547</v>
+        <v>-0.40972222222222221</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2326,11 +2318,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>-168</v>
+        <v>-172</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>-0.35863095238095238</v>
+        <v>-0.42877906976744184</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2343,11 +2335,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>-166</v>
+        <v>-170</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>-0.36295180722891568</v>
+        <v>-0.43382352941176472</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2431,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M117"/>
+  <dimension ref="B2:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2480,10 +2472,10 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>5</v>
@@ -2508,10 +2500,10 @@
     </row>
     <row r="4" spans="2:13" ht="33.75" thickBot="1">
       <c r="B4" s="59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
@@ -2562,7 +2554,7 @@
       </c>
       <c r="K5" s="24">
         <f>SUM(K6,K7,K8)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="26"/>
@@ -2594,7 +2586,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="28">
-        <f>COUNTIF(E5:E114,J6)</f>
+        <f>COUNTIF(E5:E115,J6)</f>
         <v>59</v>
       </c>
       <c r="L6" s="29"/>
@@ -2627,8 +2619,8 @@
         <v>0</v>
       </c>
       <c r="K7" s="28">
-        <f>COUNTIF(E5:E114,J7)</f>
-        <v>23</v>
+        <f>COUNTIF(E5:E115,J7)</f>
+        <v>24</v>
       </c>
       <c r="L7" s="29"/>
       <c r="M7" s="26"/>
@@ -2660,7 +2652,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="28">
-        <f>COUNTIF(E5:E114,J8)</f>
+        <f>COUNTIF(E5:E115,J8)</f>
         <v>10</v>
       </c>
       <c r="L8" s="29"/>
@@ -2693,12 +2685,12 @@
         <v>18</v>
       </c>
       <c r="K9" s="28">
-        <f>COUNTIF(H5:H114,J9)</f>
+        <f>COUNTIF(H5:H115,J9)</f>
         <v>7</v>
       </c>
       <c r="L9" s="33">
         <f>K9/K5</f>
-        <v>7.6086956521739135E-2</v>
+        <v>7.5268817204301078E-2</v>
       </c>
       <c r="M9" s="26"/>
     </row>
@@ -2729,12 +2721,12 @@
         <v>42</v>
       </c>
       <c r="K10" s="28">
-        <f>COUNTIF(H5:H114,J10)</f>
-        <v>85</v>
+        <f>COUNTIF(H5:H115,J10)</f>
+        <v>86</v>
       </c>
       <c r="L10" s="35">
         <f>(K10+K11)/K5</f>
-        <v>0.92391304347826086</v>
+        <v>0.92473118279569888</v>
       </c>
       <c r="M10" s="26"/>
     </row>
@@ -2758,14 +2750,14 @@
         <v>0</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="37" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="19">
-        <f>COUNTIF(H5:H114,J11)</f>
+        <f>COUNTIF(H5:H115,J11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="38"/>
@@ -2819,15 +2811,15 @@
         <v>0</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K13" s="19">
-        <f>SUM(F5:F114)</f>
-        <v>65</v>
+        <f>SUM(F5:F115)</f>
+        <v>78.5</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="26"/>
@@ -2852,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="41" t="s">
@@ -2860,7 +2852,7 @@
       </c>
       <c r="K14" s="42">
         <f>8*K13</f>
-        <v>520</v>
+        <v>628</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="26"/>
@@ -2885,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="47" t="s">
@@ -2900,7 +2892,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>5</v>
@@ -2915,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="48" t="s">
@@ -2928,7 +2920,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>5</v>
@@ -2943,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="49"/>
@@ -3032,7 +3024,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>5</v>
@@ -3058,7 +3050,7 @@
         <v>81</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>5</v>
@@ -3082,7 +3074,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>5</v>
@@ -3569,7 +3561,7 @@
         <v>67</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>17</v>
@@ -3592,7 +3584,7 @@
         <v>68</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>17</v>
@@ -3615,7 +3607,7 @@
         <v>69</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>17</v>
@@ -3635,10 +3627,10 @@
         <v>54</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>10</v>
@@ -3655,7 +3647,7 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>99</v>
@@ -3678,7 +3670,7 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>100</v>
@@ -3701,7 +3693,7 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>88</v>
@@ -3724,10 +3716,10 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>5</v>
@@ -3799,7 +3791,7 @@
         <v>91</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>10</v>
@@ -3822,7 +3814,7 @@
         <v>92</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>10</v>
@@ -3957,7 +3949,7 @@
         <v>93</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>5</v>
@@ -4003,7 +3995,7 @@
         <v>101</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>5</v>
@@ -4012,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G63" s="15">
         <v>0</v>
@@ -4023,10 +4015,10 @@
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="53" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>5</v>
@@ -4035,7 +4027,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G64" s="15">
         <v>0</v>
@@ -4049,7 +4041,7 @@
         <v>101</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>5</v>
@@ -4058,7 +4050,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G65" s="15">
         <v>0</v>
@@ -4072,10 +4064,10 @@
         <v>101</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>10</v>
@@ -4091,20 +4083,20 @@
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="54" t="s">
-        <v>105</v>
+      <c r="B67" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G67" s="15">
         <v>0</v>
@@ -4115,10 +4107,10 @@
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>5</v>
@@ -4127,7 +4119,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G68" s="15">
         <v>0</v>
@@ -4138,16 +4130,16 @@
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F69" s="15">
         <v>1</v>
@@ -4161,16 +4153,16 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F70" s="15">
         <v>1</v>
@@ -4183,17 +4175,17 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="63" t="s">
-        <v>157</v>
+      <c r="B71" s="54" t="s">
+        <v>104</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F71" s="15">
         <v>1</v>
@@ -4207,10 +4199,10 @@
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>5</v>
@@ -4230,10 +4222,10 @@
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>5</v>
@@ -4252,11 +4244,11 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="44" t="s">
-        <v>122</v>
+      <c r="B74" s="63" t="s">
+        <v>155</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>5</v>
@@ -4265,7 +4257,7 @@
         <v>17</v>
       </c>
       <c r="F74" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G74" s="15">
         <v>0</v>
@@ -4276,10 +4268,10 @@
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>5</v>
@@ -4288,7 +4280,7 @@
         <v>17</v>
       </c>
       <c r="F75" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G75" s="15">
         <v>0</v>
@@ -4299,10 +4291,10 @@
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>5</v>
@@ -4322,10 +4314,10 @@
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>5</v>
@@ -4344,11 +4336,11 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="55" t="s">
-        <v>110</v>
+      <c r="B78" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>5</v>
@@ -4357,7 +4349,7 @@
         <v>17</v>
       </c>
       <c r="F78" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G78" s="15">
         <v>0</v>
@@ -4368,42 +4360,42 @@
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="D79" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F79" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="15">
         <v>0.25</v>
-      </c>
-      <c r="G79" s="15">
-        <v>0</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F80" s="15">
-        <v>1</v>
       </c>
       <c r="G80" s="15">
         <v>0</v>
@@ -4414,16 +4406,16 @@
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
@@ -4437,7 +4429,7 @@
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>114</v>
@@ -4446,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
@@ -4460,16 +4452,16 @@
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
@@ -4483,16 +4475,16 @@
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -4506,7 +4498,7 @@
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>116</v>
@@ -4515,7 +4507,7 @@
         <v>5</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
@@ -4529,16 +4521,16 @@
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F86" s="15">
         <v>1</v>
@@ -4551,17 +4543,17 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="60" t="s">
-        <v>132</v>
+      <c r="B87" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
@@ -4575,16 +4567,16 @@
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F88" s="15">
         <v>1</v>
@@ -4598,16 +4590,16 @@
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="D89" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F89" s="15">
         <v>1</v>
@@ -4620,17 +4612,17 @@
       </c>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="61" t="s">
-        <v>136</v>
+      <c r="B90" s="60" t="s">
+        <v>130</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="F90" s="15">
         <v>1</v>
@@ -4644,10 +4636,10 @@
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>5</v>
@@ -4656,7 +4648,7 @@
         <v>17</v>
       </c>
       <c r="F91" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G91" s="15">
         <v>0</v>
@@ -4667,10 +4659,10 @@
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>5</v>
@@ -4690,19 +4682,19 @@
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F93" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G93" s="15">
         <v>0</v>
@@ -4712,11 +4704,11 @@
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="62" t="s">
-        <v>146</v>
+      <c r="B94" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>5</v>
@@ -4725,7 +4717,7 @@
         <v>10</v>
       </c>
       <c r="F94" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G94" s="15">
         <v>0</v>
@@ -4736,10 +4728,10 @@
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>5</v>
@@ -4759,10 +4751,10 @@
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>5</v>
@@ -4780,23 +4772,46 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="3:3">
-      <c r="C108" s="18"/>
-    </row>
-    <row r="117" spans="8:8">
-      <c r="H117" s="40"/>
+    <row r="97" spans="2:8">
+      <c r="B97" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G97" s="15">
+        <v>0</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="C109" s="18"/>
+    </row>
+    <row r="118" spans="8:8">
+      <c r="H118" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D116" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D117" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E116" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E117" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H116" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H117" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4806,6 +4821,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -5048,28 +5084,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5086,23 +5120,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8728A5BE-16EB-43EF-B652-65587493FB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0680977C-212B-454A-ACB9-907AC833873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$116</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="161">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -1261,13 +1261,6 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>シボウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レベル(最大100)</t>
-    <rPh sb="4" eb="6">
-      <t>サイダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2236,8 +2229,8 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F147)</f>
-        <v>78.5</v>
+        <f>SUM(作業工数見積もり!F5:F146)</f>
+        <v>76.5</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2245,7 +2238,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!H5:H68,"完了",作業工数見積もり!F5:F68)</f>
+        <f>SUMIF(作業工数見積もり!H5:H67,"完了",作業工数見積もり!F5:F67)</f>
         <v>4.75</v>
       </c>
       <c r="D4" t="s">
@@ -2258,11 +2251,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>2.0474137931034482E-2</v>
+        <v>1.9957983193277309E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2280,7 +2273,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45928</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2301,11 +2294,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>-180</v>
+        <v>-186</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>-0.40972222222222221</v>
+        <v>-0.385752688172043</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2318,11 +2311,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>-172</v>
+        <v>-178</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>-0.42877906976744184</v>
+        <v>-0.40308988764044945</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2335,11 +2328,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>-170</v>
+        <v>-176</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>-0.43382352941176472</v>
+        <v>-0.40767045454545453</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2423,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M118"/>
+  <dimension ref="B2:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2554,7 +2547,7 @@
       </c>
       <c r="K5" s="24">
         <f>SUM(K6,K7,K8)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="26"/>
@@ -2586,8 +2579,8 @@
         <v>28</v>
       </c>
       <c r="K6" s="28">
-        <f>COUNTIF(E5:E115,J6)</f>
-        <v>59</v>
+        <f>COUNTIF(E5:E114,J6)</f>
+        <v>58</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="26"/>
@@ -2619,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="28">
-        <f>COUNTIF(E5:E115,J7)</f>
+        <f>COUNTIF(E5:E114,J7)</f>
         <v>24</v>
       </c>
       <c r="L7" s="29"/>
@@ -2652,7 +2645,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="28">
-        <f>COUNTIF(E5:E115,J8)</f>
+        <f>COUNTIF(E5:E114,J8)</f>
         <v>10</v>
       </c>
       <c r="L8" s="29"/>
@@ -2685,12 +2678,12 @@
         <v>18</v>
       </c>
       <c r="K9" s="28">
-        <f>COUNTIF(H5:H115,J9)</f>
+        <f>COUNTIF(H5:H114,J9)</f>
         <v>7</v>
       </c>
       <c r="L9" s="33">
         <f>K9/K5</f>
-        <v>7.5268817204301078E-2</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="M9" s="26"/>
     </row>
@@ -2721,12 +2714,12 @@
         <v>42</v>
       </c>
       <c r="K10" s="28">
-        <f>COUNTIF(H5:H115,J10)</f>
-        <v>86</v>
+        <f>COUNTIF(H5:H114,J10)</f>
+        <v>85</v>
       </c>
       <c r="L10" s="35">
         <f>(K10+K11)/K5</f>
-        <v>0.92473118279569888</v>
+        <v>0.92391304347826086</v>
       </c>
       <c r="M10" s="26"/>
     </row>
@@ -2757,7 +2750,7 @@
         <v>43</v>
       </c>
       <c r="K11" s="19">
-        <f>COUNTIF(H5:H115,J11)</f>
+        <f>COUNTIF(H5:H114,J11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
@@ -2818,8 +2811,8 @@
         <v>45</v>
       </c>
       <c r="K13" s="19">
-        <f>SUM(F5:F115)</f>
-        <v>78.5</v>
+        <f>SUM(F5:F114)</f>
+        <v>76.5</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="26"/>
@@ -2852,7 +2845,7 @@
       </c>
       <c r="K14" s="42">
         <f>8*K13</f>
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="26"/>
@@ -3024,7 +3017,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>5</v>
@@ -3050,7 +3043,7 @@
         <v>81</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>5</v>
@@ -3070,11 +3063,11 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="51" t="s">
-        <v>81</v>
+      <c r="B23" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>5</v>
@@ -3083,7 +3076,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="15">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -3091,14 +3084,13 @@
       <c r="H23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>5</v>
@@ -3107,7 +3099,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -3121,7 +3113,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>5</v>
@@ -3130,7 +3122,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="15">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -3144,7 +3136,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>5</v>
@@ -3153,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="15">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="15">
         <v>0</v>
@@ -3167,7 +3159,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>5</v>
@@ -3190,7 +3182,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>5</v>
@@ -3199,7 +3191,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G28" s="15">
         <v>0</v>
@@ -3213,7 +3205,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>5</v>
@@ -3236,7 +3228,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>5</v>
@@ -3259,10 +3251,10 @@
         <v>54</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>17</v>
@@ -3281,17 +3273,17 @@
       <c r="B32" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>82</v>
+      <c r="C32" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="15">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G32" s="15">
         <v>0</v>
@@ -3305,7 +3297,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>5</v>
@@ -3314,7 +3306,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="15">
         <v>0</v>
@@ -3328,7 +3320,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>5</v>
@@ -3337,7 +3329,7 @@
         <v>17</v>
       </c>
       <c r="F34" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="15">
         <v>0</v>
@@ -3351,7 +3343,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>5</v>
@@ -3360,7 +3352,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
@@ -3374,7 +3366,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>5</v>
@@ -3397,7 +3389,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>5</v>
@@ -3420,7 +3412,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>5</v>
@@ -3443,7 +3435,7 @@
         <v>54</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>5</v>
@@ -3466,7 +3458,7 @@
         <v>54</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>5</v>
@@ -3486,10 +3478,10 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>5</v>
@@ -3498,7 +3490,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="15">
         <v>0</v>
@@ -3512,7 +3504,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>5</v>
@@ -3535,10 +3527,10 @@
         <v>64</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>17</v>
@@ -3558,7 +3550,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>141</v>
@@ -3567,7 +3559,7 @@
         <v>17</v>
       </c>
       <c r="F44" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G44" s="15">
         <v>0</v>
@@ -3581,7 +3573,7 @@
         <v>64</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>141</v>
@@ -3590,7 +3582,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G45" s="15">
         <v>0</v>
@@ -3601,42 +3593,42 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="50" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F46" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="15">
         <v>0.5</v>
-      </c>
-      <c r="G46" s="15">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0.25</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -3650,7 +3642,7 @@
         <v>117</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>5</v>
@@ -3673,7 +3665,7 @@
         <v>117</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>5</v>
@@ -3696,7 +3688,7 @@
         <v>117</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>5</v>
@@ -3716,10 +3708,10 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="52" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>5</v>
@@ -3728,7 +3720,7 @@
         <v>17</v>
       </c>
       <c r="F51" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
@@ -3739,10 +3731,10 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>5</v>
@@ -3762,16 +3754,16 @@
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F53" s="15">
         <v>1</v>
@@ -3785,10 +3777,10 @@
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>141</v>
@@ -3808,16 +3800,16 @@
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="52" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F55" s="15">
         <v>1</v>
@@ -3834,7 +3826,7 @@
         <v>93</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>5</v>
@@ -3843,7 +3835,7 @@
         <v>17</v>
       </c>
       <c r="F56" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G56" s="15">
         <v>0</v>
@@ -3857,16 +3849,16 @@
         <v>93</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F57" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G57" s="15">
         <v>0</v>
@@ -3880,7 +3872,7 @@
         <v>93</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>5</v>
@@ -3889,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G58" s="15">
         <v>0</v>
@@ -3903,7 +3895,7 @@
         <v>93</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>5</v>
@@ -3926,16 +3918,16 @@
         <v>93</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F60" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G60" s="15">
         <v>0</v>
@@ -3945,11 +3937,11 @@
       </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="52" t="s">
-        <v>93</v>
+      <c r="B61" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>5</v>
@@ -3958,7 +3950,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -3972,16 +3964,16 @@
         <v>101</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F62" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" s="15">
         <v>0</v>
@@ -3992,10 +3984,10 @@
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="53" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>5</v>
@@ -4015,10 +4007,10 @@
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="53" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>5</v>
@@ -4041,7 +4033,7 @@
         <v>101</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>5</v>
@@ -4050,7 +4042,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="15">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G65" s="15">
         <v>0</v>
@@ -4064,16 +4056,16 @@
         <v>101</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G66" s="15">
         <v>0</v>
@@ -4083,20 +4075,20 @@
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="53" t="s">
-        <v>101</v>
+      <c r="B67" s="54" t="s">
+        <v>104</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G67" s="15">
         <v>0</v>
@@ -4110,7 +4102,7 @@
         <v>104</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>5</v>
@@ -4119,7 +4111,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G68" s="15">
         <v>0</v>
@@ -4133,13 +4125,13 @@
         <v>104</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F69" s="15">
         <v>1</v>
@@ -4156,13 +4148,13 @@
         <v>104</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F70" s="15">
         <v>1</v>
@@ -4175,17 +4167,17 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="54" t="s">
-        <v>104</v>
+      <c r="B71" s="63" t="s">
+        <v>154</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F71" s="15">
         <v>1</v>
@@ -4199,7 +4191,7 @@
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>156</v>
@@ -4222,7 +4214,7 @@
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>157</v>
@@ -4244,11 +4236,11 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="63" t="s">
-        <v>155</v>
+      <c r="B74" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>5</v>
@@ -4257,7 +4249,7 @@
         <v>17</v>
       </c>
       <c r="F74" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G74" s="15">
         <v>0</v>
@@ -4271,7 +4263,7 @@
         <v>120</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>5</v>
@@ -4280,7 +4272,7 @@
         <v>17</v>
       </c>
       <c r="F75" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G75" s="15">
         <v>0</v>
@@ -4294,7 +4286,7 @@
         <v>120</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>5</v>
@@ -4317,7 +4309,7 @@
         <v>120</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>5</v>
@@ -4336,11 +4328,11 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="44" t="s">
-        <v>120</v>
+      <c r="B78" s="55" t="s">
+        <v>109</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>5</v>
@@ -4349,7 +4341,7 @@
         <v>17</v>
       </c>
       <c r="F78" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G78" s="15">
         <v>0</v>
@@ -4363,16 +4355,16 @@
         <v>109</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="F79" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G79" s="15">
         <v>0</v>
@@ -4382,11 +4374,11 @@
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="55" t="s">
-        <v>109</v>
+      <c r="B80" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>5</v>
@@ -4395,7 +4387,7 @@
         <v>142</v>
       </c>
       <c r="F80" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G80" s="15">
         <v>0</v>
@@ -4409,7 +4401,7 @@
         <v>126</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>5</v>
@@ -4432,7 +4424,7 @@
         <v>126</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>5</v>
@@ -4455,7 +4447,7 @@
         <v>126</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>5</v>
@@ -4478,13 +4470,13 @@
         <v>126</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -4501,13 +4493,13 @@
         <v>126</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
@@ -4524,7 +4516,7 @@
         <v>126</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>5</v>
@@ -4543,11 +4535,11 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="56" t="s">
-        <v>126</v>
+      <c r="B87" s="60" t="s">
+        <v>130</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>5</v>
@@ -4570,7 +4562,7 @@
         <v>130</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>5</v>
@@ -4593,7 +4585,7 @@
         <v>130</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>5</v>
@@ -4612,17 +4604,17 @@
       </c>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="60" t="s">
-        <v>130</v>
+      <c r="B90" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="F90" s="15">
         <v>1</v>
@@ -4639,7 +4631,7 @@
         <v>134</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>5</v>
@@ -4648,7 +4640,7 @@
         <v>17</v>
       </c>
       <c r="F91" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G91" s="15">
         <v>0</v>
@@ -4662,7 +4654,7 @@
         <v>134</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>5</v>
@@ -4685,16 +4677,16 @@
         <v>134</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F93" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G93" s="15">
         <v>0</v>
@@ -4704,11 +4696,11 @@
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="61" t="s">
-        <v>134</v>
+      <c r="B94" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>5</v>
@@ -4717,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="F94" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G94" s="15">
         <v>0</v>
@@ -4731,7 +4723,7 @@
         <v>144</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>5</v>
@@ -4754,7 +4746,7 @@
         <v>144</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>5</v>
@@ -4772,46 +4764,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G97" s="15">
-        <v>0</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="C109" s="18"/>
-    </row>
-    <row r="118" spans="8:8">
-      <c r="H118" s="40"/>
+    <row r="108" spans="3:3">
+      <c r="C108" s="18"/>
+    </row>
+    <row r="117" spans="8:8">
+      <c r="H117" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D117" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D116" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E117" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E116" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H117" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H116" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4821,27 +4790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -5084,26 +5032,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5120,4 +5070,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0680977C-212B-454A-ACB9-907AC833873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ED52F9-7393-4EDD-A4C7-D034D05538DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$115</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="160">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -1268,28 +1268,6 @@
     <t>移動速度</t>
     <rPh sb="0" eb="4">
       <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経験値(敵の場合このステータスは倒されたときにプレイヤーに渡す値にする)</t>
-    <rPh sb="0" eb="3">
-      <t>ケイケンチ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2213,7 +2191,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2229,8 +2207,8 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F146)</f>
-        <v>76.5</v>
+        <f>SUM(作業工数見積もり!F5:F145)</f>
+        <v>76.25</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2238,7 +2216,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!H5:H67,"完了",作業工数見積もり!F5:F67)</f>
+        <f>SUMIF(作業工数見積もり!H5:H66,"完了",作業工数見積もり!F5:F66)</f>
         <v>4.75</v>
       </c>
       <c r="D4" t="s">
@@ -2251,11 +2229,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>1.9957983193277309E-2</v>
+        <v>1.9874476987447699E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2273,7 +2251,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45936</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2294,11 +2272,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>-186</v>
+        <v>-187</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>-0.385752688172043</v>
+        <v>-0.38235294117647056</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2311,11 +2289,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>-178</v>
+        <v>-179</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>-0.40308988764044945</v>
+        <v>-0.3994413407821229</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2328,11 +2306,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>-176</v>
+        <v>-177</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>-0.40767045454545453</v>
+        <v>-0.403954802259887</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2416,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M117"/>
+  <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2547,7 +2525,7 @@
       </c>
       <c r="K5" s="24">
         <f>SUM(K6,K7,K8)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="26"/>
@@ -2579,8 +2557,8 @@
         <v>28</v>
       </c>
       <c r="K6" s="28">
-        <f>COUNTIF(E5:E114,J6)</f>
-        <v>58</v>
+        <f>COUNTIF(E5:E113,J6)</f>
+        <v>57</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="26"/>
@@ -2612,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="28">
-        <f>COUNTIF(E5:E114,J7)</f>
+        <f>COUNTIF(E5:E113,J7)</f>
         <v>24</v>
       </c>
       <c r="L7" s="29"/>
@@ -2645,7 +2623,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="28">
-        <f>COUNTIF(E5:E114,J8)</f>
+        <f>COUNTIF(E5:E113,J8)</f>
         <v>10</v>
       </c>
       <c r="L8" s="29"/>
@@ -2678,12 +2656,12 @@
         <v>18</v>
       </c>
       <c r="K9" s="28">
-        <f>COUNTIF(H5:H114,J9)</f>
-        <v>7</v>
+        <f>COUNTIF(H5:H113,J9)</f>
+        <v>10</v>
       </c>
       <c r="L9" s="33">
         <f>K9/K5</f>
-        <v>7.6086956521739135E-2</v>
+        <v>0.10989010989010989</v>
       </c>
       <c r="M9" s="26"/>
     </row>
@@ -2714,12 +2692,12 @@
         <v>42</v>
       </c>
       <c r="K10" s="28">
-        <f>COUNTIF(H5:H114,J10)</f>
-        <v>85</v>
+        <f>COUNTIF(H5:H113,J10)</f>
+        <v>81</v>
       </c>
       <c r="L10" s="35">
         <f>(K10+K11)/K5</f>
-        <v>0.92391304347826086</v>
+        <v>0.89010989010989006</v>
       </c>
       <c r="M10" s="26"/>
     </row>
@@ -2750,7 +2728,7 @@
         <v>43</v>
       </c>
       <c r="K11" s="19">
-        <f>COUNTIF(H5:H114,J11)</f>
+        <f>COUNTIF(H5:H113,J11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
@@ -2811,8 +2789,8 @@
         <v>45</v>
       </c>
       <c r="K13" s="19">
-        <f>SUM(F5:F114)</f>
-        <v>76.5</v>
+        <f>SUM(F5:F113)</f>
+        <v>76.25</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="26"/>
@@ -2845,7 +2823,7 @@
       </c>
       <c r="K14" s="42">
         <f>8*K13</f>
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="26"/>
@@ -3039,11 +3017,11 @@
       <c r="K21" s="26"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="51" t="s">
-        <v>81</v>
+      <c r="B22" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>5</v>
@@ -3060,14 +3038,13 @@
       <c r="H22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>5</v>
@@ -3076,7 +3053,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -3090,7 +3067,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>5</v>
@@ -3099,7 +3076,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="15">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -3113,7 +3090,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>5</v>
@@ -3122,7 +3099,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="15">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -3136,7 +3113,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>5</v>
@@ -3159,7 +3136,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>5</v>
@@ -3168,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G27" s="15">
         <v>0</v>
@@ -3182,7 +3159,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>5</v>
@@ -3205,7 +3182,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>5</v>
@@ -3228,10 +3205,10 @@
         <v>54</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>17</v>
@@ -3250,17 +3227,17 @@
       <c r="B31" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>82</v>
+      <c r="C31" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="15">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G31" s="15">
         <v>0</v>
@@ -3274,7 +3251,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>5</v>
@@ -3283,7 +3260,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="15">
         <v>0</v>
@@ -3297,7 +3274,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>5</v>
@@ -3306,7 +3283,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="15">
         <v>0</v>
@@ -3320,7 +3297,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>5</v>
@@ -3329,7 +3306,7 @@
         <v>17</v>
       </c>
       <c r="F34" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="15">
         <v>0</v>
@@ -3343,7 +3320,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>5</v>
@@ -3366,7 +3343,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>5</v>
@@ -3389,7 +3366,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>5</v>
@@ -3412,7 +3389,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>5</v>
@@ -3435,7 +3412,7 @@
         <v>54</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>5</v>
@@ -3455,10 +3432,10 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>5</v>
@@ -3467,7 +3444,7 @@
         <v>17</v>
       </c>
       <c r="F40" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="15">
         <v>0</v>
@@ -3481,7 +3458,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>5</v>
@@ -3504,10 +3481,10 @@
         <v>64</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>17</v>
@@ -3527,7 +3504,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>141</v>
@@ -3536,7 +3513,7 @@
         <v>17</v>
       </c>
       <c r="F43" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G43" s="15">
         <v>0</v>
@@ -3550,7 +3527,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>141</v>
@@ -3559,7 +3536,7 @@
         <v>17</v>
       </c>
       <c r="F44" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G44" s="15">
         <v>0</v>
@@ -3570,42 +3547,42 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="50" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F45" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="15">
         <v>0.5</v>
-      </c>
-      <c r="G45" s="15">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="15">
-        <v>0.25</v>
       </c>
       <c r="G46" s="15">
         <v>0</v>
@@ -3619,7 +3596,7 @@
         <v>117</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>5</v>
@@ -3642,7 +3619,7 @@
         <v>117</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>5</v>
@@ -3665,7 +3642,7 @@
         <v>117</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>5</v>
@@ -3685,10 +3662,10 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="52" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>5</v>
@@ -3697,7 +3674,7 @@
         <v>17</v>
       </c>
       <c r="F50" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G50" s="15">
         <v>0</v>
@@ -3708,10 +3685,10 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>5</v>
@@ -3731,16 +3708,16 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F52" s="15">
         <v>1</v>
@@ -3754,10 +3731,10 @@
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>141</v>
@@ -3777,16 +3754,16 @@
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="52" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F54" s="15">
         <v>1</v>
@@ -3803,7 +3780,7 @@
         <v>93</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>5</v>
@@ -3812,7 +3789,7 @@
         <v>17</v>
       </c>
       <c r="F55" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G55" s="15">
         <v>0</v>
@@ -3826,16 +3803,16 @@
         <v>93</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F56" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G56" s="15">
         <v>0</v>
@@ -3849,7 +3826,7 @@
         <v>93</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>5</v>
@@ -3858,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G57" s="15">
         <v>0</v>
@@ -3872,7 +3849,7 @@
         <v>93</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>5</v>
@@ -3895,16 +3872,16 @@
         <v>93</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F59" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G59" s="15">
         <v>0</v>
@@ -3914,11 +3891,11 @@
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="52" t="s">
-        <v>93</v>
+      <c r="B60" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>5</v>
@@ -3927,7 +3904,7 @@
         <v>17</v>
       </c>
       <c r="F60" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G60" s="15">
         <v>0</v>
@@ -3941,16 +3918,16 @@
         <v>101</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F61" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -3961,10 +3938,10 @@
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="53" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>5</v>
@@ -3984,10 +3961,10 @@
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="53" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>5</v>
@@ -4010,7 +3987,7 @@
         <v>101</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>5</v>
@@ -4019,7 +3996,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="15">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G64" s="15">
         <v>0</v>
@@ -4033,16 +4010,16 @@
         <v>101</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G65" s="15">
         <v>0</v>
@@ -4052,20 +4029,20 @@
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="53" t="s">
-        <v>101</v>
+      <c r="B66" s="54" t="s">
+        <v>104</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G66" s="15">
         <v>0</v>
@@ -4079,7 +4056,7 @@
         <v>104</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>5</v>
@@ -4088,7 +4065,7 @@
         <v>10</v>
       </c>
       <c r="F67" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G67" s="15">
         <v>0</v>
@@ -4102,13 +4079,13 @@
         <v>104</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F68" s="15">
         <v>1</v>
@@ -4125,13 +4102,13 @@
         <v>104</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F69" s="15">
         <v>1</v>
@@ -4144,17 +4121,17 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="54" t="s">
-        <v>104</v>
+      <c r="B70" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F70" s="15">
         <v>1</v>
@@ -4168,7 +4145,7 @@
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>155</v>
@@ -4186,12 +4163,12 @@
         <v>0</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>156</v>
@@ -4213,11 +4190,11 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="63" t="s">
-        <v>154</v>
+      <c r="B73" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>5</v>
@@ -4226,7 +4203,7 @@
         <v>17</v>
       </c>
       <c r="F73" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G73" s="15">
         <v>0</v>
@@ -4240,7 +4217,7 @@
         <v>120</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>5</v>
@@ -4249,7 +4226,7 @@
         <v>17</v>
       </c>
       <c r="F74" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G74" s="15">
         <v>0</v>
@@ -4263,7 +4240,7 @@
         <v>120</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>5</v>
@@ -4286,7 +4263,7 @@
         <v>120</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>5</v>
@@ -4305,11 +4282,11 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="44" t="s">
-        <v>120</v>
+      <c r="B77" s="55" t="s">
+        <v>109</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>5</v>
@@ -4318,7 +4295,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G77" s="15">
         <v>0</v>
@@ -4332,16 +4309,16 @@
         <v>109</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="F78" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G78" s="15">
         <v>0</v>
@@ -4351,11 +4328,11 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="55" t="s">
-        <v>109</v>
+      <c r="B79" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>5</v>
@@ -4364,7 +4341,7 @@
         <v>142</v>
       </c>
       <c r="F79" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G79" s="15">
         <v>0</v>
@@ -4378,7 +4355,7 @@
         <v>126</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>5</v>
@@ -4401,7 +4378,7 @@
         <v>126</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>5</v>
@@ -4424,7 +4401,7 @@
         <v>126</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>5</v>
@@ -4447,13 +4424,13 @@
         <v>126</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
@@ -4470,13 +4447,13 @@
         <v>126</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -4493,7 +4470,7 @@
         <v>126</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>5</v>
@@ -4512,11 +4489,11 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="56" t="s">
-        <v>126</v>
+      <c r="B86" s="60" t="s">
+        <v>130</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>5</v>
@@ -4539,7 +4516,7 @@
         <v>130</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>5</v>
@@ -4562,7 +4539,7 @@
         <v>130</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>5</v>
@@ -4581,17 +4558,17 @@
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="60" t="s">
-        <v>130</v>
+      <c r="B89" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="F89" s="15">
         <v>1</v>
@@ -4608,7 +4585,7 @@
         <v>134</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>5</v>
@@ -4617,7 +4594,7 @@
         <v>17</v>
       </c>
       <c r="F90" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G90" s="15">
         <v>0</v>
@@ -4631,7 +4608,7 @@
         <v>134</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>5</v>
@@ -4654,16 +4631,16 @@
         <v>134</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F92" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G92" s="15">
         <v>0</v>
@@ -4673,11 +4650,11 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="61" t="s">
-        <v>134</v>
+      <c r="B93" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>5</v>
@@ -4686,13 +4663,13 @@
         <v>10</v>
       </c>
       <c r="F93" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G93" s="15">
         <v>0</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="2:8">
@@ -4700,7 +4677,7 @@
         <v>144</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>5</v>
@@ -4715,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="2:8">
@@ -4723,7 +4700,7 @@
         <v>144</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>5</v>
@@ -4741,46 +4718,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G96" s="15">
-        <v>0</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3">
-      <c r="C108" s="18"/>
-    </row>
-    <row r="117" spans="8:8">
-      <c r="H117" s="40"/>
+    <row r="107" spans="3:3">
+      <c r="C107" s="18"/>
+    </row>
+    <row r="116" spans="8:8">
+      <c r="H116" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D116" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E116" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E115" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H116" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H115" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4790,6 +4744,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -5032,28 +5007,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5070,23 +5043,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ED52F9-7393-4EDD-A4C7-D034D05538DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E48582F-3C92-4715-ACC1-040F49CC26DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$H$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$115</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="160">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -55,13 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実コスト</t>
-    <rPh sb="0" eb="1">
-      <t>ジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>総コスト</t>
     <rPh sb="0" eb="1">
       <t>ソウ</t>
@@ -1320,6 +1313,9 @@
   <si>
     <t>エリア1(チュートリアルステージ)</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業中</t>
   </si>
 </sst>
 </file>
@@ -2191,7 +2187,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2204,7 +2200,7 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <f>SUM(作業工数見積もり!F5:F145)</f>
@@ -2213,32 +2209,32 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF(作業工数見積もり!G5:G66,"完了",作業工数見積もり!F5:F66)</f>
+        <v>5.5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4">
-        <f>SUMIF(作業工数見積もり!H5:H66,"完了",作業工数見積もり!F5:F66)</f>
-        <v>4.75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>1.9874476987447699E-2</v>
+        <v>2.2821576763485476E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <f>DATE(2024,11,7)</f>
@@ -2247,70 +2243,70 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45937</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <f>DATE(2025,1,20)</f>
-        <v>45677</v>
+        <f>DATE(2026,1,20)</f>
+        <v>46042</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>-187</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>-0.38235294117647056</v>
+        <v>0.95608108108108103</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <f>DATE(2025,1,30)</f>
-        <v>45687</v>
+        <f>DATE(2026,1,30)</f>
+        <v>46052</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>-179</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>-0.3994413407821229</v>
+        <v>0.86280487804878048</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <f>DATE(2025,2,1)</f>
-        <v>45689</v>
+        <f>DATE(2026,2,1)</f>
+        <v>46054</v>
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>-177</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>-0.403954802259887</v>
+        <v>0.86280487804878048</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2318,44 +2314,44 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="13">
         <v>45955</v>
@@ -2371,7 +2367,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="13">
         <v>46021</v>
@@ -2379,7 +2375,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="13">
         <v>45677</v>
@@ -2394,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M116"/>
+  <dimension ref="B2:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2408,21 +2404,20 @@
     <col min="4" max="4" width="17.375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="14" customWidth="1"/>
-    <col min="10" max="10" width="46.75" style="14" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="9.75" style="14"/>
+    <col min="7" max="7" width="29.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" style="14" customWidth="1"/>
+    <col min="9" max="9" width="46.75" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:12">
       <c r="B2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>1</v>
@@ -2431,2301 +2426,2019 @@
         <v>2</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="2:13">
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="2:13" ht="33.75" thickBot="1">
+      <c r="G3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="2:12" ht="33.75" thickBot="1">
       <c r="B4" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="15">
         <v>2</v>
       </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="G4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="15">
         <v>0.25</v>
       </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="24">
+        <f>SUM(J6,J7,J8)</f>
+        <v>91</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="24">
-        <f>SUM(K6,K7,K8)</f>
-        <v>91</v>
-      </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="15">
         <v>0.25</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="28">
-        <f>COUNTIF(E5:E113,J6)</f>
+      <c r="G6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="28">
+        <f>COUNTIF(E5:E113,I6)</f>
         <v>57</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="K6" s="29"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="15">
         <v>0.25</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="28">
-        <f>COUNTIF(E5:E113,J7)</f>
+      <c r="J7" s="28">
+        <f>COUNTIF(E5:E113,I7)</f>
         <v>24</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="K7" s="29"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="15">
         <v>0.5</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="28">
-        <f>COUNTIF(E5:E113,J8)</f>
+      <c r="G8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="28">
+        <f>COUNTIF(E5:E113,I8)</f>
         <v>10</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="2:13">
+      <c r="K8" s="29"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="28">
-        <f>COUNTIF(H5:H113,J9)</f>
-        <v>10</v>
-      </c>
-      <c r="L9" s="33">
-        <f>K9/K5</f>
-        <v>0.10989010989010989</v>
-      </c>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="G9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="28">
+        <f>COUNTIF(G5:G113,I9)</f>
+        <v>12</v>
+      </c>
+      <c r="K9" s="33">
+        <f>J9/J5</f>
+        <v>0.13186813186813187</v>
+      </c>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="28">
-        <f>COUNTIF(H5:H113,J10)</f>
-        <v>81</v>
-      </c>
-      <c r="L10" s="35">
-        <f>(K10+K11)/K5</f>
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="G10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="28">
+        <f>COUNTIF(G5:G113,I10)</f>
+        <v>78</v>
+      </c>
+      <c r="K10" s="35">
+        <f>(J10+J11)/J5</f>
+        <v>0.86813186813186816</v>
+      </c>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="15">
         <v>0.25</v>
       </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="37" t="s">
+      <c r="G11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="19">
+        <f>COUNTIF(G5:G113,I11)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="19">
-        <f>COUNTIF(H5:H113,J11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="36" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
       </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="G12" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="15">
         <v>0.25</v>
       </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="G13" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="19">
         <f>SUM(F5:F113)</f>
         <v>76.25</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="2:13" ht="33.75" thickBot="1">
+      <c r="K13" s="29"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="2:12" ht="33.75" thickBot="1">
       <c r="B14" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="15">
         <v>0.25</v>
       </c>
-      <c r="G14" s="15">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="42">
-        <f>8*K13</f>
+      <c r="G14" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="42">
+        <f>8*J13</f>
         <v>610</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="2:13" ht="35.25">
+      <c r="K14" s="43"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="35.25">
       <c r="B15" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
       </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="2:12" ht="36" thickBot="1">
+      <c r="B16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="45"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="2:13" ht="36" thickBot="1">
-      <c r="B16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
       </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" spans="2:11" ht="35.25">
+      <c r="G16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="2:10" ht="35.25">
       <c r="B17" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
       </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="35.25">
+      <c r="G17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="2:10" ht="35.25">
       <c r="B18" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="15">
         <v>0.25</v>
       </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="2:11" ht="35.25">
+      <c r="G18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="2:10" ht="35.25">
       <c r="B19" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="15">
         <v>0.25</v>
       </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="2:11" ht="35.25">
+      <c r="G19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="2:10" ht="35.25">
       <c r="B20" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="15">
         <v>0.25</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="35.25">
+      <c r="G20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="2:10" ht="35.25">
       <c r="B21" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="15">
         <v>0.25</v>
       </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="G21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="15">
         <v>0.25</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
+      <c r="G22" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="15">
         <v>0.5</v>
       </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="G23" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="15">
         <v>3</v>
       </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
+      <c r="G24" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="15">
         <v>0.5</v>
       </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+      <c r="G25" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="15">
         <v>0.5</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
+      <c r="G26" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="15">
         <v>0.25</v>
       </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
+      <c r="G27" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="15">
         <v>0.25</v>
       </c>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
+      <c r="G28" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="15">
         <v>0.25</v>
       </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
+      <c r="G29" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="15">
         <v>0.25</v>
       </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
+      <c r="G30" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="15">
         <v>2</v>
       </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
+      <c r="G31" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="15">
         <v>1</v>
       </c>
-      <c r="G32" s="15">
-        <v>0</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="G32" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="15">
         <v>0.5</v>
       </c>
-      <c r="G33" s="15">
-        <v>0</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="G33" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="15">
         <v>1</v>
       </c>
-      <c r="G34" s="15">
-        <v>0</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="G34" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="15">
         <v>1</v>
       </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="G35" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="15">
         <v>1</v>
       </c>
-      <c r="G36" s="15">
-        <v>0</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="G36" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="15">
         <v>1</v>
       </c>
-      <c r="G37" s="15">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="G37" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="15">
         <v>1</v>
       </c>
-      <c r="G38" s="15">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="G38" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="15">
         <v>1</v>
       </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="G39" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="15">
         <v>0.5</v>
       </c>
-      <c r="G40" s="15">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="G40" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="15">
         <v>0.5</v>
       </c>
-      <c r="G41" s="15">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="G41" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="15">
         <v>0.5</v>
       </c>
-      <c r="G42" s="15">
-        <v>0</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="G42" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="15">
         <v>0.25</v>
       </c>
-      <c r="G43" s="15">
-        <v>0</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="G43" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="15">
         <v>0.5</v>
       </c>
-      <c r="G44" s="15">
-        <v>0</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="G44" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="15">
         <v>0.25</v>
       </c>
-      <c r="G45" s="15">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="G45" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="15">
         <v>0.5</v>
       </c>
-      <c r="G46" s="15">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="G46" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="15">
         <v>0.5</v>
       </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="G47" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" s="15">
         <v>0.5</v>
       </c>
-      <c r="G48" s="15">
-        <v>0</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="G48" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="D49" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="15">
         <v>0.5</v>
       </c>
-      <c r="G49" s="15">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="G49" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="15">
         <v>1</v>
       </c>
-      <c r="G50" s="15">
-        <v>0</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="G50" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" s="15">
         <v>1</v>
       </c>
-      <c r="G51" s="15">
-        <v>0</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="G51" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" s="15">
         <v>1</v>
       </c>
-      <c r="G52" s="15">
-        <v>0</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="G52" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" s="15">
         <v>1</v>
       </c>
-      <c r="G53" s="15">
-        <v>0</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="G53" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="D54" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" s="15">
         <v>1</v>
       </c>
-      <c r="G54" s="15">
-        <v>0</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="G54" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" s="15">
         <v>0.5</v>
       </c>
-      <c r="G55" s="15">
-        <v>0</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="G55" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" s="15">
         <v>0.25</v>
       </c>
-      <c r="G56" s="15">
-        <v>0</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="G56" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" s="15">
         <v>0.5</v>
       </c>
-      <c r="G57" s="15">
-        <v>0</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="G57" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" s="15">
         <v>0.5</v>
       </c>
-      <c r="G58" s="15">
-        <v>0</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="G58" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" s="15">
         <v>0.25</v>
       </c>
-      <c r="G59" s="15">
-        <v>0</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="G59" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>102</v>
-      </c>
       <c r="D60" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" s="15">
         <v>1</v>
       </c>
-      <c r="G60" s="15">
-        <v>0</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="G60" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" s="15">
         <v>5</v>
       </c>
-      <c r="G61" s="15">
-        <v>0</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="G61" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" s="15">
         <v>5</v>
       </c>
-      <c r="G62" s="15">
-        <v>0</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="G62" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" s="15">
         <v>5</v>
       </c>
-      <c r="G63" s="15">
-        <v>0</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="G63" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" s="15">
         <v>0.5</v>
       </c>
-      <c r="G64" s="15">
-        <v>0</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="G64" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" s="15">
         <v>1</v>
       </c>
-      <c r="G65" s="15">
-        <v>0</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="G65" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="D66" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" s="15">
         <v>0.25</v>
       </c>
-      <c r="G66" s="15">
-        <v>0</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="G66" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" s="15">
         <v>1</v>
       </c>
-      <c r="G67" s="15">
-        <v>0</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
+      <c r="G67" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F68" s="15">
         <v>1</v>
       </c>
-      <c r="G68" s="15">
-        <v>0</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
+      <c r="G68" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" s="15">
         <v>1</v>
       </c>
-      <c r="G69" s="15">
-        <v>0</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
+      <c r="G69" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="D70" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" s="15">
         <v>1</v>
       </c>
-      <c r="G70" s="15">
-        <v>0</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="G70" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71" s="15">
         <v>1</v>
       </c>
-      <c r="G71" s="15">
-        <v>0</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
+      <c r="G71" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F72" s="15">
         <v>1</v>
       </c>
-      <c r="G72" s="15">
-        <v>0</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
+      <c r="G72" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73" s="15">
         <v>0.5</v>
       </c>
-      <c r="G73" s="15">
-        <v>0</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="G73" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="D74" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F74" s="15">
         <v>0.25</v>
       </c>
-      <c r="G74" s="15">
-        <v>0</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="G74" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F75" s="15">
         <v>0.25</v>
       </c>
-      <c r="G75" s="15">
-        <v>0</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="G75" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F76" s="15">
         <v>0.25</v>
       </c>
-      <c r="G76" s="15">
-        <v>0</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="G76" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="D77" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77" s="15">
         <v>0.5</v>
       </c>
-      <c r="G77" s="15">
-        <v>0</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="G77" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
       <c r="B78" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F78" s="15">
         <v>0.25</v>
       </c>
-      <c r="G78" s="15">
-        <v>0</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
+      <c r="G78" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" s="15">
         <v>1</v>
       </c>
-      <c r="G79" s="15">
-        <v>0</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="G79" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F80" s="15">
         <v>1</v>
       </c>
-      <c r="G80" s="15">
-        <v>0</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
+      <c r="G80" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
       </c>
-      <c r="G81" s="15">
-        <v>0</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
+      <c r="G81" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
       </c>
-      <c r="G82" s="15">
-        <v>0</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
+      <c r="G82" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
       </c>
-      <c r="G83" s="15">
-        <v>0</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
+      <c r="G83" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
       <c r="B84" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
       </c>
-      <c r="G84" s="15">
-        <v>0</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
+      <c r="G84" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
       <c r="B85" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
       </c>
-      <c r="G85" s="15">
-        <v>0</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
+      <c r="G85" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="D86" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F86" s="15">
         <v>1</v>
       </c>
-      <c r="G86" s="15">
-        <v>0</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
+      <c r="G86" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
       </c>
-      <c r="G87" s="15">
-        <v>0</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
+      <c r="G87" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F88" s="15">
         <v>1</v>
       </c>
-      <c r="G88" s="15">
-        <v>0</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
+      <c r="G88" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="D89" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F89" s="15">
         <v>1</v>
       </c>
-      <c r="G89" s="15">
-        <v>0</v>
-      </c>
-      <c r="H89" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="G89" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
       <c r="B90" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F90" s="15">
         <v>0.5</v>
       </c>
-      <c r="G90" s="15">
-        <v>0</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
+      <c r="G90" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F91" s="15">
         <v>0.5</v>
       </c>
-      <c r="G91" s="15">
-        <v>0</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
+      <c r="G91" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" s="15">
         <v>0.25</v>
       </c>
-      <c r="G92" s="15">
-        <v>0</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
+      <c r="G92" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" s="15">
         <v>0.5</v>
       </c>
-      <c r="G93" s="15">
-        <v>0</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
+      <c r="G93" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" s="15">
         <v>0.5</v>
       </c>
-      <c r="G94" s="15">
-        <v>0</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
+      <c r="G94" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
       <c r="B95" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" s="15">
         <v>0.5</v>
       </c>
-      <c r="G95" s="15">
-        <v>0</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>36</v>
+      <c r="G95" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="18"/>
     </row>
-    <row r="116" spans="8:8">
-      <c r="H116" s="40"/>
+    <row r="116" spans="7:7">
+      <c r="G116" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
@@ -4734,7 +4447,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E115" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H115" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G115" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4744,27 +4457,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -5007,26 +4699,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5043,4 +4737,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E48582F-3C92-4715-ACC1-040F49CC26DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA8F415-E8D3-4733-80E0-567D622463B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -1713,32 +1713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1755,19 +1729,34 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -1783,22 +1772,41 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1808,7 +1816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1864,17 +1872,8 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1882,13 +1881,23 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -2390,10 +2399,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L116"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2412,7 +2422,7 @@
     <col min="12" max="16384" width="9.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
@@ -2431,10 +2441,9 @@
       <c r="G2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="59" t="s">
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="50" t="s">
         <v>126</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2452,14 +2461,9 @@
       <c r="G3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="2:12" ht="33.75" thickBot="1">
-      <c r="B4" s="59" t="s">
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="50" t="s">
         <v>126</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2477,13 +2481,12 @@
       <c r="G4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="2:13" hidden="1">
       <c r="B5" s="21" t="s">
         <v>47</v>
       </c>
@@ -2511,9 +2514,10 @@
         <v>91</v>
       </c>
       <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="L5" s="62"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="2:13" hidden="1">
       <c r="B6" s="21" t="s">
         <v>47</v>
       </c>
@@ -2541,9 +2545,10 @@
         <v>57</v>
       </c>
       <c r="K6" s="29"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="L6" s="63"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="2:13" hidden="1">
       <c r="B7" s="21" t="s">
         <v>47</v>
       </c>
@@ -2571,9 +2576,10 @@
         <v>24</v>
       </c>
       <c r="K7" s="29"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="L7" s="63"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
@@ -2601,9 +2607,10 @@
         <v>10</v>
       </c>
       <c r="K8" s="29"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="L8" s="63"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="21" t="s">
         <v>47</v>
       </c>
@@ -2634,9 +2641,10 @@
         <f>J9/J5</f>
         <v>0.13186813186813187</v>
       </c>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="L9" s="63"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="21" t="s">
         <v>47</v>
       </c>
@@ -2667,9 +2675,10 @@
         <f>(J10+J11)/J5</f>
         <v>0.86813186813186816</v>
       </c>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="L10" s="63"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="36" t="s">
         <v>43</v>
       </c>
@@ -2697,9 +2706,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="29"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="L11" s="63"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="36" t="s">
         <v>43</v>
       </c>
@@ -2722,9 +2732,10 @@
       <c r="I12" s="38"/>
       <c r="J12" s="19"/>
       <c r="K12" s="29"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="L12" s="63"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="36" t="s">
         <v>43</v>
       </c>
@@ -2752,9 +2763,10 @@
         <v>76.25</v>
       </c>
       <c r="K13" s="29"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="2:12" ht="33.75" thickBot="1">
+      <c r="L13" s="63"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="36" t="s">
         <v>43</v>
       </c>
@@ -2774,17 +2786,18 @@
         <v>137</v>
       </c>
       <c r="H14" s="22"/>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="19">
         <f>8*J13</f>
         <v>610</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="35.25">
+      <c r="K14" s="29"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="2:13" ht="35.25">
       <c r="B15" s="36" t="s">
         <v>43</v>
       </c>
@@ -2804,14 +2817,15 @@
         <v>137</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="2:12" ht="36" thickBot="1">
+      <c r="J15" s="19"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="2:13" ht="36" thickBot="1">
       <c r="B16" s="36" t="s">
         <v>43</v>
       </c>
@@ -2831,12 +2845,15 @@
         <v>137</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="2:10" ht="35.25">
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="2:12" ht="35.25">
       <c r="B17" s="36" t="s">
         <v>43</v>
       </c>
@@ -2855,12 +2872,13 @@
       <c r="G17" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="2:10" ht="35.25">
-      <c r="B18" s="51" t="s">
+      <c r="I17" s="56"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="2:12" ht="35.25">
+      <c r="B18" s="44" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -2878,12 +2896,10 @@
       <c r="G18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="2:10" ht="35.25">
-      <c r="B19" s="51" t="s">
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="2:12" ht="35.25">
+      <c r="B19" s="44" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2901,12 +2917,10 @@
       <c r="G19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="2:10" ht="35.25">
-      <c r="B20" s="51" t="s">
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="2:12" ht="35.25">
+      <c r="B20" s="44" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -2924,12 +2938,10 @@
       <c r="G20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="2:10" ht="35.25">
-      <c r="B21" s="51" t="s">
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="2:12" ht="35.25">
+      <c r="B21" s="44" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -2947,12 +2959,10 @@
       <c r="G21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="50" t="s">
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -2971,8 +2981,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="50" t="s">
+    <row r="23" spans="2:12">
+      <c r="B23" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -2991,8 +3001,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="50" t="s">
+    <row r="24" spans="2:12">
+      <c r="B24" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -3011,8 +3021,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="50" t="s">
+    <row r="25" spans="2:12">
+      <c r="B25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -3031,8 +3041,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="50" t="s">
+    <row r="26" spans="2:12">
+      <c r="B26" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -3051,8 +3061,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="50" t="s">
+    <row r="27" spans="2:12">
+      <c r="B27" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -3071,8 +3081,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="50" t="s">
+    <row r="28" spans="2:12">
+      <c r="B28" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -3091,8 +3101,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="50" t="s">
+    <row r="29" spans="2:12">
+      <c r="B29" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -3111,8 +3121,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="50" t="s">
+    <row r="30" spans="2:12">
+      <c r="B30" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -3131,11 +3141,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="50" t="s">
+    <row r="31" spans="2:12">
+      <c r="B31" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="15" t="s">
@@ -3151,11 +3161,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="50" t="s">
+    <row r="32" spans="2:12">
+      <c r="B32" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3172,10 +3182,10 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="41" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="15" t="s">
@@ -3192,10 +3202,10 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="41" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -3212,10 +3222,10 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="41" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -3232,10 +3242,10 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="41" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -3252,10 +3262,10 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="15" t="s">
@@ -3272,10 +3282,10 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="41" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -3292,10 +3302,10 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -3312,7 +3322,7 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -3332,7 +3342,7 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -3352,7 +3362,7 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -3372,7 +3382,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -3392,7 +3402,7 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="14" t="s">
@@ -3411,8 +3421,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="50" t="s">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="14" t="s">
@@ -3432,7 +3442,7 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="45" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="14" t="s">
@@ -3452,7 +3462,7 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="45" t="s">
         <v>116</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -3472,7 +3482,7 @@
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="45" t="s">
         <v>116</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -3492,7 +3502,7 @@
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="45" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -3512,7 +3522,7 @@
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="45" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="14" t="s">
@@ -3532,7 +3542,7 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="45" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -3551,8 +3561,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="52" t="s">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="45" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="14" t="s">
@@ -3571,8 +3581,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="52" t="s">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="45" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -3592,7 +3602,7 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C54" s="14" t="s">
@@ -3612,7 +3622,7 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -3631,8 +3641,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="52" t="s">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -3651,8 +3661,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="52" t="s">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -3671,8 +3681,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="52" t="s">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="14" t="s">
@@ -3692,7 +3702,7 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -3712,7 +3722,7 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -3731,8 +3741,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="53" t="s">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -3751,8 +3761,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="53" t="s">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="46" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="14" t="s">
@@ -3771,8 +3781,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="53" t="s">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -3791,8 +3801,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="53" t="s">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C64" s="14" t="s">
@@ -3811,8 +3821,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="53" t="s">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C65" s="14" t="s">
@@ -3831,8 +3841,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="54" t="s">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="47" t="s">
         <v>103</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -3851,8 +3861,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="54" t="s">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="47" t="s">
         <v>103</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -3872,7 +3882,7 @@
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="47" t="s">
         <v>103</v>
       </c>
       <c r="C68" s="14" t="s">
@@ -3891,8 +3901,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="54" t="s">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="47" t="s">
         <v>103</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -3912,7 +3922,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="54" t="s">
         <v>152</v>
       </c>
       <c r="C70" s="14" t="s">
@@ -3932,7 +3942,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="54" t="s">
         <v>152</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -3952,7 +3962,7 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="63" t="s">
+      <c r="B72" s="54" t="s">
         <v>152</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -3972,7 +3982,7 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="41" t="s">
         <v>119</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -3992,7 +4002,7 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="41" t="s">
         <v>119</v>
       </c>
       <c r="C74" s="14" t="s">
@@ -4012,7 +4022,7 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="41" t="s">
         <v>119</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -4032,7 +4042,7 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="41" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="14" t="s">
@@ -4052,7 +4062,7 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -4071,8 +4081,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="55" t="s">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C78" s="14" t="s">
@@ -4091,8 +4101,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="56" t="s">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C79" s="14" t="s">
@@ -4111,8 +4121,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="56" t="s">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C80" s="14" t="s">
@@ -4131,8 +4141,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="56" t="s">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -4151,8 +4161,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="56" t="s">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C82" s="14" t="s">
@@ -4171,8 +4181,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="56" t="s">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -4191,8 +4201,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="56" t="s">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C84" s="14" t="s">
@@ -4211,8 +4221,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="56" t="s">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C85" s="14" t="s">
@@ -4231,8 +4241,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="60" t="s">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="51" t="s">
         <v>129</v>
       </c>
       <c r="C86" s="14" t="s">
@@ -4251,8 +4261,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="60" t="s">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="51" t="s">
         <v>129</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -4271,8 +4281,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="60" t="s">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="51" t="s">
         <v>129</v>
       </c>
       <c r="C88" s="14" t="s">
@@ -4292,7 +4302,7 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="61" t="s">
+      <c r="B89" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -4312,7 +4322,7 @@
       </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C90" s="14" t="s">
@@ -4332,7 +4342,7 @@
       </c>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="61" t="s">
+      <c r="B91" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -4351,8 +4361,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="61" t="s">
+    <row r="92" spans="2:7" hidden="1">
+      <c r="B92" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C92" s="14" t="s">
@@ -4371,8 +4381,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="62" t="s">
+    <row r="93" spans="2:7" hidden="1">
+      <c r="B93" s="53" t="s">
         <v>143</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -4391,8 +4401,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="62" t="s">
+    <row r="94" spans="2:7" hidden="1">
+      <c r="B94" s="53" t="s">
         <v>143</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -4411,8 +4421,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="62" t="s">
+    <row r="95" spans="2:7" hidden="1">
+      <c r="B95" s="53" t="s">
         <v>143</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -4431,14 +4441,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="96" spans="2:7" hidden="1"/>
+    <row r="97" spans="3:3" hidden="1"/>
+    <row r="98" spans="3:3" hidden="1"/>
+    <row r="99" spans="3:3" hidden="1"/>
+    <row r="100" spans="3:3" hidden="1"/>
+    <row r="101" spans="3:3" hidden="1"/>
+    <row r="102" spans="3:3" hidden="1"/>
+    <row r="103" spans="3:3" hidden="1"/>
+    <row r="104" spans="3:3" hidden="1"/>
+    <row r="105" spans="3:3" hidden="1"/>
+    <row r="106" spans="3:3" hidden="1"/>
+    <row r="107" spans="3:3" hidden="1">
       <c r="C107" s="18"/>
     </row>
+    <row r="108" spans="3:3" hidden="1"/>
+    <row r="109" spans="3:3" hidden="1"/>
+    <row r="110" spans="3:3" hidden="1"/>
+    <row r="111" spans="3:3" hidden="1"/>
+    <row r="112" spans="3:3" hidden="1"/>
+    <row r="113" spans="7:7" hidden="1"/>
+    <row r="114" spans="7:7" hidden="1"/>
+    <row r="115" spans="7:7" hidden="1"/>
     <row r="116" spans="7:7">
       <c r="G116" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="プロト"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA8F415-E8D3-4733-80E0-567D622463B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83BC994-A1B7-4CF8-88DD-9886C25FF7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!G5:G66,"完了",作業工数見積もり!F5:F66)</f>
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>2.2821576763485476E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45939</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2277,11 +2277,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.95608108108108103</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2294,11 +2294,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.86280487804878048</v>
+        <v>0.81562500000000004</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.86280487804878048</v>
+        <v>0.81562500000000004</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2399,11 +2399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2459,10 +2458,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="33.75" thickBot="1">
       <c r="B4" s="50" t="s">
         <v>126</v>
       </c>
@@ -2479,14 +2478,14 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="2:13" hidden="1">
+    <row r="5" spans="2:13">
       <c r="B5" s="21" t="s">
         <v>47</v>
       </c>
@@ -2517,7 +2516,7 @@
       <c r="L5" s="62"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="2:13" hidden="1">
+    <row r="6" spans="2:13">
       <c r="B6" s="21" t="s">
         <v>47</v>
       </c>
@@ -2548,7 +2547,7 @@
       <c r="L6" s="63"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="2:13" hidden="1">
+    <row r="7" spans="2:13">
       <c r="B7" s="21" t="s">
         <v>47</v>
       </c>
@@ -2579,7 +2578,7 @@
       <c r="L7" s="63"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13">
       <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="32" t="s">
@@ -2635,16 +2634,16 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G113,I9)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.13186813186813187</v>
+        <v>0.25274725274725274</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13">
       <c r="B10" s="21" t="s">
         <v>47</v>
       </c>
@@ -2669,11 +2668,11 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G113,I10)</f>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.86813186813186816</v>
+        <v>0.74725274725274726</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2703,7 +2702,7 @@
       </c>
       <c r="J11" s="19">
         <f>COUNTIF(G5:G113,I11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="63"/>
@@ -2894,7 +2893,7 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I18" s="55"/>
     </row>
@@ -2915,7 +2914,7 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I19" s="55"/>
     </row>
@@ -2936,7 +2935,7 @@
         <v>0.25</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I20" s="55"/>
     </row>
@@ -2957,7 +2956,7 @@
         <v>0.25</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I21" s="55"/>
     </row>
@@ -3018,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -3038,7 +3037,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -3058,7 +3057,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -3098,7 +3097,7 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -3118,7 +3117,7 @@
         <v>0.25</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -3421,7 +3420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
+    <row r="45" spans="2:7">
       <c r="B45" s="43" t="s">
         <v>53</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
+    <row r="52" spans="2:7">
       <c r="B52" s="45" t="s">
         <v>86</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
+    <row r="53" spans="2:7">
       <c r="B53" s="45" t="s">
         <v>85</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
+    <row r="56" spans="2:7">
       <c r="B56" s="45" t="s">
         <v>92</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
+    <row r="57" spans="2:7">
       <c r="B57" s="45" t="s">
         <v>92</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
+    <row r="58" spans="2:7">
       <c r="B58" s="45" t="s">
         <v>92</v>
       </c>
@@ -3741,7 +3740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
+    <row r="61" spans="2:7">
       <c r="B61" s="46" t="s">
         <v>100</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
+    <row r="62" spans="2:7">
       <c r="B62" s="46" t="s">
         <v>46</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
+    <row r="63" spans="2:7">
       <c r="B63" s="46" t="s">
         <v>100</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
+    <row r="64" spans="2:7">
       <c r="B64" s="46" t="s">
         <v>100</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
+    <row r="65" spans="2:7">
       <c r="B65" s="46" t="s">
         <v>100</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
+    <row r="66" spans="2:7">
       <c r="B66" s="47" t="s">
         <v>103</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
+    <row r="67" spans="2:7">
       <c r="B67" s="47" t="s">
         <v>103</v>
       </c>
@@ -3898,10 +3897,10 @@
         <v>1</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" hidden="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="47" t="s">
         <v>103</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="2:7">
@@ -4081,7 +4080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
+    <row r="78" spans="2:7">
       <c r="B78" s="48" t="s">
         <v>108</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
+    <row r="79" spans="2:7">
       <c r="B79" s="49" t="s">
         <v>125</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
+    <row r="80" spans="2:7">
       <c r="B80" s="49" t="s">
         <v>125</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
+    <row r="81" spans="2:7">
       <c r="B81" s="49" t="s">
         <v>125</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
+    <row r="82" spans="2:7">
       <c r="B82" s="49" t="s">
         <v>125</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
+    <row r="83" spans="2:7">
       <c r="B83" s="49" t="s">
         <v>125</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
+    <row r="84" spans="2:7">
       <c r="B84" s="49" t="s">
         <v>125</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
+    <row r="85" spans="2:7">
       <c r="B85" s="49" t="s">
         <v>125</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
+    <row r="86" spans="2:7">
       <c r="B86" s="51" t="s">
         <v>129</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
+    <row r="87" spans="2:7">
       <c r="B87" s="51" t="s">
         <v>129</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
+    <row r="88" spans="2:7">
       <c r="B88" s="51" t="s">
         <v>129</v>
       </c>
@@ -4338,7 +4337,7 @@
         <v>0.5</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="2:7">
@@ -4361,7 +4360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1">
+    <row r="92" spans="2:7">
       <c r="B92" s="52" t="s">
         <v>133</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="2:7" hidden="1">
+    <row r="93" spans="2:7">
       <c r="B93" s="53" t="s">
         <v>143</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="2:7" hidden="1">
+    <row r="94" spans="2:7">
       <c r="B94" s="53" t="s">
         <v>143</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="2:7" hidden="1">
+    <row r="95" spans="2:7">
       <c r="B95" s="53" t="s">
         <v>143</v>
       </c>
@@ -4441,39 +4440,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="2:7" hidden="1"/>
-    <row r="97" spans="3:3" hidden="1"/>
-    <row r="98" spans="3:3" hidden="1"/>
-    <row r="99" spans="3:3" hidden="1"/>
-    <row r="100" spans="3:3" hidden="1"/>
-    <row r="101" spans="3:3" hidden="1"/>
-    <row r="102" spans="3:3" hidden="1"/>
-    <row r="103" spans="3:3" hidden="1"/>
-    <row r="104" spans="3:3" hidden="1"/>
-    <row r="105" spans="3:3" hidden="1"/>
-    <row r="106" spans="3:3" hidden="1"/>
-    <row r="107" spans="3:3" hidden="1">
+    <row r="107" spans="3:3">
       <c r="C107" s="18"/>
     </row>
-    <row r="108" spans="3:3" hidden="1"/>
-    <row r="109" spans="3:3" hidden="1"/>
-    <row r="110" spans="3:3" hidden="1"/>
-    <row r="111" spans="3:3" hidden="1"/>
-    <row r="112" spans="3:3" hidden="1"/>
-    <row r="113" spans="7:7" hidden="1"/>
-    <row r="114" spans="7:7" hidden="1"/>
-    <row r="115" spans="7:7" hidden="1"/>
     <row r="116" spans="7:7">
       <c r="G116" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="プロト"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
@@ -4492,6 +4466,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4734,28 +4729,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4772,23 +4765,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83BC994-A1B7-4CF8-88DD-9886C25FF7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24EF65E-8E04-4709-BD46-26096CCBBF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$117</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="162">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -485,16 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャスト回避攻撃</t>
-    <rPh sb="4" eb="6">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>空中メイン攻撃</t>
     <rPh sb="0" eb="2">
       <t>クウチュウ</t>
@@ -1316,6 +1306,39 @@
   </si>
   <si>
     <t>作業中</t>
+  </si>
+  <si>
+    <t>ジャスト回避攻撃(メイン)</t>
+    <rPh sb="4" eb="6">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャスト回避攻撃(サブ)</t>
+    <rPh sb="4" eb="6">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャスト回避攻撃(銃)</t>
+    <rPh sb="4" eb="6">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2195,7 +2218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224174C6-79B8-40DF-BFBC-1FA41083861E}">
   <dimension ref="B3:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2212,8 +2235,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F145)</f>
-        <v>76.25</v>
+        <f>SUM(作業工数見積もり!F5:F147)</f>
+        <v>78.25</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2221,8 +2244,8 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!G5:G66,"完了",作業工数見積もり!F5:F66)</f>
-        <v>11</v>
+        <f>SUMIF(作業工数見積もり!G5:G68,"完了",作業工数見積もり!F5:F68)</f>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2234,11 +2257,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>4.5454545454545456E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2256,7 +2279,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45942</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2277,11 +2300,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.90625</v>
+        <v>0.96014492753623193</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2294,11 +2317,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.81562500000000004</v>
+        <v>0.86038961038961037</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2311,11 +2334,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.81562500000000004</v>
+        <v>0.86038961038961037</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2399,10 +2422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M116"/>
+  <dimension ref="B2:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2443,10 +2466,10 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>4</v>
@@ -2458,15 +2481,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="33.75" thickBot="1">
       <c r="B4" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>4</v>
@@ -2478,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -2510,7 +2533,7 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(J6,J7,J8)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="62"/>
@@ -2540,8 +2563,8 @@
         <v>27</v>
       </c>
       <c r="J6" s="28">
-        <f>COUNTIF(E5:E113,I6)</f>
-        <v>57</v>
+        <f>COUNTIF(E5:E115,I6)</f>
+        <v>59</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="63"/>
@@ -2571,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>COUNTIF(E5:E113,I7)</f>
+        <f>COUNTIF(E5:E115,I7)</f>
         <v>24</v>
       </c>
       <c r="K7" s="29"/>
@@ -2602,7 +2625,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="28">
-        <f>COUNTIF(E5:E113,I8)</f>
+        <f>COUNTIF(E5:E115,I8)</f>
         <v>10</v>
       </c>
       <c r="K8" s="29"/>
@@ -2626,19 +2649,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="28">
-        <f>COUNTIF(G5:G113,I9)</f>
-        <v>23</v>
+        <f>COUNTIF(G5:G115,I9)</f>
+        <v>24</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.25274725274725274</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2667,12 +2690,12 @@
         <v>41</v>
       </c>
       <c r="J10" s="28">
-        <f>COUNTIF(G5:G113,I10)</f>
+        <f>COUNTIF(G5:G115,I10)</f>
         <v>66</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.74725274725274726</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2694,15 +2717,15 @@
         <v>0.25</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="19">
-        <f>COUNTIF(G5:G113,I11)</f>
-        <v>2</v>
+        <f>COUNTIF(G5:G115,I11)</f>
+        <v>3</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="63"/>
@@ -2725,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="38"/>
@@ -2751,15 +2774,15 @@
         <v>0.25</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="39" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="19">
-        <f>SUM(F5:F113)</f>
-        <v>76.25</v>
+        <f>SUM(F5:F115)</f>
+        <v>78.25</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="63"/>
@@ -2782,7 +2805,7 @@
         <v>0.25</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="57" t="s">
@@ -2790,7 +2813,7 @@
       </c>
       <c r="J14" s="19">
         <f>8*J13</f>
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="63"/>
@@ -2813,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="58" t="s">
@@ -2829,7 +2852,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>4</v>
@@ -2841,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="59" t="s">
@@ -2857,7 +2880,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>4</v>
@@ -2869,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="42"/>
@@ -2878,10 +2901,10 @@
     </row>
     <row r="18" spans="2:12" ht="35.25">
       <c r="B18" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>4</v>
@@ -2893,16 +2916,16 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="2:12" ht="35.25">
       <c r="B19" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>4</v>
@@ -2914,16 +2937,16 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="55"/>
     </row>
     <row r="20" spans="2:12" ht="35.25">
       <c r="B20" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>4</v>
@@ -2935,16 +2958,16 @@
         <v>0.25</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I20" s="55"/>
     </row>
     <row r="21" spans="2:12" ht="35.25">
       <c r="B21" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>4</v>
@@ -2956,7 +2979,7 @@
         <v>0.25</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I21" s="55"/>
     </row>
@@ -2977,7 +3000,7 @@
         <v>0.25</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -2985,7 +3008,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>4</v>
@@ -2997,7 +3020,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -3005,7 +3028,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>4</v>
@@ -3017,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -3025,7 +3048,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>4</v>
@@ -3037,7 +3060,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -3045,7 +3068,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>4</v>
@@ -3057,7 +3080,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -3065,7 +3088,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>4</v>
@@ -3085,7 +3108,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>4</v>
@@ -3097,7 +3120,7 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -3105,7 +3128,7 @@
         <v>53</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>4</v>
@@ -3117,7 +3140,7 @@
         <v>0.25</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -3125,10 +3148,10 @@
         <v>53</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>16</v>
@@ -3157,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -3177,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -3185,7 +3208,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>4</v>
@@ -3245,7 +3268,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>4</v>
@@ -3265,7 +3288,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>4</v>
@@ -3285,7 +3308,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>4</v>
@@ -3305,7 +3328,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>4</v>
@@ -3322,10 +3345,10 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>4</v>
@@ -3334,7 +3357,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>35</v>
@@ -3342,11 +3365,11 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="D41" s="15" t="s">
         <v>4</v>
       </c>
@@ -3354,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>35</v>
@@ -3362,13 +3385,13 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>16</v>
@@ -3382,19 +3405,19 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>35</v>
@@ -3402,13 +3425,13 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>16</v>
@@ -3422,16 +3445,16 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="43" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F45" s="15">
         <v>0.25</v>
@@ -3441,14 +3464,14 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="45" t="s">
-        <v>116</v>
+      <c r="B46" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>16</v>
@@ -3461,20 +3484,20 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="45" t="s">
-        <v>116</v>
+      <c r="B47" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F47" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>35</v>
@@ -3482,10 +3505,10 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>4</v>
@@ -3502,10 +3525,10 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>4</v>
@@ -3522,10 +3545,10 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="45" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>4</v>
@@ -3534,7 +3557,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>35</v>
@@ -3542,10 +3565,10 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="45" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>4</v>
@@ -3554,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>35</v>
@@ -3562,16 +3585,16 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F52" s="15">
         <v>1</v>
@@ -3582,16 +3605,16 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F53" s="15">
         <v>1</v>
@@ -3602,16 +3625,16 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="45" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F54" s="15">
         <v>1</v>
@@ -3622,19 +3645,19 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="45" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F55" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>35</v>
@@ -3642,19 +3665,19 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="D56" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F56" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>35</v>
@@ -3662,16 +3685,16 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F57" s="15">
         <v>0.5</v>
@@ -3682,10 +3705,10 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>4</v>
@@ -3694,7 +3717,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>35</v>
@@ -3702,59 +3725,59 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F59" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="15">
         <v>0.25</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="15">
-        <v>1</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="15">
-        <v>5</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>35</v>
@@ -3762,19 +3785,19 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="46" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F62" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>35</v>
@@ -3782,10 +3805,10 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>4</v>
@@ -3802,10 +3825,10 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="46" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>4</v>
@@ -3814,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="F64" s="15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>35</v>
@@ -3822,30 +3845,30 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="47" t="s">
-        <v>103</v>
+      <c r="B66" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>4</v>
@@ -3854,21 +3877,21 @@
         <v>9</v>
       </c>
       <c r="F66" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="47" t="s">
-        <v>103</v>
+      <c r="B67" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="C67" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>4</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>9</v>
@@ -3882,30 +3905,30 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="D68" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F68" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>4</v>
@@ -3921,11 +3944,11 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="54" t="s">
-        <v>152</v>
+      <c r="B70" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>4</v>
@@ -3937,35 +3960,35 @@
         <v>1</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="54" t="s">
-        <v>152</v>
+      <c r="B71" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F71" s="15">
         <v>1</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>4</v>
@@ -3977,15 +4000,15 @@
         <v>1</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="41" t="s">
-        <v>119</v>
+      <c r="B73" s="54" t="s">
+        <v>151</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>4</v>
@@ -3994,18 +4017,18 @@
         <v>16</v>
       </c>
       <c r="F73" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="41" t="s">
-        <v>119</v>
+      <c r="B74" s="54" t="s">
+        <v>151</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>4</v>
@@ -4014,7 +4037,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G74" s="15" t="s">
         <v>35</v>
@@ -4022,10 +4045,10 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>4</v>
@@ -4034,7 +4057,7 @@
         <v>16</v>
       </c>
       <c r="F75" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G75" s="15" t="s">
         <v>35</v>
@@ -4042,10 +4065,10 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>4</v>
@@ -4061,11 +4084,11 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="48" t="s">
-        <v>108</v>
+      <c r="B77" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>4</v>
@@ -4074,24 +4097,24 @@
         <v>16</v>
       </c>
       <c r="F77" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G77" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="48" t="s">
-        <v>108</v>
+      <c r="B78" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F78" s="15">
         <v>0.25</v>
@@ -4101,40 +4124,40 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="49" t="s">
-        <v>125</v>
+      <c r="B79" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F79" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="49" t="s">
-        <v>125</v>
+      <c r="B80" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F80" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>35</v>
@@ -4142,16 +4165,16 @@
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
@@ -4162,16 +4185,16 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
@@ -4182,16 +4205,16 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
@@ -4202,16 +4225,16 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -4222,16 +4245,16 @@
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
@@ -4241,17 +4264,17 @@
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="51" t="s">
-        <v>129</v>
+      <c r="B86" s="49" t="s">
+        <v>124</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F86" s="15">
         <v>1</v>
@@ -4261,17 +4284,17 @@
       </c>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="51" t="s">
-        <v>129</v>
+      <c r="B87" s="49" t="s">
+        <v>124</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
@@ -4282,16 +4305,16 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="D88" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F88" s="15">
         <v>1</v>
@@ -4301,17 +4324,17 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="52" t="s">
-        <v>133</v>
+      <c r="B89" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="F89" s="15">
         <v>1</v>
@@ -4321,32 +4344,32 @@
       </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="52" t="s">
-        <v>133</v>
+      <c r="B90" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="F90" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>136</v>
-      </c>
       <c r="D91" s="15" t="s">
         <v>4</v>
       </c>
@@ -4354,7 +4377,7 @@
         <v>16</v>
       </c>
       <c r="F91" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G91" s="15" t="s">
         <v>35</v>
@@ -4362,50 +4385,50 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F92" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="53" t="s">
-        <v>143</v>
+      <c r="B93" s="52" t="s">
+        <v>132</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F93" s="15">
         <v>0.5</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="53" t="s">
-        <v>143</v>
+      <c r="B94" s="52" t="s">
+        <v>132</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>4</v>
@@ -4414,18 +4437,18 @@
         <v>9</v>
       </c>
       <c r="F94" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>4</v>
@@ -4437,26 +4460,66 @@
         <v>0.5</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" s="18"/>
-    </row>
-    <row r="116" spans="7:7">
-      <c r="G116" s="40"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="C109" s="18"/>
+    </row>
+    <row r="118" spans="7:7">
+      <c r="G118" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:G117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D117" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E115" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E117" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G115" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G117" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4466,27 +4529,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4729,26 +4771,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4765,4 +4809,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24EF65E-8E04-4709-BD46-26096CCBBF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD3459-15B2-4D83-9B63-B49D50F95823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$116</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="161">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -1324,19 +1324,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャスト回避攻撃(銃)</t>
-    <rPh sb="4" eb="6">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2235,8 +2222,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F147)</f>
-        <v>78.25</v>
+        <f>SUM(作業工数見積もり!F5:F146)</f>
+        <v>77.25</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2244,8 +2231,8 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!G5:G68,"完了",作業工数見積もり!F5:F68)</f>
-        <v>12</v>
+        <f>SUMIF(作業工数見積もり!G5:G67,"完了",作業工数見積もり!F5:F67)</f>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2257,11 +2244,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>4.878048780487805E-2</v>
+        <v>5.6680161943319839E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2279,7 +2266,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45946</v>
+        <v>45949</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2300,11 +2287,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.96014492753623193</v>
+        <v>0.94402985074626866</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2317,11 +2304,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.86038961038961037</v>
+        <v>0.84333333333333338</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2334,11 +2321,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.86038961038961037</v>
+        <v>0.84333333333333338</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2422,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M118"/>
+  <dimension ref="B2:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2533,7 +2520,7 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(J6,J7,J8)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="62"/>
@@ -2563,8 +2550,8 @@
         <v>27</v>
       </c>
       <c r="J6" s="28">
-        <f>COUNTIF(E5:E115,I6)</f>
-        <v>59</v>
+        <f>COUNTIF(E5:E114,I6)</f>
+        <v>58</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="63"/>
@@ -2594,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>COUNTIF(E5:E115,I7)</f>
+        <f>COUNTIF(E5:E114,I7)</f>
         <v>24</v>
       </c>
       <c r="K7" s="29"/>
@@ -2625,7 +2612,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="28">
-        <f>COUNTIF(E5:E115,I8)</f>
+        <f>COUNTIF(E5:E114,I8)</f>
         <v>10</v>
       </c>
       <c r="K8" s="29"/>
@@ -2656,12 +2643,12 @@
         <v>17</v>
       </c>
       <c r="J9" s="28">
-        <f>COUNTIF(G5:G115,I9)</f>
-        <v>24</v>
+        <f>COUNTIF(G5:G114,I9)</f>
+        <v>26</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.25806451612903225</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2690,12 +2677,12 @@
         <v>41</v>
       </c>
       <c r="J10" s="28">
-        <f>COUNTIF(G5:G115,I10)</f>
-        <v>66</v>
+        <f>COUNTIF(G5:G114,I10)</f>
+        <v>63</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.74193548387096775</v>
+        <v>0.71739130434782605</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2724,7 +2711,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="19">
-        <f>COUNTIF(G5:G115,I11)</f>
+        <f>COUNTIF(G5:G114,I11)</f>
         <v>3</v>
       </c>
       <c r="K11" s="29"/>
@@ -2781,8 +2768,8 @@
         <v>44</v>
       </c>
       <c r="J13" s="19">
-        <f>SUM(F5:F115)</f>
-        <v>78.25</v>
+        <f>SUM(F5:F114)</f>
+        <v>77.25</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="63"/>
@@ -2813,7 +2800,7 @@
       </c>
       <c r="J14" s="19">
         <f>8*J13</f>
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="63"/>
@@ -3260,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -3308,7 +3295,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>4</v>
@@ -3320,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -3328,7 +3315,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>4</v>
@@ -3348,7 +3335,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>4</v>
@@ -3365,10 +3352,10 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>4</v>
@@ -3377,7 +3364,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>35</v>
@@ -3388,7 +3375,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>4</v>
@@ -3408,10 +3395,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>16</v>
@@ -3428,7 +3415,7 @@
         <v>62</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>139</v>
@@ -3437,7 +3424,7 @@
         <v>16</v>
       </c>
       <c r="F44" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>35</v>
@@ -3448,7 +3435,7 @@
         <v>62</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>139</v>
@@ -3457,7 +3444,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>35</v>
@@ -3465,39 +3452,39 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="43" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>139</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F46" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="15">
         <v>0.5</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0.25</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>35</v>
@@ -3508,7 +3495,7 @@
         <v>115</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>4</v>
@@ -3528,7 +3515,7 @@
         <v>115</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>4</v>
@@ -3548,7 +3535,7 @@
         <v>115</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>4</v>
@@ -3565,10 +3552,10 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="45" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>4</v>
@@ -3577,7 +3564,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>35</v>
@@ -3585,10 +3572,10 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>4</v>
@@ -3605,16 +3592,16 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F53" s="15">
         <v>1</v>
@@ -3625,10 +3612,10 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>139</v>
@@ -3645,16 +3632,16 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="45" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F55" s="15">
         <v>1</v>
@@ -3668,7 +3655,7 @@
         <v>91</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>4</v>
@@ -3677,7 +3664,7 @@
         <v>16</v>
       </c>
       <c r="F56" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>35</v>
@@ -3688,16 +3675,16 @@
         <v>91</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F57" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>35</v>
@@ -3708,7 +3695,7 @@
         <v>91</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>4</v>
@@ -3717,7 +3704,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>35</v>
@@ -3728,7 +3715,7 @@
         <v>91</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>4</v>
@@ -3748,27 +3735,27 @@
         <v>91</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F60" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="45" t="s">
-        <v>91</v>
+      <c r="B61" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>4</v>
@@ -3777,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>35</v>
@@ -3788,16 +3775,16 @@
         <v>99</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F62" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>35</v>
@@ -3805,10 +3792,10 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="46" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>4</v>
@@ -3825,10 +3812,10 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="46" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>4</v>
@@ -3848,7 +3835,7 @@
         <v>99</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>4</v>
@@ -3857,7 +3844,7 @@
         <v>9</v>
       </c>
       <c r="F65" s="15">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>35</v>
@@ -3868,36 +3855,36 @@
         <v>99</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="46" t="s">
-        <v>99</v>
+      <c r="B67" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>35</v>
@@ -3908,7 +3895,7 @@
         <v>102</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>4</v>
@@ -3917,7 +3904,7 @@
         <v>9</v>
       </c>
       <c r="F68" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G68" s="15" t="s">
         <v>35</v>
@@ -3928,19 +3915,19 @@
         <v>102</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F69" s="15">
         <v>1</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -3948,39 +3935,39 @@
         <v>102</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F70" s="15">
         <v>1</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="47" t="s">
-        <v>102</v>
+      <c r="B71" s="54" t="s">
+        <v>151</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F71" s="15">
         <v>1</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="2:7">
@@ -3988,7 +3975,7 @@
         <v>151</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>4</v>
@@ -4008,7 +3995,7 @@
         <v>151</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>4</v>
@@ -4020,15 +4007,15 @@
         <v>1</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="54" t="s">
-        <v>151</v>
+      <c r="B74" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>4</v>
@@ -4037,7 +4024,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G74" s="15" t="s">
         <v>35</v>
@@ -4048,7 +4035,7 @@
         <v>118</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>4</v>
@@ -4057,7 +4044,7 @@
         <v>16</v>
       </c>
       <c r="F75" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G75" s="15" t="s">
         <v>35</v>
@@ -4068,7 +4055,7 @@
         <v>118</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>4</v>
@@ -4088,7 +4075,7 @@
         <v>118</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>4</v>
@@ -4104,11 +4091,11 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="41" t="s">
-        <v>118</v>
+      <c r="B78" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>4</v>
@@ -4117,7 +4104,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>35</v>
@@ -4128,27 +4115,27 @@
         <v>107</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="F79" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="48" t="s">
-        <v>107</v>
+      <c r="B80" s="49" t="s">
+        <v>124</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>4</v>
@@ -4157,7 +4144,7 @@
         <v>140</v>
       </c>
       <c r="F80" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>35</v>
@@ -4168,7 +4155,7 @@
         <v>124</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>4</v>
@@ -4188,7 +4175,7 @@
         <v>124</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>4</v>
@@ -4208,7 +4195,7 @@
         <v>124</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>4</v>
@@ -4228,13 +4215,13 @@
         <v>124</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -4248,13 +4235,13 @@
         <v>124</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
@@ -4268,7 +4255,7 @@
         <v>124</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>4</v>
@@ -4284,11 +4271,11 @@
       </c>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="49" t="s">
-        <v>124</v>
+      <c r="B87" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>4</v>
@@ -4308,7 +4295,7 @@
         <v>128</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>4</v>
@@ -4328,7 +4315,7 @@
         <v>128</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>4</v>
@@ -4344,17 +4331,17 @@
       </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="51" t="s">
-        <v>128</v>
+      <c r="B90" s="52" t="s">
+        <v>132</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="F90" s="15">
         <v>1</v>
@@ -4368,7 +4355,7 @@
         <v>132</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>4</v>
@@ -4377,10 +4364,10 @@
         <v>16</v>
       </c>
       <c r="F91" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -4388,7 +4375,7 @@
         <v>132</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>4</v>
@@ -4400,7 +4387,7 @@
         <v>0.5</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -4408,27 +4395,27 @@
         <v>132</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F93" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G93" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="52" t="s">
-        <v>132</v>
+      <c r="B94" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>4</v>
@@ -4437,10 +4424,10 @@
         <v>9</v>
       </c>
       <c r="F94" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="2:7">
@@ -4448,7 +4435,7 @@
         <v>142</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>4</v>
@@ -4468,7 +4455,7 @@
         <v>142</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>4</v>
@@ -4480,46 +4467,26 @@
         <v>0.5</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="C109" s="18"/>
-    </row>
-    <row r="118" spans="7:7">
-      <c r="G118" s="40"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="18"/>
+    </row>
+    <row r="117" spans="7:7">
+      <c r="G117" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:G116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D117" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D116" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E117" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E116" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G117" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G116" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4772,15 +4739,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -4790,6 +4748,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4812,14 +4779,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4828,4 +4787,12 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD3459-15B2-4D83-9B63-B49D50F95823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785B01A-2A9D-4D59-87AE-63FD340FD6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="1425" windowWidth="27165" windowHeight="14055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!G5:G67,"完了",作業工数見積もり!F5:F67)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>5.6680161943319839E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.94402985074626866</v>
+        <v>0.86940298507462688</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.84333333333333338</v>
+        <v>0.77666666666666662</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.84333333333333338</v>
+        <v>0.77666666666666662</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2411,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2644,11 +2644,11 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G114,I9)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.28260869565217389</v>
+        <v>0.33695652173913043</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2678,11 +2678,11 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G114,I10)</f>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.71739130434782605</v>
+        <v>0.66304347826086951</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="J11" s="19">
         <f>COUNTIF(G5:G114,I11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="63"/>
@@ -3167,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -3207,7 +3207,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -3367,7 +3367,7 @@
         <v>0.5</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -4739,6 +4739,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -4748,15 +4757,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4779,6 +4779,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4787,12 +4795,4 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785B01A-2A9D-4D59-87AE-63FD340FD6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81187E63-DACC-4157-9D06-CA9E00A5F9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1425" windowWidth="27165" windowHeight="14055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$115</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="160">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -513,25 +513,6 @@
   </si>
   <si>
     <t>プレイヤー(ポッド)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サブ締め攻撃(メイン攻撃中にサブ攻撃)</t>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウゲキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2222,8 +2203,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F146)</f>
-        <v>77.25</v>
+        <f>SUM(作業工数見積もり!F5:F145)</f>
+        <v>76.25</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2231,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!G5:G67,"完了",作業工数見積もり!F5:F67)</f>
+        <f>SUMIF(作業工数見積もり!G5:G66,"完了",作業工数見積もり!F5:F66)</f>
         <v>19</v>
       </c>
       <c r="D4" t="s">
@@ -2244,11 +2225,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>7.6923076923076927E-2</v>
+        <v>7.6612903225806453E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2266,7 +2247,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45949</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2291,7 +2272,7 @@
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.86940298507462688</v>
+        <v>0.85447761194029848</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2308,7 +2289,7 @@
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.77666666666666662</v>
+        <v>0.76333333333333331</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2325,7 +2306,7 @@
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.77666666666666662</v>
+        <v>0.76333333333333331</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2409,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M117"/>
+  <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2453,10 +2434,10 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>4</v>
@@ -2468,15 +2449,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="33.75" thickBot="1">
       <c r="B4" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>4</v>
@@ -2488,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -2520,7 +2501,7 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(J6,J7,J8)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="62"/>
@@ -2550,8 +2531,8 @@
         <v>27</v>
       </c>
       <c r="J6" s="28">
-        <f>COUNTIF(E5:E114,I6)</f>
-        <v>58</v>
+        <f>COUNTIF(E5:E113,I6)</f>
+        <v>57</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="63"/>
@@ -2581,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>COUNTIF(E5:E114,I7)</f>
+        <f>COUNTIF(E5:E113,I7)</f>
         <v>24</v>
       </c>
       <c r="K7" s="29"/>
@@ -2612,7 +2593,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="28">
-        <f>COUNTIF(E5:E114,I8)</f>
+        <f>COUNTIF(E5:E113,I8)</f>
         <v>10</v>
       </c>
       <c r="K8" s="29"/>
@@ -2636,19 +2617,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="28">
-        <f>COUNTIF(G5:G114,I9)</f>
+        <f>COUNTIF(G5:G113,I9)</f>
         <v>31</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.33695652173913043</v>
+        <v>0.34065934065934067</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2677,12 +2658,12 @@
         <v>41</v>
       </c>
       <c r="J10" s="28">
-        <f>COUNTIF(G5:G114,I10)</f>
-        <v>59</v>
+        <f>COUNTIF(G5:G113,I10)</f>
+        <v>58</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.66304347826086951</v>
+        <v>0.65934065934065933</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2704,14 +2685,14 @@
         <v>0.25</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="19">
-        <f>COUNTIF(G5:G114,I11)</f>
+        <f>COUNTIF(G5:G113,I11)</f>
         <v>2</v>
       </c>
       <c r="K11" s="29"/>
@@ -2735,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="38"/>
@@ -2761,15 +2742,15 @@
         <v>0.25</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="39" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="19">
-        <f>SUM(F5:F114)</f>
-        <v>77.25</v>
+        <f>SUM(F5:F113)</f>
+        <v>76.25</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="63"/>
@@ -2792,7 +2773,7 @@
         <v>0.25</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="57" t="s">
@@ -2800,7 +2781,7 @@
       </c>
       <c r="J14" s="19">
         <f>8*J13</f>
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="63"/>
@@ -2823,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="58" t="s">
@@ -2839,7 +2820,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>4</v>
@@ -2851,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="59" t="s">
@@ -2867,7 +2848,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>4</v>
@@ -2879,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="42"/>
@@ -2888,10 +2869,10 @@
     </row>
     <row r="18" spans="2:12" ht="35.25">
       <c r="B18" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>4</v>
@@ -2903,16 +2884,16 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="2:12" ht="35.25">
       <c r="B19" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>4</v>
@@ -2924,16 +2905,16 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I19" s="55"/>
     </row>
     <row r="20" spans="2:12" ht="35.25">
       <c r="B20" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>4</v>
@@ -2945,16 +2926,16 @@
         <v>0.25</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="55"/>
     </row>
     <row r="21" spans="2:12" ht="35.25">
       <c r="B21" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>4</v>
@@ -2966,7 +2947,7 @@
         <v>0.25</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I21" s="55"/>
     </row>
@@ -2987,7 +2968,7 @@
         <v>0.25</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -2995,7 +2976,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>4</v>
@@ -3007,7 +2988,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -3015,7 +2996,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>4</v>
@@ -3027,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -3035,7 +3016,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>4</v>
@@ -3047,7 +3028,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -3055,7 +3036,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>4</v>
@@ -3067,7 +3048,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -3075,7 +3056,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>4</v>
@@ -3095,7 +3076,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>4</v>
@@ -3107,7 +3088,7 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -3115,7 +3096,7 @@
         <v>53</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>4</v>
@@ -3127,7 +3108,7 @@
         <v>0.25</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -3135,10 +3116,10 @@
         <v>53</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>16</v>
@@ -3167,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -3187,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -3195,7 +3176,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>4</v>
@@ -3207,7 +3188,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -3227,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -3247,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -3255,7 +3236,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>4</v>
@@ -3275,7 +3256,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>4</v>
@@ -3307,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -3327,15 +3308,15 @@
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>4</v>
@@ -3344,10 +3325,10 @@
         <v>16</v>
       </c>
       <c r="F40" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -3355,7 +3336,7 @@
         <v>62</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>4</v>
@@ -3367,7 +3348,7 @@
         <v>0.5</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -3378,7 +3359,7 @@
         <v>64</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>16</v>
@@ -3398,13 +3379,13 @@
         <v>65</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>35</v>
@@ -3418,13 +3399,13 @@
         <v>66</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>35</v>
@@ -3432,39 +3413,39 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="43" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F45" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="15">
         <v>0.5</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="15">
-        <v>0.25</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>35</v>
@@ -3472,7 +3453,7 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>97</v>
@@ -3492,10 +3473,10 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>4</v>
@@ -3512,10 +3493,10 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>4</v>
@@ -3532,10 +3513,10 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="45" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>4</v>
@@ -3544,7 +3525,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>35</v>
@@ -3572,16 +3553,16 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F52" s="15">
         <v>1</v>
@@ -3592,13 +3573,13 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>9</v>
@@ -3612,16 +3593,16 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="45" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F54" s="15">
         <v>1</v>
@@ -3632,7 +3613,7 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>92</v>
@@ -3644,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="F55" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>35</v>
@@ -3652,7 +3633,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>93</v>
@@ -3661,10 +3642,10 @@
         <v>4</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F56" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>35</v>
@@ -3672,7 +3653,7 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>94</v>
@@ -3684,7 +3665,7 @@
         <v>9</v>
       </c>
       <c r="F57" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>35</v>
@@ -3692,7 +3673,7 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>95</v>
@@ -3712,30 +3693,30 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F59" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="45" t="s">
-        <v>91</v>
+      <c r="B60" s="46" t="s">
+        <v>98</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>4</v>
@@ -3744,7 +3725,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>35</v>
@@ -3752,19 +3733,19 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F61" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>35</v>
@@ -3772,10 +3753,10 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="46" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>4</v>
@@ -3792,10 +3773,10 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="46" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>4</v>
@@ -3812,10 +3793,10 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>4</v>
@@ -3824,7 +3805,7 @@
         <v>9</v>
       </c>
       <c r="F64" s="15">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>35</v>
@@ -3832,39 +3813,39 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="46" t="s">
-        <v>99</v>
+      <c r="B66" s="47" t="s">
+        <v>101</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>35</v>
@@ -3872,10 +3853,10 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>4</v>
@@ -3884,7 +3865,7 @@
         <v>9</v>
       </c>
       <c r="F67" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>35</v>
@@ -3892,27 +3873,27 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F68" s="15">
         <v>1</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>143</v>
@@ -3921,38 +3902,38 @@
         <v>4</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F69" s="15">
         <v>1</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="47" t="s">
-        <v>102</v>
+      <c r="B70" s="54" t="s">
+        <v>150</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F70" s="15">
         <v>1</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>152</v>
@@ -3967,12 +3948,12 @@
         <v>1</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>153</v>
@@ -3987,15 +3968,15 @@
         <v>1</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="54" t="s">
-        <v>151</v>
+      <c r="B73" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>4</v>
@@ -4004,7 +3985,7 @@
         <v>16</v>
       </c>
       <c r="F73" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>35</v>
@@ -4012,11 +3993,11 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="D74" s="15" t="s">
         <v>4</v>
       </c>
@@ -4024,7 +4005,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G74" s="15" t="s">
         <v>35</v>
@@ -4032,7 +4013,7 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>119</v>
@@ -4052,7 +4033,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>120</v>
@@ -4071,11 +4052,11 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="41" t="s">
-        <v>118</v>
+      <c r="B77" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>4</v>
@@ -4084,7 +4065,7 @@
         <v>16</v>
       </c>
       <c r="F77" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G77" s="15" t="s">
         <v>35</v>
@@ -4092,7 +4073,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>108</v>
@@ -4101,18 +4082,18 @@
         <v>4</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="F78" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="48" t="s">
-        <v>107</v>
+      <c r="B79" s="49" t="s">
+        <v>123</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>109</v>
@@ -4121,10 +4102,10 @@
         <v>4</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F79" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>35</v>
@@ -4132,16 +4113,16 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F80" s="15">
         <v>1</v>
@@ -4152,16 +4133,16 @@
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
@@ -4172,16 +4153,16 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
@@ -4192,16 +4173,16 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
@@ -4212,16 +4193,16 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -4232,16 +4213,16 @@
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
@@ -4251,17 +4232,17 @@
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="49" t="s">
-        <v>124</v>
+      <c r="B86" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F86" s="15">
         <v>1</v>
@@ -4272,7 +4253,7 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>129</v>
@@ -4281,7 +4262,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
@@ -4292,7 +4273,7 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>130</v>
@@ -4301,7 +4282,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F88" s="15">
         <v>1</v>
@@ -4311,17 +4292,17 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="51" t="s">
-        <v>128</v>
+      <c r="B89" s="52" t="s">
+        <v>131</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="F89" s="15">
         <v>1</v>
@@ -4332,7 +4313,7 @@
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>133</v>
@@ -4344,15 +4325,15 @@
         <v>16</v>
       </c>
       <c r="F90" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>134</v>
@@ -4367,35 +4348,35 @@
         <v>0.5</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F92" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G92" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="52" t="s">
-        <v>132</v>
+      <c r="B93" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>4</v>
@@ -4404,15 +4385,15 @@
         <v>9</v>
       </c>
       <c r="F93" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>146</v>
@@ -4427,12 +4408,12 @@
         <v>0.5</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>147</v>
@@ -4447,46 +4428,26 @@
         <v>0.5</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3">
-      <c r="C108" s="18"/>
-    </row>
-    <row r="117" spans="7:7">
-      <c r="G117" s="40"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="18"/>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D116" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E116" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E115" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G116" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G115" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4496,6 +4457,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4738,28 +4720,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4776,23 +4756,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81187E63-DACC-4157-9D06-CA9E00A5F9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DEB79B-E01F-4015-95C7-A2B5CC1FB8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -2186,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224174C6-79B8-40DF-BFBC-1FA41083861E}">
   <dimension ref="B3:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!G5:G66,"完了",作業工数見積もり!F5:F66)</f>
-        <v>19</v>
+        <v>19.25</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>7.6612903225806453E-2</v>
+        <v>7.7620967741935484E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.85447761194029848</v>
+        <v>0.85074626865671643</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.76333333333333331</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.76333333333333331</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2390,10 +2390,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2452,7 +2453,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="33.75" thickBot="1">
+    <row r="4" spans="2:13">
       <c r="B4" s="50" t="s">
         <v>124</v>
       </c>
@@ -2476,7 +2477,7 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" hidden="1">
       <c r="B5" s="21" t="s">
         <v>47</v>
       </c>
@@ -2507,7 +2508,7 @@
       <c r="L5" s="62"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" hidden="1">
       <c r="B6" s="21" t="s">
         <v>47</v>
       </c>
@@ -2538,7 +2539,7 @@
       <c r="L6" s="63"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" hidden="1">
       <c r="B7" s="21" t="s">
         <v>47</v>
       </c>
@@ -2569,7 +2570,7 @@
       <c r="L7" s="63"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
@@ -2625,16 +2626,16 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G113,I9)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.34065934065934067</v>
+        <v>0.35164835164835168</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="21" t="s">
         <v>47</v>
       </c>
@@ -2659,16 +2660,16 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G113,I10)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.65934065934065933</v>
+        <v>0.64835164835164838</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="36" t="s">
         <v>43</v>
       </c>
@@ -2699,7 +2700,7 @@
       <c r="L11" s="63"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" hidden="1">
       <c r="B12" s="36" t="s">
         <v>43</v>
       </c>
@@ -2725,7 +2726,7 @@
       <c r="L12" s="63"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" hidden="1">
       <c r="B13" s="36" t="s">
         <v>43</v>
       </c>
@@ -2756,7 +2757,7 @@
       <c r="L13" s="63"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" hidden="1">
       <c r="B14" s="36" t="s">
         <v>43</v>
       </c>
@@ -2787,7 +2788,7 @@
       <c r="L14" s="63"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="2:13" ht="35.25">
+    <row r="15" spans="2:13" ht="35.25" hidden="1">
       <c r="B15" s="36" t="s">
         <v>43</v>
       </c>
@@ -2815,7 +2816,7 @@
       <c r="L15" s="63"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="2:13" ht="36" thickBot="1">
+    <row r="16" spans="2:13" ht="36" hidden="1" thickBot="1">
       <c r="B16" s="36" t="s">
         <v>43</v>
       </c>
@@ -2843,7 +2844,7 @@
       <c r="L16" s="64"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="2:12" ht="35.25">
+    <row r="17" spans="2:12" ht="35.25" hidden="1">
       <c r="B17" s="36" t="s">
         <v>43</v>
       </c>
@@ -2867,7 +2868,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="2:12" ht="35.25">
+    <row r="18" spans="2:12" ht="35.25" hidden="1">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -2888,7 +2889,7 @@
       </c>
       <c r="I18" s="55"/>
     </row>
-    <row r="19" spans="2:12" ht="35.25">
+    <row r="19" spans="2:12" ht="35.25" hidden="1">
       <c r="B19" s="44" t="s">
         <v>78</v>
       </c>
@@ -2909,7 +2910,7 @@
       </c>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="2:12" ht="35.25">
+    <row r="20" spans="2:12" ht="35.25" hidden="1">
       <c r="B20" s="44" t="s">
         <v>78</v>
       </c>
@@ -2930,7 +2931,7 @@
       </c>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="2:12" ht="35.25">
+    <row r="21" spans="2:12" ht="35.25" hidden="1">
       <c r="B21" s="44" t="s">
         <v>78</v>
       </c>
@@ -2951,7 +2952,7 @@
       </c>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" hidden="1">
       <c r="B22" s="43" t="s">
         <v>53</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" hidden="1">
       <c r="B23" s="43" t="s">
         <v>53</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" hidden="1">
       <c r="B24" s="43" t="s">
         <v>53</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" hidden="1">
       <c r="B25" s="43" t="s">
         <v>53</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" hidden="1">
       <c r="B26" s="43" t="s">
         <v>53</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" hidden="1">
       <c r="B27" s="43" t="s">
         <v>53</v>
       </c>
@@ -3068,10 +3069,10 @@
         <v>0.25</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" hidden="1">
       <c r="B28" s="43" t="s">
         <v>53</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" hidden="1">
       <c r="B29" s="43" t="s">
         <v>53</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" hidden="1">
       <c r="B31" s="43" t="s">
         <v>53</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" hidden="1">
       <c r="B32" s="43" t="s">
         <v>53</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" hidden="1">
       <c r="B33" s="43" t="s">
         <v>53</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" hidden="1">
       <c r="B34" s="43" t="s">
         <v>53</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" hidden="1">
       <c r="B35" s="43" t="s">
         <v>53</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" hidden="1">
       <c r="B38" s="43" t="s">
         <v>53</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" hidden="1">
       <c r="B39" s="43" t="s">
         <v>53</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" hidden="1">
       <c r="B40" s="43" t="s">
         <v>62</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" hidden="1">
       <c r="B45" s="43" t="s">
         <v>53</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" hidden="1">
       <c r="B52" s="45" t="s">
         <v>84</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" hidden="1">
       <c r="B53" s="45" t="s">
         <v>83</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" hidden="1">
       <c r="B56" s="45" t="s">
         <v>90</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" hidden="1">
       <c r="B57" s="45" t="s">
         <v>90</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" hidden="1">
       <c r="B58" s="45" t="s">
         <v>90</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" hidden="1">
       <c r="B61" s="46" t="s">
         <v>98</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" hidden="1">
       <c r="B62" s="46" t="s">
         <v>46</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" hidden="1">
       <c r="B63" s="46" t="s">
         <v>98</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" hidden="1">
       <c r="B64" s="46" t="s">
         <v>98</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" hidden="1">
       <c r="B65" s="46" t="s">
         <v>98</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" hidden="1">
       <c r="B66" s="47" t="s">
         <v>101</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" hidden="1">
       <c r="B67" s="47" t="s">
         <v>101</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" hidden="1">
       <c r="B68" s="47" t="s">
         <v>101</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" hidden="1">
       <c r="B69" s="47" t="s">
         <v>101</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" hidden="1">
       <c r="B70" s="54" t="s">
         <v>150</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" hidden="1">
       <c r="B71" s="54" t="s">
         <v>150</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" hidden="1">
       <c r="B78" s="48" t="s">
         <v>106</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" hidden="1">
       <c r="B79" s="49" t="s">
         <v>123</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" hidden="1">
       <c r="B80" s="49" t="s">
         <v>123</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" hidden="1">
       <c r="B81" s="49" t="s">
         <v>123</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" hidden="1">
       <c r="B82" s="49" t="s">
         <v>123</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" hidden="1">
       <c r="B83" s="49" t="s">
         <v>123</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" hidden="1">
       <c r="B84" s="49" t="s">
         <v>123</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" hidden="1">
       <c r="B85" s="49" t="s">
         <v>123</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" hidden="1">
       <c r="B86" s="51" t="s">
         <v>127</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" hidden="1">
       <c r="B87" s="51" t="s">
         <v>127</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" hidden="1">
       <c r="B88" s="51" t="s">
         <v>127</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" hidden="1">
       <c r="B92" s="52" t="s">
         <v>131</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" hidden="1">
       <c r="B93" s="53" t="s">
         <v>141</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" hidden="1">
       <c r="B94" s="53" t="s">
         <v>141</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" hidden="1">
       <c r="B95" s="53" t="s">
         <v>141</v>
       </c>
@@ -4431,14 +4432,45 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="96" spans="2:7" hidden="1"/>
+    <row r="97" spans="3:3" hidden="1"/>
+    <row r="98" spans="3:3" hidden="1"/>
+    <row r="99" spans="3:3" hidden="1"/>
+    <row r="100" spans="3:3" hidden="1"/>
+    <row r="101" spans="3:3" hidden="1"/>
+    <row r="102" spans="3:3" hidden="1"/>
+    <row r="103" spans="3:3" hidden="1"/>
+    <row r="104" spans="3:3" hidden="1"/>
+    <row r="105" spans="3:3" hidden="1"/>
+    <row r="106" spans="3:3" hidden="1"/>
+    <row r="107" spans="3:3" hidden="1">
       <c r="C107" s="18"/>
     </row>
+    <row r="108" spans="3:3" hidden="1"/>
+    <row r="109" spans="3:3" hidden="1"/>
+    <row r="110" spans="3:3" hidden="1"/>
+    <row r="111" spans="3:3" hidden="1"/>
+    <row r="112" spans="3:3" hidden="1"/>
+    <row r="113" spans="7:7" hidden="1"/>
+    <row r="114" spans="7:7" hidden="1"/>
+    <row r="115" spans="7:7" hidden="1"/>
     <row r="116" spans="7:7">
       <c r="G116" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="プロト"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="作業中"/>
+        <filter val="未着手"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
@@ -4457,27 +4489,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4720,26 +4731,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4756,4 +4769,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DEB79B-E01F-4015-95C7-A2B5CC1FB8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447AF712-9417-4E82-B7A2-2554CCD22F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -2186,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224174C6-79B8-40DF-BFBC-1FA41083861E}">
   <dimension ref="B3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!G5:G66,"完了",作業工数見積もり!F5:F66)</f>
-        <v>19.25</v>
+        <v>21.25</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2225,11 +2225,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>7.7620967741935484E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45950</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.85074626865671643</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.76</v>
+        <v>0.75342465753424659</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2302,11 +2302,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.76</v>
+        <v>0.75342465753424659</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2393,8 +2393,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2626,11 +2626,11 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G113,I9)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.35164835164835168</v>
+        <v>0.37362637362637363</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G113,I10)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.64835164835164838</v>
+        <v>0.62637362637362637</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1">
@@ -4732,15 +4732,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -4750,6 +4741,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4772,14 +4772,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4788,4 +4780,12 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447AF712-9417-4E82-B7A2-2554CCD22F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE495BC5-3F5C-4936-8573-7B79844BDE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2187,7 +2187,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!G5:G66,"完了",作業工数見積もり!F5:F66)</f>
-        <v>21.25</v>
+        <v>22.25</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2225,11 +2225,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>8.5000000000000006E-2</v>
+        <v>8.8645418326693232E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45952</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.84615384615384615</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.75342465753424659</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2302,11 +2302,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.75342465753424659</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2394,7 +2394,7 @@
   <dimension ref="B2:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2433,7 +2433,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" hidden="1">
       <c r="B3" s="50" t="s">
         <v>124</v>
       </c>
@@ -2450,10 +2450,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" hidden="1">
       <c r="B4" s="50" t="s">
         <v>124</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -2601,7 +2601,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" hidden="1">
       <c r="B9" s="21" t="s">
         <v>47</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="32" t="s">
@@ -2626,11 +2626,11 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G113,I9)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.37362637362637363</v>
+        <v>0.39560439560439559</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G113,I10)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.62637362637362637</v>
+        <v>0.60439560439560436</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="J11" s="19">
         <f>COUNTIF(G5:G113,I11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="63"/>
@@ -3232,7 +3232,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" hidden="1">
       <c r="B36" s="43" t="s">
         <v>53</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" hidden="1">
       <c r="B37" s="43" t="s">
         <v>53</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" hidden="1">
       <c r="B72" s="54" t="s">
         <v>150</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:7">
@@ -4732,6 +4732,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -4741,15 +4750,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4772,6 +4772,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4780,12 +4788,4 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE495BC5-3F5C-4936-8573-7B79844BDE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23077213-1E6D-4331-89C1-124F38F5559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$114</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="159">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -992,25 +992,6 @@
   </si>
   <si>
     <t>エネミー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スポーンポイント(敵の生成とどの敵が生きているかを記録するもの)</t>
-    <rPh sb="9" eb="10">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キロク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2203,8 +2184,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F145)</f>
-        <v>76.25</v>
+        <f>SUM(作業工数見積もり!F5:F144)</f>
+        <v>75.75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2212,8 +2193,8 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!G5:G66,"完了",作業工数見積もり!F5:F66)</f>
-        <v>22.25</v>
+        <f>SUMIF(作業工数見積もり!G5:G65,"完了",作業工数見積もり!F5:F65)</f>
+        <v>26.25</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2225,11 +2206,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>8.8645418326693232E-2</v>
+        <v>0.10294117647058823</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2247,7 +2228,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45953</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2268,11 +2249,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.84375</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2285,11 +2266,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.75</v>
+        <v>0.7279411764705882</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2302,11 +2283,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.75</v>
+        <v>0.7279411764705882</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2390,11 +2371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:M116"/>
+  <dimension ref="B2:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2433,12 +2413,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:13" hidden="1">
+    <row r="3" spans="2:13">
       <c r="B3" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>4</v>
@@ -2450,15 +2430,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="33.75" thickBot="1">
       <c r="B4" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>4</v>
@@ -2470,14 +2450,14 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="2:13" hidden="1">
+    <row r="5" spans="2:13">
       <c r="B5" s="21" t="s">
         <v>47</v>
       </c>
@@ -2502,13 +2482,13 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(J6,J7,J8)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="62"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="2:13" hidden="1">
+    <row r="6" spans="2:13">
       <c r="B6" s="21" t="s">
         <v>47</v>
       </c>
@@ -2532,14 +2512,14 @@
         <v>27</v>
       </c>
       <c r="J6" s="28">
-        <f>COUNTIF(E5:E113,I6)</f>
-        <v>57</v>
+        <f>COUNTIF(E5:E112,I6)</f>
+        <v>56</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="63"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="2:13" hidden="1">
+    <row r="7" spans="2:13">
       <c r="B7" s="21" t="s">
         <v>47</v>
       </c>
@@ -2563,14 +2543,14 @@
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>COUNTIF(E5:E113,I7)</f>
+        <f>COUNTIF(E5:E112,I7)</f>
         <v>24</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="63"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13">
       <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
@@ -2594,14 +2574,14 @@
         <v>28</v>
       </c>
       <c r="J8" s="28">
-        <f>COUNTIF(E5:E113,I8)</f>
+        <f>COUNTIF(E5:E112,I8)</f>
         <v>10</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="63"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" hidden="1">
+    <row r="9" spans="2:13">
       <c r="B9" s="21" t="s">
         <v>47</v>
       </c>
@@ -2618,24 +2598,24 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="28">
-        <f>COUNTIF(G5:G113,I9)</f>
-        <v>36</v>
+        <f>COUNTIF(G5:G112,I9)</f>
+        <v>41</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.39560439560439559</v>
+        <v>0.45555555555555555</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13">
       <c r="B10" s="21" t="s">
         <v>47</v>
       </c>
@@ -2659,17 +2639,17 @@
         <v>41</v>
       </c>
       <c r="J10" s="28">
-        <f>COUNTIF(G5:G113,I10)</f>
-        <v>54</v>
+        <f>COUNTIF(G5:G112,I10)</f>
+        <v>48</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.60439560439560436</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13">
       <c r="B11" s="36" t="s">
         <v>43</v>
       </c>
@@ -2686,21 +2666,21 @@
         <v>0.25</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="19">
-        <f>COUNTIF(G5:G113,I11)</f>
+        <f>COUNTIF(G5:G112,I11)</f>
         <v>1</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="63"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="2:13" hidden="1">
+    <row r="12" spans="2:13">
       <c r="B12" s="36" t="s">
         <v>43</v>
       </c>
@@ -2717,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="38"/>
@@ -2726,7 +2706,7 @@
       <c r="L12" s="63"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="2:13" hidden="1">
+    <row r="13" spans="2:13">
       <c r="B13" s="36" t="s">
         <v>43</v>
       </c>
@@ -2743,21 +2723,21 @@
         <v>0.25</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="39" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="19">
-        <f>SUM(F5:F113)</f>
-        <v>76.25</v>
+        <f>SUM(F5:F112)</f>
+        <v>75.75</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="63"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="2:13" hidden="1">
+    <row r="14" spans="2:13">
       <c r="B14" s="36" t="s">
         <v>43</v>
       </c>
@@ -2774,7 +2754,7 @@
         <v>0.25</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="57" t="s">
@@ -2782,13 +2762,13 @@
       </c>
       <c r="J14" s="19">
         <f>8*J13</f>
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="63"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="2:13" ht="35.25" hidden="1">
+    <row r="15" spans="2:13" ht="35.25">
       <c r="B15" s="36" t="s">
         <v>43</v>
       </c>
@@ -2805,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="58" t="s">
@@ -2816,12 +2796,12 @@
       <c r="L15" s="63"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="2:13" ht="36" hidden="1" thickBot="1">
+    <row r="16" spans="2:13" ht="36" thickBot="1">
       <c r="B16" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>4</v>
@@ -2833,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="59" t="s">
@@ -2844,12 +2824,12 @@
       <c r="L16" s="64"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="2:12" ht="35.25" hidden="1">
+    <row r="17" spans="2:12" ht="35.25">
       <c r="B17" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>4</v>
@@ -2861,14 +2841,14 @@
         <v>1</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="2:12" ht="35.25" hidden="1">
+    <row r="18" spans="2:12" ht="35.25">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -2885,11 +2865,11 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I18" s="55"/>
     </row>
-    <row r="19" spans="2:12" ht="35.25" hidden="1">
+    <row r="19" spans="2:12" ht="35.25">
       <c r="B19" s="44" t="s">
         <v>78</v>
       </c>
@@ -2906,11 +2886,11 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="2:12" ht="35.25" hidden="1">
+    <row r="20" spans="2:12" ht="35.25">
       <c r="B20" s="44" t="s">
         <v>78</v>
       </c>
@@ -2927,16 +2907,16 @@
         <v>0.25</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="2:12" ht="35.25" hidden="1">
+    <row r="21" spans="2:12" ht="35.25">
       <c r="B21" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>4</v>
@@ -2948,11 +2928,11 @@
         <v>0.25</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="2:12" hidden="1">
+    <row r="22" spans="2:12">
       <c r="B22" s="43" t="s">
         <v>53</v>
       </c>
@@ -2969,10 +2949,10 @@
         <v>0.25</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="43" t="s">
         <v>53</v>
       </c>
@@ -2989,10 +2969,10 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="43" t="s">
         <v>53</v>
       </c>
@@ -3009,10 +2989,10 @@
         <v>3</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" s="43" t="s">
         <v>53</v>
       </c>
@@ -3029,10 +3009,10 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="43" t="s">
         <v>53</v>
       </c>
@@ -3049,10 +3029,10 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" s="43" t="s">
         <v>53</v>
       </c>
@@ -3069,10 +3049,10 @@
         <v>0.25</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" s="43" t="s">
         <v>53</v>
       </c>
@@ -3089,10 +3069,10 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
       <c r="B29" s="43" t="s">
         <v>53</v>
       </c>
@@ -3109,7 +3089,7 @@
         <v>0.25</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -3132,7 +3112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" hidden="1">
+    <row r="31" spans="2:12">
       <c r="B31" s="43" t="s">
         <v>53</v>
       </c>
@@ -3149,10 +3129,10 @@
         <v>2</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
       <c r="B32" s="43" t="s">
         <v>53</v>
       </c>
@@ -3169,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="43" t="s">
         <v>53</v>
       </c>
@@ -3189,10 +3169,10 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="43" t="s">
         <v>53</v>
       </c>
@@ -3209,10 +3189,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="43" t="s">
         <v>53</v>
       </c>
@@ -3229,15 +3209,15 @@
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>4</v>
@@ -3249,15 +3229,15 @@
         <v>1</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>4</v>
@@ -3269,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="43" t="s">
         <v>53</v>
       </c>
@@ -3289,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="43" t="s">
         <v>53</v>
       </c>
@@ -3309,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="43" t="s">
         <v>62</v>
       </c>
@@ -3329,7 +3309,7 @@
         <v>0.5</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -3360,7 +3340,7 @@
         <v>64</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>16</v>
@@ -3380,7 +3360,7 @@
         <v>65</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>16</v>
@@ -3400,7 +3380,7 @@
         <v>66</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>16</v>
@@ -3412,15 +3392,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
+    <row r="45" spans="2:7">
       <c r="B45" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>9</v>
@@ -3449,7 +3429,7 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -3469,7 +3449,7 @@
         <v>0.5</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -3494,10 +3474,10 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="45" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>4</v>
@@ -3506,18 +3486,18 @@
         <v>16</v>
       </c>
       <c r="F49" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>4</v>
@@ -3529,21 +3509,21 @@
         <v>1</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F51" s="15">
         <v>1</v>
@@ -3552,15 +3532,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
+    <row r="52" spans="2:7">
       <c r="B52" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>9</v>
@@ -3572,18 +3552,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
+    <row r="53" spans="2:7">
       <c r="B53" s="45" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F53" s="15">
         <v>1</v>
@@ -3597,7 +3577,7 @@
         <v>90</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>4</v>
@@ -3606,7 +3586,7 @@
         <v>16</v>
       </c>
       <c r="F54" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>35</v>
@@ -3617,27 +3597,27 @@
         <v>90</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F55" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
+    <row r="56" spans="2:7">
       <c r="B56" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>4</v>
@@ -3646,18 +3626,18 @@
         <v>9</v>
       </c>
       <c r="F56" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
+    <row r="57" spans="2:7">
       <c r="B57" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>4</v>
@@ -3672,32 +3652,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
+    <row r="58" spans="2:7">
       <c r="B58" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F58" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="45" t="s">
-        <v>90</v>
+      <c r="B59" s="46" t="s">
+        <v>98</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>4</v>
@@ -3706,10 +3686,10 @@
         <v>16</v>
       </c>
       <c r="F59" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -3717,27 +3697,27 @@
         <v>98</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F60" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
+    <row r="61" spans="2:7">
       <c r="B61" s="46" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>4</v>
@@ -3752,12 +3732,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
+    <row r="62" spans="2:7">
       <c r="B62" s="46" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>4</v>
@@ -3772,12 +3752,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
+    <row r="63" spans="2:7">
       <c r="B63" s="46" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>4</v>
@@ -3786,58 +3766,58 @@
         <v>9</v>
       </c>
       <c r="F63" s="15">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
+    <row r="64" spans="2:7">
       <c r="B64" s="46" t="s">
         <v>98</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="46" t="s">
-        <v>98</v>
+    <row r="65" spans="2:7">
+      <c r="B65" s="47" t="s">
+        <v>101</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
+    <row r="66" spans="2:7">
       <c r="B66" s="47" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>4</v>
@@ -3846,33 +3826,33 @@
         <v>9</v>
       </c>
       <c r="F66" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
+    <row r="67" spans="2:7">
       <c r="B67" s="47" t="s">
         <v>101</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F67" s="15">
         <v>1</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="47" t="s">
         <v>101</v>
       </c>
@@ -3883,38 +3863,38 @@
         <v>4</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F68" s="15">
         <v>1</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="47" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="54" t="s">
+        <v>149</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F69" s="15">
         <v>1</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>151</v>
@@ -3929,12 +3909,12 @@
         <v>1</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>152</v>
@@ -3949,15 +3929,15 @@
         <v>1</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="54" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>4</v>
@@ -3966,19 +3946,19 @@
         <v>16</v>
       </c>
       <c r="F72" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="D73" s="15" t="s">
         <v>4</v>
       </c>
@@ -3986,7 +3966,7 @@
         <v>16</v>
       </c>
       <c r="F73" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>35</v>
@@ -3994,7 +3974,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>118</v>
@@ -4014,7 +3994,7 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>119</v>
@@ -4033,11 +4013,11 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="41" t="s">
-        <v>117</v>
+      <c r="B76" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>4</v>
@@ -4046,7 +4026,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G76" s="15" t="s">
         <v>35</v>
@@ -4057,53 +4037,53 @@
         <v>106</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="F77" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G77" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="48" t="s">
-        <v>106</v>
+    <row r="78" spans="2:7">
+      <c r="B78" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F78" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
+    <row r="79" spans="2:7">
       <c r="B79" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F79" s="15">
         <v>1</v>
@@ -4112,18 +4092,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
+    <row r="80" spans="2:7">
       <c r="B80" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F80" s="15">
         <v>1</v>
@@ -4132,18 +4112,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
+    <row r="81" spans="2:7">
       <c r="B81" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
@@ -4152,18 +4132,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
+    <row r="82" spans="2:7">
       <c r="B82" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
@@ -4172,18 +4152,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
+    <row r="83" spans="2:7">
       <c r="B83" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
@@ -4192,18 +4172,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
+    <row r="84" spans="2:7">
       <c r="B84" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -4212,18 +4192,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
-      <c r="B85" s="49" t="s">
-        <v>123</v>
+    <row r="85" spans="2:7">
+      <c r="B85" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
@@ -4232,9 +4212,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
+    <row r="86" spans="2:7">
       <c r="B86" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>128</v>
@@ -4243,7 +4223,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F86" s="15">
         <v>1</v>
@@ -4252,9 +4232,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
+    <row r="87" spans="2:7">
       <c r="B87" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>129</v>
@@ -4263,7 +4243,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
@@ -4272,18 +4252,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="51" t="s">
-        <v>127</v>
+    <row r="88" spans="2:7">
+      <c r="B88" s="52" t="s">
+        <v>130</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="F88" s="15">
         <v>1</v>
@@ -4294,7 +4274,7 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>132</v>
@@ -4306,15 +4286,15 @@
         <v>16</v>
       </c>
       <c r="F89" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>133</v>
@@ -4329,35 +4309,35 @@
         <v>0.5</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F91" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G91" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1">
-      <c r="B92" s="52" t="s">
-        <v>131</v>
+    <row r="92" spans="2:7">
+      <c r="B92" s="53" t="s">
+        <v>140</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>4</v>
@@ -4366,15 +4346,15 @@
         <v>9</v>
       </c>
       <c r="F92" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>145</v>
@@ -4389,12 +4369,12 @@
         <v>0.5</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>146</v>
@@ -4409,77 +4389,26 @@
         <v>0.5</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" hidden="1">
-      <c r="B95" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G95" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="2:7" hidden="1"/>
-    <row r="97" spans="3:3" hidden="1"/>
-    <row r="98" spans="3:3" hidden="1"/>
-    <row r="99" spans="3:3" hidden="1"/>
-    <row r="100" spans="3:3" hidden="1"/>
-    <row r="101" spans="3:3" hidden="1"/>
-    <row r="102" spans="3:3" hidden="1"/>
-    <row r="103" spans="3:3" hidden="1"/>
-    <row r="104" spans="3:3" hidden="1"/>
-    <row r="105" spans="3:3" hidden="1"/>
-    <row r="106" spans="3:3" hidden="1"/>
-    <row r="107" spans="3:3" hidden="1">
-      <c r="C107" s="18"/>
-    </row>
-    <row r="108" spans="3:3" hidden="1"/>
-    <row r="109" spans="3:3" hidden="1"/>
-    <row r="110" spans="3:3" hidden="1"/>
-    <row r="111" spans="3:3" hidden="1"/>
-    <row r="112" spans="3:3" hidden="1"/>
-    <row r="113" spans="7:7" hidden="1"/>
-    <row r="114" spans="7:7" hidden="1"/>
-    <row r="115" spans="7:7" hidden="1"/>
-    <row r="116" spans="7:7">
-      <c r="G116" s="40"/>
+    <row r="106" spans="3:3">
+      <c r="C106" s="18"/>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="プロト"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="作業中"/>
-        <filter val="未着手"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:G114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D114" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E115" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E114" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G115" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G114" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4489,6 +4418,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4731,28 +4681,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4769,23 +4717,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23077213-1E6D-4331-89C1-124F38F5559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE32A9A0-164E-4520-8D80-44F1D8855C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="158">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -1265,9 +1265,6 @@
   <si>
     <t>エリア1(チュートリアルステージ)</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業中</t>
   </si>
   <si>
     <t>ジャスト回避攻撃(メイン)</t>
@@ -2168,7 +2165,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2194,7 +2191,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!G5:G65,"完了",作業工数見積もり!F5:F65)</f>
-        <v>26.25</v>
+        <v>26.75</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2206,11 +2203,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>0.10294117647058823</v>
+        <v>0.10408560311284047</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2228,7 +2225,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45959</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2249,11 +2246,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.82499999999999996</v>
+        <v>0.84482758620689657</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2266,11 +2263,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.7279411764705882</v>
+        <v>0.74242424242424243</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2283,11 +2280,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.7279411764705882</v>
+        <v>0.74242424242424243</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2373,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2606,11 +2603,11 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G112,I9)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.45555555555555555</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2640,11 +2637,11 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G112,I10)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.5444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2674,7 +2671,7 @@
       </c>
       <c r="J11" s="19">
         <f>COUNTIF(G5:G112,I11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="63"/>
@@ -3217,7 +3214,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>4</v>
@@ -3237,7 +3234,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>4</v>
@@ -3469,7 +3466,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -4269,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="2:7">
@@ -4289,7 +4286,7 @@
         <v>0.5</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="2:7">
@@ -4309,7 +4306,7 @@
         <v>0.5</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="2:7">
@@ -4418,27 +4415,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4681,26 +4657,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4717,4 +4695,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE32A9A0-164E-4520-8D80-44F1D8855C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4882E933-236E-42E1-B13F-71A842A2B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45961</v>
+        <v>45963</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2246,11 +2246,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.84482758620689657</v>
+        <v>0.85964912280701755</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.74242424242424243</v>
+        <v>0.75384615384615383</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2280,11 +2280,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.74242424242424243</v>
+        <v>0.75384615384615383</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2368,10 +2368,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2390,7 +2391,7 @@
     <col min="12" max="16384" width="9.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" ht="33.75" thickBot="1">
       <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" ht="33.75" hidden="1" thickBot="1">
       <c r="B3" s="50" t="s">
         <v>123</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="33.75" thickBot="1">
+    <row r="4" spans="2:13" ht="33.75" hidden="1" thickBot="1">
       <c r="B4" s="50" t="s">
         <v>123</v>
       </c>
@@ -2578,7 +2579,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" hidden="1">
       <c r="B9" s="21" t="s">
         <v>47</v>
       </c>
@@ -2646,7 +2647,7 @@
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="36" t="s">
         <v>43</v>
       </c>
@@ -2677,7 +2678,7 @@
       <c r="L11" s="63"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" hidden="1">
       <c r="B12" s="36" t="s">
         <v>43</v>
       </c>
@@ -2703,7 +2704,7 @@
       <c r="L12" s="63"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" hidden="1">
       <c r="B13" s="36" t="s">
         <v>43</v>
       </c>
@@ -2734,7 +2735,7 @@
       <c r="L13" s="63"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" hidden="1">
       <c r="B14" s="36" t="s">
         <v>43</v>
       </c>
@@ -2765,7 +2766,7 @@
       <c r="L14" s="63"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="2:13" ht="35.25">
+    <row r="15" spans="2:13" ht="35.25" hidden="1">
       <c r="B15" s="36" t="s">
         <v>43</v>
       </c>
@@ -2793,7 +2794,7 @@
       <c r="L15" s="63"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="2:13" ht="36" thickBot="1">
+    <row r="16" spans="2:13" ht="36" hidden="1" thickBot="1">
       <c r="B16" s="36" t="s">
         <v>43</v>
       </c>
@@ -2821,7 +2822,7 @@
       <c r="L16" s="64"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="2:12" ht="35.25">
+    <row r="17" spans="2:12" ht="35.25" hidden="1">
       <c r="B17" s="36" t="s">
         <v>43</v>
       </c>
@@ -2845,7 +2846,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="2:12" ht="35.25">
+    <row r="18" spans="2:12" ht="35.25" hidden="1">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -2866,7 +2867,7 @@
       </c>
       <c r="I18" s="55"/>
     </row>
-    <row r="19" spans="2:12" ht="35.25">
+    <row r="19" spans="2:12" ht="35.25" hidden="1">
       <c r="B19" s="44" t="s">
         <v>78</v>
       </c>
@@ -2887,7 +2888,7 @@
       </c>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="2:12" ht="35.25">
+    <row r="20" spans="2:12" ht="35.25" hidden="1">
       <c r="B20" s="44" t="s">
         <v>78</v>
       </c>
@@ -2908,7 +2909,7 @@
       </c>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="2:12" ht="35.25">
+    <row r="21" spans="2:12" ht="35.25" hidden="1">
       <c r="B21" s="44" t="s">
         <v>78</v>
       </c>
@@ -2929,7 +2930,7 @@
       </c>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" hidden="1">
       <c r="B22" s="43" t="s">
         <v>53</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" hidden="1">
       <c r="B23" s="43" t="s">
         <v>53</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" hidden="1">
       <c r="B24" s="43" t="s">
         <v>53</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" hidden="1">
       <c r="B25" s="43" t="s">
         <v>53</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" hidden="1">
       <c r="B26" s="43" t="s">
         <v>53</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" hidden="1">
       <c r="B27" s="43" t="s">
         <v>53</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" hidden="1">
       <c r="B28" s="43" t="s">
         <v>53</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" hidden="1">
       <c r="B29" s="43" t="s">
         <v>53</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" hidden="1">
       <c r="B31" s="43" t="s">
         <v>53</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" hidden="1">
       <c r="B32" s="43" t="s">
         <v>53</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" hidden="1">
       <c r="B33" s="43" t="s">
         <v>53</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" hidden="1">
       <c r="B34" s="43" t="s">
         <v>53</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" hidden="1">
       <c r="B35" s="43" t="s">
         <v>53</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" hidden="1">
       <c r="B36" s="43" t="s">
         <v>53</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" hidden="1">
       <c r="B37" s="43" t="s">
         <v>53</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" hidden="1">
       <c r="B38" s="43" t="s">
         <v>53</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" hidden="1">
       <c r="B39" s="43" t="s">
         <v>53</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" hidden="1">
       <c r="B40" s="43" t="s">
         <v>62</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" hidden="1">
       <c r="B46" s="45" t="s">
         <v>114</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" hidden="1">
       <c r="B47" s="45" t="s">
         <v>114</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" hidden="1">
       <c r="B48" s="45" t="s">
         <v>114</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" hidden="1">
       <c r="B49" s="45" t="s">
         <v>81</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" hidden="1">
       <c r="B50" s="45" t="s">
         <v>82</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" hidden="1">
       <c r="B59" s="46" t="s">
         <v>98</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" hidden="1">
       <c r="B67" s="47" t="s">
         <v>101</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" hidden="1">
       <c r="B69" s="54" t="s">
         <v>149</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" hidden="1">
       <c r="B70" s="54" t="s">
         <v>149</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" hidden="1">
       <c r="B71" s="54" t="s">
         <v>149</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" hidden="1">
       <c r="B88" s="52" t="s">
         <v>130</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" hidden="1">
       <c r="B89" s="52" t="s">
         <v>130</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" hidden="1">
       <c r="B90" s="52" t="s">
         <v>130</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" hidden="1">
       <c r="B92" s="53" t="s">
         <v>140</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" hidden="1">
       <c r="B93" s="53" t="s">
         <v>140</v>
       </c>
@@ -4389,14 +4390,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="3:3">
+    <row r="95" spans="2:7" hidden="1"/>
+    <row r="96" spans="2:7" hidden="1"/>
+    <row r="97" spans="3:3" hidden="1"/>
+    <row r="98" spans="3:3" hidden="1"/>
+    <row r="99" spans="3:3" hidden="1"/>
+    <row r="100" spans="3:3" hidden="1"/>
+    <row r="101" spans="3:3" hidden="1"/>
+    <row r="102" spans="3:3" hidden="1"/>
+    <row r="103" spans="3:3" hidden="1"/>
+    <row r="104" spans="3:3" hidden="1"/>
+    <row r="105" spans="3:3" hidden="1"/>
+    <row r="106" spans="3:3" hidden="1">
       <c r="C106" s="18"/>
     </row>
+    <row r="107" spans="3:3" hidden="1"/>
+    <row r="108" spans="3:3" hidden="1"/>
+    <row r="109" spans="3:3" hidden="1"/>
+    <row r="110" spans="3:3" hidden="1"/>
+    <row r="111" spans="3:3" hidden="1"/>
+    <row r="112" spans="3:3" hidden="1"/>
+    <row r="113" spans="7:7" hidden="1"/>
+    <row r="114" spans="7:7" hidden="1"/>
     <row r="115" spans="7:7">
       <c r="G115" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:G114" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="未着手"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D114" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
@@ -4658,15 +4684,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -4676,6 +4693,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4698,14 +4724,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4714,4 +4732,12 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4882E933-236E-42E1-B13F-71A842A2B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F44ACB-6694-4E06-AE22-6995BFF2FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -2164,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224174C6-79B8-40DF-BFBC-1FA41083861E}">
   <dimension ref="B3:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2203,11 +2203,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>0.10408560311284047</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2215,8 +2215,8 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <f>DATE(2024,11,7)</f>
-        <v>45603</v>
+        <f>DATE(2025,10,1)</f>
+        <v>45931</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45963</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2246,11 +2246,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.85964912280701755</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.75384615384615383</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2280,11 +2280,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.75384615384615383</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2371,8 +2371,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2604,11 +2604,11 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G112,I9)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2638,11 +2638,11 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G112,I10)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.5</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -4107,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="2:7">
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="2:7">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F44ACB-6694-4E06-AE22-6995BFF2FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7202D4F6-01E7-4473-91A9-1D419EE016AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$115</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="159">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -1284,6 +1284,10 @@
     <rPh sb="6" eb="8">
       <t>コウゲキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルシーン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2164,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224174C6-79B8-40DF-BFBC-1FA41083861E}">
   <dimension ref="B3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2181,8 +2185,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F144)</f>
-        <v>75.75</v>
+        <f>SUM(作業工数見積もり!F5:F145)</f>
+        <v>76.75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2203,11 +2207,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>1.07</v>
+        <v>0.9553571428571429</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2225,7 +2229,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45965</v>
+        <v>45969</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2246,11 +2250,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.875</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2263,11 +2267,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.765625</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2280,11 +2284,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.765625</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2368,11 +2372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:M115"/>
+  <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2391,7 +2394,7 @@
     <col min="12" max="16384" width="9.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="33.75" thickBot="1">
+    <row r="2" spans="2:13">
       <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="33.75" hidden="1" thickBot="1">
+    <row r="3" spans="2:13">
       <c r="B3" s="50" t="s">
         <v>123</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="33.75" hidden="1" thickBot="1">
+    <row r="4" spans="2:13" ht="33.75" thickBot="1">
       <c r="B4" s="50" t="s">
         <v>123</v>
       </c>
@@ -2480,7 +2483,7 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(J6,J7,J8)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="62"/>
@@ -2510,7 +2513,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="28">
-        <f>COUNTIF(E5:E112,I6)</f>
+        <f>COUNTIF(E5:E113,I6)</f>
         <v>56</v>
       </c>
       <c r="K6" s="29"/>
@@ -2541,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>COUNTIF(E5:E112,I7)</f>
+        <f>COUNTIF(E5:E113,I7)</f>
         <v>24</v>
       </c>
       <c r="K7" s="29"/>
@@ -2572,14 +2575,14 @@
         <v>28</v>
       </c>
       <c r="J8" s="28">
-        <f>COUNTIF(E5:E112,I8)</f>
-        <v>10</v>
+        <f>COUNTIF(E5:E113,I8)</f>
+        <v>11</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="63"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" hidden="1">
+    <row r="9" spans="2:13">
       <c r="B9" s="21" t="s">
         <v>47</v>
       </c>
@@ -2603,12 +2606,12 @@
         <v>17</v>
       </c>
       <c r="J9" s="28">
-        <f>COUNTIF(G5:G112,I9)</f>
-        <v>48</v>
+        <f>COUNTIF(G5:G113,I9)</f>
+        <v>49</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.53333333333333333</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2637,17 +2640,17 @@
         <v>41</v>
       </c>
       <c r="J10" s="28">
-        <f>COUNTIF(G5:G112,I10)</f>
+        <f>COUNTIF(G5:G113,I10)</f>
         <v>42</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.46666666666666667</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13">
       <c r="B11" s="36" t="s">
         <v>43</v>
       </c>
@@ -2671,14 +2674,14 @@
         <v>42</v>
       </c>
       <c r="J11" s="19">
-        <f>COUNTIF(G5:G112,I11)</f>
+        <f>COUNTIF(G5:G113,I11)</f>
         <v>0</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="63"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="2:13" hidden="1">
+    <row r="12" spans="2:13">
       <c r="B12" s="36" t="s">
         <v>43</v>
       </c>
@@ -2704,7 +2707,7 @@
       <c r="L12" s="63"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="2:13" hidden="1">
+    <row r="13" spans="2:13">
       <c r="B13" s="36" t="s">
         <v>43</v>
       </c>
@@ -2728,14 +2731,14 @@
         <v>44</v>
       </c>
       <c r="J13" s="19">
-        <f>SUM(F5:F112)</f>
-        <v>75.75</v>
+        <f>SUM(F5:F113)</f>
+        <v>76.75</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="63"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="2:13" hidden="1">
+    <row r="14" spans="2:13">
       <c r="B14" s="36" t="s">
         <v>43</v>
       </c>
@@ -2760,13 +2763,13 @@
       </c>
       <c r="J14" s="19">
         <f>8*J13</f>
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="63"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="2:13" ht="35.25" hidden="1">
+    <row r="15" spans="2:13" ht="35.25">
       <c r="B15" s="36" t="s">
         <v>43</v>
       </c>
@@ -2794,7 +2797,7 @@
       <c r="L15" s="63"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="2:13" ht="36" hidden="1" thickBot="1">
+    <row r="16" spans="2:13" ht="36" thickBot="1">
       <c r="B16" s="36" t="s">
         <v>43</v>
       </c>
@@ -2822,7 +2825,7 @@
       <c r="L16" s="64"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="2:12" ht="35.25" hidden="1">
+    <row r="17" spans="2:12" ht="35.25">
       <c r="B17" s="36" t="s">
         <v>43</v>
       </c>
@@ -2846,7 +2849,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="2:12" ht="35.25" hidden="1">
+    <row r="18" spans="2:12" ht="35.25">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -2867,7 +2870,7 @@
       </c>
       <c r="I18" s="55"/>
     </row>
-    <row r="19" spans="2:12" ht="35.25" hidden="1">
+    <row r="19" spans="2:12" ht="35.25">
       <c r="B19" s="44" t="s">
         <v>78</v>
       </c>
@@ -2888,7 +2891,7 @@
       </c>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="2:12" ht="35.25" hidden="1">
+    <row r="20" spans="2:12" ht="35.25">
       <c r="B20" s="44" t="s">
         <v>78</v>
       </c>
@@ -2909,7 +2912,7 @@
       </c>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="2:12" ht="35.25" hidden="1">
+    <row r="21" spans="2:12" ht="35.25">
       <c r="B21" s="44" t="s">
         <v>78</v>
       </c>
@@ -2930,7 +2933,7 @@
       </c>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="2:12" hidden="1">
+    <row r="22" spans="2:12">
       <c r="B22" s="43" t="s">
         <v>53</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="2:12" hidden="1">
+    <row r="23" spans="2:12">
       <c r="B23" s="43" t="s">
         <v>53</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:12" hidden="1">
+    <row r="24" spans="2:12">
       <c r="B24" s="43" t="s">
         <v>53</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:12" hidden="1">
+    <row r="25" spans="2:12">
       <c r="B25" s="43" t="s">
         <v>53</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:12" hidden="1">
+    <row r="26" spans="2:12">
       <c r="B26" s="43" t="s">
         <v>53</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:12" hidden="1">
+    <row r="27" spans="2:12">
       <c r="B27" s="43" t="s">
         <v>53</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:12" hidden="1">
+    <row r="28" spans="2:12">
       <c r="B28" s="43" t="s">
         <v>53</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1">
+    <row r="29" spans="2:12">
       <c r="B29" s="43" t="s">
         <v>53</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" hidden="1">
+    <row r="31" spans="2:12">
       <c r="B31" s="43" t="s">
         <v>53</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:12" hidden="1">
+    <row r="32" spans="2:12">
       <c r="B32" s="43" t="s">
         <v>53</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
+    <row r="33" spans="2:7">
       <c r="B33" s="43" t="s">
         <v>53</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
+    <row r="34" spans="2:7">
       <c r="B34" s="43" t="s">
         <v>53</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
+    <row r="35" spans="2:7">
       <c r="B35" s="43" t="s">
         <v>53</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
+    <row r="36" spans="2:7">
       <c r="B36" s="43" t="s">
         <v>53</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
+    <row r="37" spans="2:7">
       <c r="B37" s="43" t="s">
         <v>53</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
+    <row r="38" spans="2:7">
       <c r="B38" s="43" t="s">
         <v>53</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
+    <row r="39" spans="2:7">
       <c r="B39" s="43" t="s">
         <v>53</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
+    <row r="40" spans="2:7">
       <c r="B40" s="43" t="s">
         <v>62</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
+    <row r="46" spans="2:7">
       <c r="B46" s="45" t="s">
         <v>114</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
+    <row r="47" spans="2:7">
       <c r="B47" s="45" t="s">
         <v>114</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
+    <row r="48" spans="2:7">
       <c r="B48" s="45" t="s">
         <v>114</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
+    <row r="49" spans="2:7">
       <c r="B49" s="45" t="s">
         <v>81</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
+    <row r="50" spans="2:7">
       <c r="B50" s="45" t="s">
         <v>82</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
+    <row r="59" spans="2:7">
       <c r="B59" s="46" t="s">
         <v>98</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
+    <row r="67" spans="2:7">
       <c r="B67" s="47" t="s">
         <v>101</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
+    <row r="69" spans="2:7">
       <c r="B69" s="54" t="s">
         <v>149</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
+    <row r="70" spans="2:7">
       <c r="B70" s="54" t="s">
         <v>149</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
+    <row r="71" spans="2:7">
       <c r="B71" s="54" t="s">
         <v>149</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>122</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>4</v>
@@ -4115,7 +4118,7 @@
         <v>122</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>4</v>
@@ -4127,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="2:7">
@@ -4135,13 +4138,13 @@
         <v>122</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
@@ -4155,19 +4158,19 @@
         <v>122</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="2:7">
@@ -4175,7 +4178,7 @@
         <v>122</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>4</v>
@@ -4187,15 +4190,15 @@
         <v>1</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="51" t="s">
-        <v>126</v>
+      <c r="B85" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>4</v>
@@ -4215,7 +4218,7 @@
         <v>126</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>4</v>
@@ -4235,7 +4238,7 @@
         <v>126</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>4</v>
@@ -4250,32 +4253,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="52" t="s">
-        <v>130</v>
+    <row r="88" spans="2:7">
+      <c r="B88" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="F88" s="15">
         <v>1</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="52" t="s">
         <v>130</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>4</v>
@@ -4284,18 +4287,18 @@
         <v>16</v>
       </c>
       <c r="F89" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1">
+    <row r="90" spans="2:7">
       <c r="B90" s="52" t="s">
         <v>130</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>4</v>
@@ -4315,27 +4318,27 @@
         <v>130</v>
       </c>
       <c r="C91" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" hidden="1">
-      <c r="B92" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>4</v>
@@ -4344,18 +4347,18 @@
         <v>9</v>
       </c>
       <c r="F92" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93" s="53" t="s">
         <v>140</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>4</v>
@@ -4375,7 +4378,7 @@
         <v>140</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>4</v>
@@ -4387,51 +4390,46 @@
         <v>0.5</v>
       </c>
       <c r="G94" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G95" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="2:7" hidden="1"/>
-    <row r="96" spans="2:7" hidden="1"/>
-    <row r="97" spans="3:3" hidden="1"/>
-    <row r="98" spans="3:3" hidden="1"/>
-    <row r="99" spans="3:3" hidden="1"/>
-    <row r="100" spans="3:3" hidden="1"/>
-    <row r="101" spans="3:3" hidden="1"/>
-    <row r="102" spans="3:3" hidden="1"/>
-    <row r="103" spans="3:3" hidden="1"/>
-    <row r="104" spans="3:3" hidden="1"/>
-    <row r="105" spans="3:3" hidden="1"/>
-    <row r="106" spans="3:3" hidden="1">
-      <c r="C106" s="18"/>
-    </row>
-    <row r="107" spans="3:3" hidden="1"/>
-    <row r="108" spans="3:3" hidden="1"/>
-    <row r="109" spans="3:3" hidden="1"/>
-    <row r="110" spans="3:3" hidden="1"/>
-    <row r="111" spans="3:3" hidden="1"/>
-    <row r="112" spans="3:3" hidden="1"/>
-    <row r="113" spans="7:7" hidden="1"/>
-    <row r="114" spans="7:7" hidden="1"/>
-    <row r="115" spans="7:7">
-      <c r="G115" s="40"/>
+    <row r="107" spans="3:3">
+      <c r="C107" s="18"/>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G114" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="未着手"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D114" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E114" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E115" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G114" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G115" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4684,6 +4682,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -4693,15 +4700,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4724,6 +4722,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4732,12 +4738,4 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7202D4F6-01E7-4473-91A9-1D419EE016AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E1442-7F70-4023-85AE-8CB538A9F954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,10 +932,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>セーブポイント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セーブデータ3つ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1288,6 +1284,10 @@
   </si>
   <si>
     <t>チュートリアルシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックポイント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!G5:G65,"完了",作業工数見積もり!F5:F65)</f>
-        <v>26.75</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>0.9553571428571429</v>
+        <v>1.1785714285714286</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45969</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.96153846153846156</v>
+        <v>0.84134615384615385</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.83333333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.83333333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2374,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>4</v>
@@ -2431,15 +2431,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="33.75" thickBot="1">
       <c r="B4" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>4</v>
@@ -2451,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="32" t="s">
@@ -2607,11 +2607,11 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G113,I9)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.53846153846153844</v>
+        <v>0.58241758241758246</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2641,11 +2641,11 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G113,I10)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.46153846153846156</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2667,7 +2667,7 @@
         <v>0.25</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="37" t="s">
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="38"/>
@@ -2724,7 +2724,7 @@
         <v>0.25</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="39" t="s">
@@ -2755,7 +2755,7 @@
         <v>0.25</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="57" t="s">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="58" t="s">
@@ -2802,7 +2802,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>4</v>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="59" t="s">
@@ -2830,7 +2830,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>4</v>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="42"/>
@@ -2866,7 +2866,7 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I18" s="55"/>
     </row>
@@ -2887,7 +2887,7 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19" s="55"/>
     </row>
@@ -2908,7 +2908,7 @@
         <v>0.25</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20" s="55"/>
     </row>
@@ -2917,7 +2917,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>4</v>
@@ -2929,7 +2929,7 @@
         <v>0.25</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21" s="55"/>
     </row>
@@ -2950,7 +2950,7 @@
         <v>0.25</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -2970,7 +2970,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -2990,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -3010,7 +3010,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -3030,7 +3030,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -3050,7 +3050,7 @@
         <v>0.25</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -3070,7 +3070,7 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -3090,7 +3090,7 @@
         <v>0.25</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -3130,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -3170,7 +3170,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -3218,7 +3218,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>4</v>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -3238,7 +3238,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>4</v>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -3310,7 +3310,7 @@
         <v>0.5</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -3341,7 +3341,7 @@
         <v>64</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>16</v>
@@ -3361,7 +3361,7 @@
         <v>65</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>16</v>
@@ -3381,7 +3381,7 @@
         <v>66</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>16</v>
@@ -3398,10 +3398,10 @@
         <v>53</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>9</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>96</v>
@@ -3430,12 +3430,12 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>97</v>
@@ -3450,12 +3450,12 @@
         <v>0.5</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>85</v>
@@ -3470,7 +3470,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -3521,7 +3521,7 @@
         <v>88</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>9</v>
@@ -3541,7 +3541,7 @@
         <v>89</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>9</v>
@@ -3658,7 +3658,7 @@
         <v>90</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>4</v>
@@ -3670,7 +3670,7 @@
         <v>0.25</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -3690,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -3698,7 +3698,7 @@
         <v>98</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>4</v>
@@ -3710,7 +3710,7 @@
         <v>5</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -3718,7 +3718,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>4</v>
@@ -3738,7 +3738,7 @@
         <v>98</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>4</v>
@@ -3778,10 +3778,10 @@
         <v>98</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>9</v>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -3818,7 +3818,7 @@
         <v>101</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>4</v>
@@ -3838,7 +3838,7 @@
         <v>101</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>4</v>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -3858,7 +3858,7 @@
         <v>101</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>4</v>
@@ -3875,10 +3875,10 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>4</v>
@@ -3890,15 +3890,15 @@
         <v>1</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>4</v>
@@ -3910,15 +3910,15 @@
         <v>1</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>4</v>
@@ -3930,15 +3930,15 @@
         <v>1</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>4</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>4</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>4</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>4</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>4</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F77" s="15">
         <v>0.25</v>
@@ -4055,36 +4055,36 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F78" s="15">
         <v>1</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F79" s="15">
         <v>1</v>
@@ -4095,56 +4095,56 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F80" s="15">
         <v>1</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
@@ -4155,10 +4155,10 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>4</v>
@@ -4175,36 +4175,36 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
@@ -4215,16 +4215,16 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="D86" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F86" s="15">
         <v>1</v>
@@ -4235,16 +4235,16 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
@@ -4255,16 +4255,16 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F88" s="15">
         <v>1</v>
@@ -4275,10 +4275,10 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>4</v>
@@ -4290,15 +4290,15 @@
         <v>1</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>4</v>
@@ -4310,15 +4310,15 @@
         <v>0.5</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>4</v>
@@ -4330,15 +4330,15 @@
         <v>0.5</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>4</v>
@@ -4355,10 +4355,10 @@
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>4</v>
@@ -4370,15 +4370,15 @@
         <v>0.5</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>4</v>
@@ -4390,15 +4390,15 @@
         <v>0.5</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>4</v>
@@ -4410,7 +4410,7 @@
         <v>0.5</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="3:3">
@@ -4682,15 +4682,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -4700,6 +4691,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4722,14 +4722,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4738,4 +4730,12 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E1442-7F70-4023-85AE-8CB538A9F954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496FFAE2-DBA6-4924-869E-3FB6B0C7FE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$114</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="158">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -929,10 +929,6 @@
     <rPh sb="4" eb="5">
       <t>サイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セーブデータ3つ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2169,7 +2165,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2185,8 +2181,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F145)</f>
-        <v>76.75</v>
+        <f>SUM(作業工数見積もり!F5:F144)</f>
+        <v>75.75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2207,11 +2203,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>1.1785714285714286</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2229,7 +2225,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45970</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2245,16 +2241,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <f>DATE(2026,1,20)</f>
-        <v>46042</v>
+        <f>DATE(2026,1,10)</f>
+        <v>46032</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.84134615384615385</v>
+        <v>0.97159090909090906</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2267,11 +2263,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.72916666666666663</v>
+        <v>0.72457627118644063</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2284,11 +2280,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.72916666666666663</v>
+        <v>0.72457627118644063</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2372,10 +2368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M116"/>
+  <dimension ref="B2:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2416,10 +2412,10 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>4</v>
@@ -2431,15 +2427,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="33.75" thickBot="1">
       <c r="B4" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>4</v>
@@ -2451,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -2483,7 +2479,7 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(J6,J7,J8)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="62"/>
@@ -2513,7 +2509,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="28">
-        <f>COUNTIF(E5:E113,I6)</f>
+        <f>COUNTIF(E5:E112,I6)</f>
         <v>56</v>
       </c>
       <c r="K6" s="29"/>
@@ -2544,8 +2540,8 @@
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>COUNTIF(E5:E113,I7)</f>
-        <v>24</v>
+        <f>COUNTIF(E5:E112,I7)</f>
+        <v>23</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="63"/>
@@ -2575,7 +2571,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="28">
-        <f>COUNTIF(E5:E113,I8)</f>
+        <f>COUNTIF(E5:E112,I8)</f>
         <v>11</v>
       </c>
       <c r="K8" s="29"/>
@@ -2599,19 +2595,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="28">
-        <f>COUNTIF(G5:G113,I9)</f>
-        <v>53</v>
+        <f>COUNTIF(G5:G112,I9)</f>
+        <v>54</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.58241758241758246</v>
+        <v>0.6</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2640,12 +2636,12 @@
         <v>41</v>
       </c>
       <c r="J10" s="28">
-        <f>COUNTIF(G5:G113,I10)</f>
-        <v>38</v>
+        <f>COUNTIF(G5:G112,I10)</f>
+        <v>36</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.4175824175824176</v>
+        <v>0.4</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2667,14 +2663,14 @@
         <v>0.25</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="19">
-        <f>COUNTIF(G5:G113,I11)</f>
+        <f>COUNTIF(G5:G112,I11)</f>
         <v>0</v>
       </c>
       <c r="K11" s="29"/>
@@ -2698,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="38"/>
@@ -2724,15 +2720,15 @@
         <v>0.25</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="39" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="19">
-        <f>SUM(F5:F113)</f>
-        <v>76.75</v>
+        <f>SUM(F5:F112)</f>
+        <v>75.75</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="63"/>
@@ -2755,7 +2751,7 @@
         <v>0.25</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="57" t="s">
@@ -2763,7 +2759,7 @@
       </c>
       <c r="J14" s="19">
         <f>8*J13</f>
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="63"/>
@@ -2786,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="58" t="s">
@@ -2802,7 +2798,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>4</v>
@@ -2814,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="59" t="s">
@@ -2830,7 +2826,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>4</v>
@@ -2842,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="42"/>
@@ -2866,7 +2862,7 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I18" s="55"/>
     </row>
@@ -2887,7 +2883,7 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I19" s="55"/>
     </row>
@@ -2908,7 +2904,7 @@
         <v>0.25</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I20" s="55"/>
     </row>
@@ -2917,7 +2913,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>4</v>
@@ -2929,7 +2925,7 @@
         <v>0.25</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I21" s="55"/>
     </row>
@@ -2950,7 +2946,7 @@
         <v>0.25</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -2970,7 +2966,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -2990,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -3010,7 +3006,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -3030,7 +3026,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -3050,7 +3046,7 @@
         <v>0.25</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -3070,7 +3066,7 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -3090,7 +3086,7 @@
         <v>0.25</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -3130,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -3150,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -3170,7 +3166,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -3190,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -3210,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -3218,7 +3214,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>4</v>
@@ -3230,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -3238,7 +3234,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>4</v>
@@ -3250,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -3270,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -3290,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -3310,7 +3306,7 @@
         <v>0.5</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -3341,7 +3337,7 @@
         <v>64</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>16</v>
@@ -3361,7 +3357,7 @@
         <v>65</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>16</v>
@@ -3381,7 +3377,7 @@
         <v>66</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>16</v>
@@ -3398,10 +3394,10 @@
         <v>53</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>9</v>
@@ -3415,7 +3411,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>96</v>
@@ -3430,12 +3426,12 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>97</v>
@@ -3450,12 +3446,12 @@
         <v>0.5</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>85</v>
@@ -3470,7 +3466,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -3490,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -3510,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -3521,7 +3517,7 @@
         <v>88</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>9</v>
@@ -3541,7 +3537,7 @@
         <v>89</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>9</v>
@@ -3658,7 +3654,7 @@
         <v>90</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>4</v>
@@ -3670,7 +3666,7 @@
         <v>0.25</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -3690,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -3698,7 +3694,7 @@
         <v>98</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>4</v>
@@ -3710,7 +3706,7 @@
         <v>5</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -3718,7 +3714,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>4</v>
@@ -3738,7 +3734,7 @@
         <v>98</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>4</v>
@@ -3778,10 +3774,10 @@
         <v>98</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>9</v>
@@ -3790,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -3818,19 +3814,19 @@
         <v>101</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F66" s="15">
         <v>1</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -3844,38 +3840,38 @@
         <v>4</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F67" s="15">
         <v>1</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="47" t="s">
-        <v>101</v>
+      <c r="B68" s="54" t="s">
+        <v>147</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F68" s="15">
         <v>1</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>149</v>
@@ -3890,12 +3886,12 @@
         <v>1</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>150</v>
@@ -3910,15 +3906,15 @@
         <v>1</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="54" t="s">
-        <v>148</v>
+      <c r="B71" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>4</v>
@@ -3927,19 +3923,19 @@
         <v>16</v>
       </c>
       <c r="F71" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>114</v>
-      </c>
       <c r="D72" s="15" t="s">
         <v>4</v>
       </c>
@@ -3947,7 +3943,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>35</v>
@@ -3955,7 +3951,7 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>116</v>
@@ -3975,7 +3971,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>117</v>
@@ -3994,11 +3990,11 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="41" t="s">
-        <v>115</v>
+      <c r="B75" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>4</v>
@@ -4007,7 +4003,7 @@
         <v>16</v>
       </c>
       <c r="F75" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G75" s="15" t="s">
         <v>35</v>
@@ -4015,7 +4011,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>106</v>
@@ -4024,18 +4020,18 @@
         <v>4</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="F76" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G76" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="48" t="s">
-        <v>105</v>
+      <c r="B77" s="49" t="s">
+        <v>120</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>107</v>
@@ -4044,107 +4040,107 @@
         <v>4</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F77" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F78" s="15">
         <v>1</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F79" s="15">
         <v>1</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F80" s="15">
         <v>1</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
@@ -4155,56 +4151,56 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="49" t="s">
-        <v>121</v>
+      <c r="B85" s="51" t="s">
+        <v>124</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
@@ -4215,7 +4211,7 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>126</v>
@@ -4224,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F86" s="15">
         <v>1</v>
@@ -4235,7 +4231,7 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>127</v>
@@ -4244,7 +4240,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
@@ -4254,28 +4250,28 @@
       </c>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="51" t="s">
-        <v>125</v>
+      <c r="B88" s="52" t="s">
+        <v>128</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="F88" s="15">
         <v>1</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>130</v>
@@ -4287,15 +4283,15 @@
         <v>16</v>
       </c>
       <c r="F89" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>131</v>
@@ -4310,35 +4306,35 @@
         <v>0.5</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F91" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="52" t="s">
-        <v>129</v>
+      <c r="B92" s="53" t="s">
+        <v>138</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>4</v>
@@ -4347,15 +4343,15 @@
         <v>9</v>
       </c>
       <c r="F92" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>143</v>
@@ -4370,12 +4366,12 @@
         <v>0.5</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>144</v>
@@ -4390,46 +4386,26 @@
         <v>0.5</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" s="18"/>
-    </row>
-    <row r="116" spans="7:7">
-      <c r="G116" s="40"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="18"/>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:G114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D114" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E115" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E114" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G115" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G114" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4439,6 +4415,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4681,28 +4678,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4719,23 +4714,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496FFAE2-DBA6-4924-869E-3FB6B0C7FE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090969B-2693-4082-AE7D-C69794804228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$C$2:$G$108</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="153">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -811,75 +811,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全方位に回転しながらビーム</t>
-    <rPh sb="0" eb="3">
-      <t>ゼンホウイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全方位に刀を出して突進</t>
-    <rPh sb="0" eb="3">
-      <t>ゼンホウイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カタナ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トッシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドーナツ型の攻撃を手前からアーチを描くように出す</t>
-    <rPh sb="4" eb="5">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テマエ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>エガ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回りながら弾を上下にばらまく</t>
-    <rPh sb="0" eb="1">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウゲ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追尾ミサイル</t>
-    <rPh sb="0" eb="2">
-      <t>ツイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>死亡</t>
     <rPh sb="0" eb="2">
       <t>シボウ</t>
@@ -901,38 +832,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボス部屋</t>
-    <rPh sb="2" eb="4">
-      <t>ベヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡した際セーブポイントから</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -987,49 +887,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムバッグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回復</t>
-    <rPh sb="0" eb="2">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃アップ</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>防御力アップ</t>
-    <rPh sb="0" eb="3">
-      <t>ボウギョリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回復ショートカット</t>
-    <rPh sb="0" eb="2">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>位置調整</t>
-    <rPh sb="0" eb="4">
-      <t>イチチョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1247,18 +1104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エリア3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エリア2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エリア1(チュートリアルステージ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャスト回避攻撃(メイン)</t>
     <rPh sb="4" eb="6">
       <t>カイヒ</t>
@@ -1283,7 +1128,114 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェックポイント</t>
+    <t>死亡した際チェックポイントから</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>十字キー下で回復(回数制限あり)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カイスウセイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル2</t>
+  </si>
+  <si>
+    <t>チュートリアル3</t>
+  </si>
+  <si>
+    <t>ステージ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ2</t>
+  </si>
+  <si>
+    <t>ステージ3</t>
+  </si>
+  <si>
+    <t>ボス1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル用のボス(後々中ボスとして登場予定)</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ノチノチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大ボス　顔と腕を攻撃して戦う</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウデ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イヴっぽいやつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊園地ボスっぽいやつ</t>
+    <rPh sb="0" eb="3">
+      <t>ユウエンチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2181,8 +2133,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F5:F144)</f>
-        <v>75.75</v>
+        <f>SUM(作業工数見積もり!F5:F138)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2190,8 +2142,8 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!G5:G65,"完了",作業工数見積もり!F5:F65)</f>
-        <v>33</v>
+        <f>SUMIF(作業工数見積もり!G5:G63,"完了",作業工数見積もり!F5:F63)</f>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2203,11 +2155,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>1.1000000000000001</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2225,7 +2177,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45972</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2246,11 +2198,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.97159090909090906</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2263,11 +2215,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.72457627118644063</v>
+        <v>0.85964912280701755</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2280,11 +2232,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.72457627118644063</v>
+        <v>0.85964912280701755</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2368,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M115"/>
+  <dimension ref="B2:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2412,10 +2364,10 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="50" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>4</v>
@@ -2427,15 +2379,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="33.75" thickBot="1">
       <c r="B4" s="50" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>4</v>
@@ -2447,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -2479,7 +2431,7 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(J6,J7,J8)</f>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="62"/>
@@ -2509,8 +2461,8 @@
         <v>27</v>
       </c>
       <c r="J6" s="28">
-        <f>COUNTIF(E5:E112,I6)</f>
-        <v>56</v>
+        <f>COUNTIF(E5:E106,I6)</f>
+        <v>49</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="63"/>
@@ -2540,8 +2492,8 @@
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>COUNTIF(E5:E112,I7)</f>
-        <v>23</v>
+        <f>COUNTIF(E5:E106,I7)</f>
+        <v>24</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="63"/>
@@ -2571,7 +2523,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="28">
-        <f>COUNTIF(E5:E112,I8)</f>
+        <f>COUNTIF(E5:E106,I8)</f>
         <v>11</v>
       </c>
       <c r="K8" s="29"/>
@@ -2595,19 +2547,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="28">
-        <f>COUNTIF(G5:G112,I9)</f>
-        <v>54</v>
+        <f>COUNTIF(G5:G106,I9)</f>
+        <v>57</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.6</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2636,12 +2588,12 @@
         <v>41</v>
       </c>
       <c r="J10" s="28">
-        <f>COUNTIF(G5:G112,I10)</f>
-        <v>36</v>
+        <f>COUNTIF(G5:G106,I10)</f>
+        <v>27</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.4</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2663,14 +2615,14 @@
         <v>0.25</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="19">
-        <f>COUNTIF(G5:G112,I11)</f>
+        <f>COUNTIF(G5:G106,I11)</f>
         <v>0</v>
       </c>
       <c r="K11" s="29"/>
@@ -2694,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="38"/>
@@ -2720,15 +2672,15 @@
         <v>0.25</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="39" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="19">
-        <f>SUM(F5:F112)</f>
-        <v>75.75</v>
+        <f>SUM(F5:F106)</f>
+        <v>79</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="63"/>
@@ -2751,7 +2703,7 @@
         <v>0.25</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="57" t="s">
@@ -2759,7 +2711,7 @@
       </c>
       <c r="J14" s="19">
         <f>8*J13</f>
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="63"/>
@@ -2782,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="58" t="s">
@@ -2798,7 +2750,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>4</v>
@@ -2810,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="59" t="s">
@@ -2826,7 +2778,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>4</v>
@@ -2838,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="42"/>
@@ -2862,7 +2814,7 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I18" s="55"/>
     </row>
@@ -2883,7 +2835,7 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I19" s="55"/>
     </row>
@@ -2904,7 +2856,7 @@
         <v>0.25</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I20" s="55"/>
     </row>
@@ -2913,7 +2865,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>4</v>
@@ -2925,7 +2877,7 @@
         <v>0.25</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I21" s="55"/>
     </row>
@@ -2946,7 +2898,7 @@
         <v>0.25</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -2966,7 +2918,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -2986,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -3006,7 +2958,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -3026,7 +2978,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -3046,7 +2998,7 @@
         <v>0.25</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -3066,7 +3018,7 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -3086,7 +3038,7 @@
         <v>0.25</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -3126,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -3146,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -3166,7 +3118,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -3186,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -3206,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -3214,7 +3166,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>4</v>
@@ -3226,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -3234,7 +3186,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>4</v>
@@ -3246,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -3266,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -3286,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -3306,7 +3258,7 @@
         <v>0.5</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -3337,7 +3289,7 @@
         <v>64</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>16</v>
@@ -3357,7 +3309,7 @@
         <v>65</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>16</v>
@@ -3377,7 +3329,7 @@
         <v>66</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>16</v>
@@ -3394,10 +3346,10 @@
         <v>53</v>
       </c>
       <c r="C45" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>9</v>
@@ -3411,10 +3363,10 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="45" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>4</v>
@@ -3426,15 +3378,15 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="45" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>4</v>
@@ -3446,12 +3398,12 @@
         <v>0.5</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="45" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>85</v>
@@ -3466,7 +3418,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -3486,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -3506,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -3517,7 +3469,7 @@
         <v>88</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>9</v>
@@ -3537,7 +3489,7 @@
         <v>89</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>9</v>
@@ -3551,10 +3503,10 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="45" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>4</v>
@@ -3566,24 +3518,24 @@
         <v>1</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="45" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F54" s="15">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>35</v>
@@ -3591,10 +3543,10 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="45" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>4</v>
@@ -3603,7 +3555,7 @@
         <v>9</v>
       </c>
       <c r="F55" s="15">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>35</v>
@@ -3611,10 +3563,10 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="45" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>4</v>
@@ -3623,18 +3575,18 @@
         <v>9</v>
       </c>
       <c r="F56" s="15">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="45" t="s">
-        <v>90</v>
+      <c r="B57" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>4</v>
@@ -3643,58 +3595,58 @@
         <v>9</v>
       </c>
       <c r="F57" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="45" t="s">
-        <v>90</v>
+      <c r="B58" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F58" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="46" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F59" s="15">
         <v>1</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="46" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>4</v>
@@ -3703,18 +3655,18 @@
         <v>9</v>
       </c>
       <c r="F60" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="46" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>4</v>
@@ -3723,7 +3675,7 @@
         <v>9</v>
       </c>
       <c r="F61" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>35</v>
@@ -3731,10 +3683,10 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="46" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>4</v>
@@ -3743,18 +3695,18 @@
         <v>9</v>
       </c>
       <c r="F62" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="46" t="s">
-        <v>98</v>
+      <c r="B63" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>4</v>
@@ -3763,38 +3715,38 @@
         <v>9</v>
       </c>
       <c r="F63" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="46" t="s">
-        <v>98</v>
+      <c r="B64" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F64" s="15">
         <v>1</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="47" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>4</v>
@@ -3803,18 +3755,18 @@
         <v>9</v>
       </c>
       <c r="F65" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="47" t="s">
-        <v>101</v>
+      <c r="B66" s="54" t="s">
+        <v>130</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>4</v>
@@ -3826,35 +3778,35 @@
         <v>1</v>
       </c>
       <c r="G66" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="D67" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F67" s="15">
         <v>1</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>4</v>
@@ -3866,15 +3818,15 @@
         <v>1</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="54" t="s">
-        <v>147</v>
+      <c r="B69" s="48" t="s">
+        <v>94</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>4</v>
@@ -3883,147 +3835,147 @@
         <v>16</v>
       </c>
       <c r="F69" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="15">
         <v>1</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="15">
+      <c r="G71" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="15">
         <v>1</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="15">
-        <v>0.25</v>
-      </c>
       <c r="G72" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="41" t="s">
-        <v>114</v>
+      <c r="B73" s="49" t="s">
+        <v>103</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F73" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="41" t="s">
-        <v>114</v>
+      <c r="B74" s="49" t="s">
+        <v>103</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F74" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="48" t="s">
-        <v>104</v>
+      <c r="B75" s="49" t="s">
+        <v>103</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F75" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G75" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="48" t="s">
-        <v>104</v>
+      <c r="B76" s="49" t="s">
+        <v>103</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="F76" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G76" s="15" t="s">
         <v>35</v>
@@ -4031,36 +3983,36 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="49" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F77" s="15">
         <v>1</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="49" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F78" s="15">
         <v>1</v>
@@ -4070,57 +4022,57 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="49" t="s">
-        <v>120</v>
+      <c r="B79" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F79" s="15">
         <v>1</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="49" t="s">
-        <v>120</v>
+      <c r="B80" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F80" s="15">
         <v>1</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="49" t="s">
-        <v>120</v>
+      <c r="B81" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
@@ -4130,282 +4082,162 @@
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="49" t="s">
-        <v>120</v>
+      <c r="B82" s="52" t="s">
+        <v>111</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F83" s="15">
-        <v>1</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F84" s="15">
-        <v>1</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" s="14" t="s">
+      <c r="D85" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D85" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" s="15">
-        <v>1</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="14" t="s">
+      <c r="D86" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D86" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" s="15">
-        <v>1</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" s="14" t="s">
+      <c r="D87" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F87" s="15">
-        <v>1</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="D88" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F88" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3">
-      <c r="C106" s="18"/>
-    </row>
-    <row r="115" spans="7:7">
-      <c r="G115" s="40"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100" s="18"/>
+    </row>
+    <row r="109" spans="3:7">
+      <c r="G109" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:G108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D114" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D108" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E114" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E108" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G114" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G108" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4424,18 +4256,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4678,6 +4498,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
@@ -4687,17 +4519,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4714,4 +4535,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090969B-2693-4082-AE7D-C69794804228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F5EBB9-5A77-4CDC-A08C-2E8FF86E9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2117,7 +2117,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!G5:G63,"完了",作業工数見積もり!F5:F63)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2155,11 +2155,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>0.9375</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45974</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2193,16 +2193,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <f>DATE(2026,1,10)</f>
-        <v>46032</v>
+        <f>DATE(2026,1,8)</f>
+        <v>46030</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.1666666666666667</v>
+        <v>1.2162162162162162</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2210,16 +2210,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <f>DATE(2026,1,30)</f>
-        <v>46052</v>
+        <f>DATE(2026,1,15)</f>
+        <v>46037</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.85964912280701755</v>
+        <v>1.0714285714285714</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.85964912280701755</v>
+        <v>0.84905660377358494</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2322,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G106,I9)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.6785714285714286</v>
+        <v>0.69047619047619047</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2589,11 +2589,11 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G106,I10)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.32142857142857145</v>
+        <v>0.30952380952380953</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -3538,7 +3538,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -4256,6 +4256,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4498,18 +4510,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
@@ -4519,6 +4519,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4535,15 +4546,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\NierGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F5EBB9-5A77-4CDC-A08C-2E8FF86E9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262D3A1-46E2-439F-B709-6724D70CB37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,13 +1228,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イヴっぽいやつ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遊園地ボスっぽいやつ</t>
     <rPh sb="0" eb="3">
       <t>ユウエンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イヴっぽいやつ(第二形態含む)</t>
+    <rPh sb="8" eb="13">
+      <t>ダイニケイタイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2134,7 +2137,7 @@
       </c>
       <c r="C3">
         <f>SUM(作業工数見積もり!F5:F138)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2143,7 +2146,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!G5:G63,"完了",作業工数見積もり!F5:F63)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2155,11 +2158,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>0.94444444444444442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2177,7 +2180,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45980</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2198,11 +2201,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.2162162162162162</v>
+        <v>1.2285714285714286</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2215,11 +2218,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>1.0714285714285714</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2232,11 +2235,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.84905660377358494</v>
+        <v>0.84313725490196079</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2322,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -2555,11 +2558,11 @@
       </c>
       <c r="J9" s="28">
         <f>COUNTIF(G5:G106,I9)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="33">
         <f>J9/J5</f>
-        <v>0.69047619047619047</v>
+        <v>0.70238095238095233</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="26"/>
@@ -2589,11 +2592,11 @@
       </c>
       <c r="J10" s="28">
         <f>COUNTIF(G5:G106,I10)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="35">
         <f>(J10+J11)/J5</f>
-        <v>0.30952380952380953</v>
+        <v>0.29761904761904762</v>
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="26"/>
@@ -2680,7 +2683,7 @@
       </c>
       <c r="J13" s="19">
         <f>SUM(F5:F106)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="63"/>
@@ -2711,7 +2714,7 @@
       </c>
       <c r="J14" s="19">
         <f>8*J13</f>
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="63"/>
@@ -3546,7 +3549,7 @@
         <v>147</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>4</v>
@@ -3558,7 +3561,7 @@
         <v>4</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -3566,7 +3569,7 @@
         <v>148</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>4</v>
@@ -3575,7 +3578,7 @@
         <v>9</v>
       </c>
       <c r="F56" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>35</v>
@@ -4256,18 +4259,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4510,6 +4501,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
@@ -4519,17 +4522,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4546,4 +4538,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>